--- a/Coursework Reports/5th assignment/xlsx5.xlsx
+++ b/Coursework Reports/5th assignment/xlsx5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B63F870-F30D-44CD-9B3D-7CE79AA4BCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AE2DFF-4149-42AE-B3C8-0C18B5C81998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -735,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -826,6 +826,8 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1133,7 +1135,7 @@
   <dimension ref="A1:R103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,2223 +1230,5657 @@
       <c r="A3" s="11">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="3"/>
+      <c r="B3" s="4">
+        <v>-3.74065</v>
+      </c>
+      <c r="C3" s="21">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-1.9999899999999999</v>
+      </c>
+      <c r="E3" s="26">
+        <v>-1.9999899999999999</v>
+      </c>
+      <c r="F3" s="43">
+        <v>31.9999</v>
+      </c>
+      <c r="G3" s="43">
+        <v>1.7421699999999999E-10</v>
+      </c>
+      <c r="H3" s="21">
+        <v>160</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-1.9999899999999999</v>
+      </c>
+      <c r="J3" s="43">
+        <v>-1.9999899999999999</v>
+      </c>
+      <c r="K3" s="26">
+        <v>319.99900000000002</v>
+      </c>
+      <c r="L3" s="43">
+        <v>1.7421699999999999E-11</v>
+      </c>
+      <c r="M3" s="3">
+        <v>160</v>
+      </c>
+      <c r="N3" s="44">
+        <v>-1.9999899999999999</v>
+      </c>
+      <c r="O3" s="26">
+        <v>-1.9999899999999999</v>
+      </c>
+      <c r="P3" s="26">
+        <v>3199.99</v>
+      </c>
+      <c r="Q3" s="43">
+        <v>1.74217E-12</v>
+      </c>
+      <c r="R3" s="3">
+        <v>160</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>0.01</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="1"/>
+      <c r="B4" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C4" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-1.95987</v>
+      </c>
+      <c r="E4" s="24">
+        <v>-1.96004</v>
+      </c>
+      <c r="F4" s="24">
+        <v>31.362500000000001</v>
+      </c>
+      <c r="G4" s="24">
+        <v>3.2067200000000001E-3</v>
+      </c>
+      <c r="H4" s="22">
+        <v>160</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1.0030900000000001E-2</v>
+      </c>
+      <c r="J4" s="24">
+        <v>1.0059E-2</v>
+      </c>
+      <c r="K4" s="24">
+        <v>79.198400000000007</v>
+      </c>
+      <c r="L4" s="24">
+        <v>0.808056</v>
+      </c>
+      <c r="M4" s="1">
+        <v>254</v>
+      </c>
+      <c r="N4" s="30">
+        <v>1.96082</v>
+      </c>
+      <c r="O4" s="24">
+        <v>1.9607699999999999</v>
+      </c>
+      <c r="P4" s="24">
+        <v>0.30741299999999999</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>0.31375799999999998</v>
+      </c>
+      <c r="R4" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>0.02</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="1"/>
+      <c r="B5" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C5" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-1.9199299999999999</v>
+      </c>
+      <c r="E5" s="24">
+        <v>-1.9199200000000001</v>
+      </c>
+      <c r="F5" s="24">
+        <v>30.7316</v>
+      </c>
+      <c r="G5" s="24">
+        <v>1.28238E-2</v>
+      </c>
+      <c r="H5" s="22">
+        <v>160</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.684419</v>
+      </c>
+      <c r="J5" s="24">
+        <v>0.68462400000000001</v>
+      </c>
+      <c r="K5" s="24">
+        <v>34.609699999999997</v>
+      </c>
+      <c r="L5" s="24">
+        <v>1.44133</v>
+      </c>
+      <c r="M5" s="1">
+        <v>254</v>
+      </c>
+      <c r="N5" s="30">
+        <v>1.9803200000000001</v>
+      </c>
+      <c r="O5" s="24">
+        <v>1.9805900000000001</v>
+      </c>
+      <c r="P5" s="24">
+        <v>7.6376899999999998E-2</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>0.31688100000000002</v>
+      </c>
+      <c r="R5" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>0.03</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="1"/>
+      <c r="B6" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C6" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-1.8798600000000001</v>
+      </c>
+      <c r="E6" s="24">
+        <v>-1.8800300000000001</v>
+      </c>
+      <c r="F6" s="24">
+        <v>30.108000000000001</v>
+      </c>
+      <c r="G6" s="24">
+        <v>2.8826299999999999E-2</v>
+      </c>
+      <c r="H6" s="22">
+        <v>254</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1.0226900000000001</v>
+      </c>
+      <c r="J6" s="24">
+        <v>1.0226599999999999</v>
+      </c>
+      <c r="K6" s="24">
+        <v>19.103300000000001</v>
+      </c>
+      <c r="L6" s="24">
+        <v>1.82731</v>
+      </c>
+      <c r="M6" s="1">
+        <v>254</v>
+      </c>
+      <c r="N6" s="30">
+        <v>1.9872000000000001</v>
+      </c>
+      <c r="O6" s="24">
+        <v>1.9870699999999999</v>
+      </c>
+      <c r="P6" s="24">
+        <v>3.3116600000000003E-2</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>0.317944</v>
+      </c>
+      <c r="R6" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>0.04</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="1"/>
+      <c r="B7" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C7" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-1.8401400000000001</v>
+      </c>
+      <c r="E7" s="24">
+        <v>-1.8398600000000001</v>
+      </c>
+      <c r="F7" s="24">
+        <v>29.491199999999999</v>
+      </c>
+      <c r="G7" s="24">
+        <v>5.1199300000000003E-2</v>
+      </c>
+      <c r="H7" s="22">
+        <v>160</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1.2258100000000001</v>
+      </c>
+      <c r="J7" s="24">
+        <v>1.2258100000000001</v>
+      </c>
+      <c r="K7" s="24">
+        <v>11.987500000000001</v>
+      </c>
+      <c r="L7" s="24">
+        <v>2.0811700000000002</v>
+      </c>
+      <c r="M7" s="1">
+        <v>254</v>
+      </c>
+      <c r="N7" s="30">
+        <v>1.9904299999999999</v>
+      </c>
+      <c r="O7" s="24">
+        <v>1.9904200000000001</v>
+      </c>
+      <c r="P7" s="24">
+        <v>1.8338699999999999E-2</v>
+      </c>
+      <c r="Q7" s="24">
+        <v>0.31846999999999998</v>
+      </c>
+      <c r="R7" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>0.05</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="1"/>
+      <c r="B8" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C8" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-1.7999799999999999</v>
+      </c>
+      <c r="E8" s="24">
+        <v>-1.8000100000000001</v>
+      </c>
+      <c r="F8" s="24">
+        <v>28.879899999999999</v>
+      </c>
+      <c r="G8" s="24">
+        <v>8.0006499999999994E-2</v>
+      </c>
+      <c r="H8" s="22">
+        <v>254</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1.3611599999999999</v>
+      </c>
+      <c r="J8" s="24">
+        <v>1.36145</v>
+      </c>
+      <c r="K8" s="24">
+        <v>8.1587200000000006</v>
+      </c>
+      <c r="L8" s="24">
+        <v>2.2596699999999998</v>
+      </c>
+      <c r="M8" s="1">
+        <v>254</v>
+      </c>
+      <c r="N8" s="30">
+        <v>1.9923999999999999</v>
+      </c>
+      <c r="O8" s="24">
+        <v>1.9924200000000001</v>
+      </c>
+      <c r="P8" s="24">
+        <v>1.1517100000000001E-2</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>0.31878699999999999</v>
+      </c>
+      <c r="R8" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>0.06</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="1"/>
+      <c r="B9" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C9" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D9" s="5">
+        <v>-1.7600800000000001</v>
+      </c>
+      <c r="E9" s="24">
+        <v>-1.7600800000000001</v>
+      </c>
+      <c r="F9" s="24">
+        <v>28.276399999999999</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0.11512600000000001</v>
+      </c>
+      <c r="H9" s="22">
+        <v>160</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1.4580200000000001</v>
+      </c>
+      <c r="J9" s="24">
+        <v>1.4583200000000001</v>
+      </c>
+      <c r="K9" s="24">
+        <v>5.8715900000000003</v>
+      </c>
+      <c r="L9" s="24">
+        <v>2.3917899999999999</v>
+      </c>
+      <c r="M9" s="1">
+        <v>254</v>
+      </c>
+      <c r="N9" s="30">
+        <v>1.99356</v>
+      </c>
+      <c r="O9" s="24">
+        <v>1.9938499999999999</v>
+      </c>
+      <c r="P9" s="24">
+        <v>7.9305999999999995E-3</v>
+      </c>
+      <c r="Q9" s="24">
+        <v>0.318994</v>
+      </c>
+      <c r="R9" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="1"/>
+      <c r="B10" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C10" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-1.7199599999999999</v>
+      </c>
+      <c r="E10" s="24">
+        <v>-1.7199599999999999</v>
+      </c>
+      <c r="F10" s="24">
+        <v>27.676200000000001</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0.15684799999999999</v>
+      </c>
+      <c r="H10" s="22">
+        <v>160</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1.5307500000000001</v>
+      </c>
+      <c r="J10" s="24">
+        <v>1.5309600000000001</v>
+      </c>
+      <c r="K10" s="24">
+        <v>4.40191</v>
+      </c>
+      <c r="L10" s="24">
+        <v>2.4933900000000002</v>
+      </c>
+      <c r="M10" s="1">
+        <v>254</v>
+      </c>
+      <c r="N10" s="30">
+        <v>1.99471</v>
+      </c>
+      <c r="O10" s="24">
+        <v>1.99468</v>
+      </c>
+      <c r="P10" s="24">
+        <v>5.6245000000000002E-3</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>0.31915199999999999</v>
+      </c>
+      <c r="R10" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>0.08</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="1"/>
+      <c r="B11" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C11" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D11" s="5">
+        <v>-1.67984</v>
+      </c>
+      <c r="E11" s="24">
+        <v>-1.68001</v>
+      </c>
+      <c r="F11" s="24">
+        <v>27.0837</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0.204897</v>
+      </c>
+      <c r="H11" s="22">
+        <v>160</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1.5874999999999999</v>
+      </c>
+      <c r="J11" s="24">
+        <v>1.5874200000000001</v>
+      </c>
+      <c r="K11" s="24">
+        <v>3.4038200000000001</v>
+      </c>
+      <c r="L11" s="24">
+        <v>2.5739700000000001</v>
+      </c>
+      <c r="M11" s="1">
+        <v>254</v>
+      </c>
+      <c r="N11" s="30">
+        <v>1.99543</v>
+      </c>
+      <c r="O11" s="24">
+        <v>1.99539</v>
+      </c>
+      <c r="P11" s="24">
+        <v>4.21149E-3</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>0.31926599999999999</v>
+      </c>
+      <c r="R11" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>0.09</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="1"/>
+      <c r="B12" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C12" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-1.6398900000000001</v>
+      </c>
+      <c r="E12" s="24">
+        <v>-1.6398900000000001</v>
+      </c>
+      <c r="F12" s="24">
+        <v>26.497599999999998</v>
+      </c>
+      <c r="G12" s="24">
+        <v>0.25935599999999998</v>
+      </c>
+      <c r="H12" s="22">
+        <v>160</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1.63263</v>
+      </c>
+      <c r="J12" s="24">
+        <v>1.6327199999999999</v>
+      </c>
+      <c r="K12" s="24">
+        <v>2.6985199999999998</v>
+      </c>
+      <c r="L12" s="24">
+        <v>2.6392699999999998</v>
+      </c>
+      <c r="M12" s="1">
+        <v>254</v>
+      </c>
+      <c r="N12" s="30">
+        <v>1.9960199999999999</v>
+      </c>
+      <c r="O12" s="24">
+        <v>1.99593</v>
+      </c>
+      <c r="P12" s="24">
+        <v>3.2386400000000001E-3</v>
+      </c>
+      <c r="Q12" s="24">
+        <v>0.319357</v>
+      </c>
+      <c r="R12" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>0.1</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="1"/>
+      <c r="B13" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C13" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D13" s="5">
+        <v>-1.5997300000000001</v>
+      </c>
+      <c r="E13" s="24">
+        <v>-1.6000700000000001</v>
+      </c>
+      <c r="F13" s="24">
+        <v>25.918600000000001</v>
+      </c>
+      <c r="G13" s="24">
+        <v>0.32016</v>
+      </c>
+      <c r="H13" s="22">
+        <v>254</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1.6696500000000001</v>
+      </c>
+      <c r="J13" s="24">
+        <v>1.6697599999999999</v>
+      </c>
+      <c r="K13" s="24">
+        <v>2.1819099999999998</v>
+      </c>
+      <c r="L13" s="24">
+        <v>2.6933500000000001</v>
+      </c>
+      <c r="M13" s="1">
+        <v>254</v>
+      </c>
+      <c r="N13" s="30">
+        <v>1.9963299999999999</v>
+      </c>
+      <c r="O13" s="24">
+        <v>1.99644</v>
+      </c>
+      <c r="P13" s="24">
+        <v>2.6165799999999999E-3</v>
+      </c>
+      <c r="Q13" s="24">
+        <v>0.31942199999999998</v>
+      </c>
+      <c r="R13" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>0.11</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="1"/>
+      <c r="B14" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C14" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-1.5601100000000001</v>
+      </c>
+      <c r="E14" s="24">
+        <v>-1.5601100000000001</v>
+      </c>
+      <c r="F14" s="24">
+        <v>25.348700000000001</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0.38701000000000002</v>
+      </c>
+      <c r="H14" s="22">
+        <v>160</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1.70072</v>
+      </c>
+      <c r="J14" s="24">
+        <v>1.70051</v>
+      </c>
+      <c r="K14" s="24">
+        <v>1.7925899999999999</v>
+      </c>
+      <c r="L14" s="24">
+        <v>2.7389100000000002</v>
+      </c>
+      <c r="M14" s="1">
+        <v>254</v>
+      </c>
+      <c r="N14" s="30">
+        <v>1.99674</v>
+      </c>
+      <c r="O14" s="24">
+        <v>1.99678</v>
+      </c>
+      <c r="P14" s="24">
+        <v>2.0990700000000002E-3</v>
+      </c>
+      <c r="Q14" s="24">
+        <v>0.31948199999999999</v>
+      </c>
+      <c r="R14" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>0.12</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="1"/>
+      <c r="B15" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C15" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D15" s="5">
+        <v>-1.5199499999999999</v>
+      </c>
+      <c r="E15" s="24">
+        <v>-1.5200100000000001</v>
+      </c>
+      <c r="F15" s="24">
+        <v>24.7805</v>
+      </c>
+      <c r="G15" s="24">
+        <v>0.46083499999999999</v>
+      </c>
+      <c r="H15" s="22">
+        <v>254</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1.72672</v>
+      </c>
+      <c r="J15" s="24">
+        <v>1.7266999999999999</v>
+      </c>
+      <c r="K15" s="24">
+        <v>1.49373</v>
+      </c>
+      <c r="L15" s="24">
+        <v>2.7776800000000001</v>
+      </c>
+      <c r="M15" s="1">
+        <v>254</v>
+      </c>
+      <c r="N15" s="30">
+        <v>1.9971699999999999</v>
+      </c>
+      <c r="O15" s="24">
+        <v>1.99701</v>
+      </c>
+      <c r="P15" s="24">
+        <v>1.69484E-3</v>
+      </c>
+      <c r="Q15" s="24">
+        <v>0.31953500000000001</v>
+      </c>
+      <c r="R15" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>0.13</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="1"/>
+      <c r="B16" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C16" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-1.48004</v>
+      </c>
+      <c r="E16" s="24">
+        <v>-1.48004</v>
+      </c>
+      <c r="F16" s="24">
+        <v>24.221399999999999</v>
+      </c>
+      <c r="G16" s="24">
+        <v>0.54071000000000002</v>
+      </c>
+      <c r="H16" s="22">
+        <v>160</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="J16" s="24">
+        <v>1.7491399999999999</v>
+      </c>
+      <c r="K16" s="24">
+        <v>1.25929</v>
+      </c>
+      <c r="L16" s="24">
+        <v>2.8111100000000002</v>
+      </c>
+      <c r="M16" s="1">
+        <v>254</v>
+      </c>
+      <c r="N16" s="30">
+        <v>1.9973700000000001</v>
+      </c>
+      <c r="O16" s="24">
+        <v>1.9973099999999999</v>
+      </c>
+      <c r="P16" s="24">
+        <v>1.42005E-3</v>
+      </c>
+      <c r="Q16" s="24">
+        <v>0.31957400000000002</v>
+      </c>
+      <c r="R16" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="1"/>
+      <c r="B17" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C17" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-1.4399200000000001</v>
+      </c>
+      <c r="E17" s="24">
+        <v>-1.4399200000000001</v>
+      </c>
+      <c r="F17" s="24">
+        <v>23.6661</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0.62737100000000001</v>
+      </c>
+      <c r="H17" s="22">
+        <v>160</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1.7684299999999999</v>
+      </c>
+      <c r="J17" s="24">
+        <v>1.76854</v>
+      </c>
+      <c r="K17" s="24">
+        <v>1.0719700000000001</v>
+      </c>
+      <c r="L17" s="24">
+        <v>2.8403</v>
+      </c>
+      <c r="M17" s="1">
+        <v>254</v>
+      </c>
+      <c r="N17" s="30">
+        <v>1.99749</v>
+      </c>
+      <c r="O17" s="24">
+        <v>1.9975700000000001</v>
+      </c>
+      <c r="P17" s="24">
+        <v>1.2197099999999999E-3</v>
+      </c>
+      <c r="Q17" s="24">
+        <v>0.31960499999999997</v>
+      </c>
+      <c r="R17" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>0.15</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="1"/>
+      <c r="B18" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C18" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-1.3997999999999999</v>
+      </c>
+      <c r="E18" s="24">
+        <v>-1.39998</v>
+      </c>
+      <c r="F18" s="24">
+        <v>23.118500000000001</v>
+      </c>
+      <c r="G18" s="24">
+        <v>0.72026199999999996</v>
+      </c>
+      <c r="H18" s="22">
+        <v>160</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1.7854699999999999</v>
+      </c>
+      <c r="J18" s="24">
+        <v>1.7855000000000001</v>
+      </c>
+      <c r="K18" s="24">
+        <v>0.92034199999999999</v>
+      </c>
+      <c r="L18" s="24">
+        <v>2.86598</v>
+      </c>
+      <c r="M18" s="1">
+        <v>254</v>
+      </c>
+      <c r="N18" s="30">
+        <v>1.9978</v>
+      </c>
+      <c r="O18" s="24">
+        <v>1.9977100000000001</v>
+      </c>
+      <c r="P18" s="24">
+        <v>1.0125100000000001E-3</v>
+      </c>
+      <c r="Q18" s="24">
+        <v>0.31963999999999998</v>
+      </c>
+      <c r="R18" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>0.16</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="1"/>
+      <c r="B19" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C19" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-1.3601700000000001</v>
+      </c>
+      <c r="E19" s="24">
+        <v>-1.3599399999999999</v>
+      </c>
+      <c r="F19" s="24">
+        <v>22.579899999999999</v>
+      </c>
+      <c r="G19" s="24">
+        <v>0.81906000000000001</v>
+      </c>
+      <c r="H19" s="22">
+        <v>254</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1.8005199999999999</v>
+      </c>
+      <c r="J19" s="24">
+        <v>1.8004500000000001</v>
+      </c>
+      <c r="K19" s="24">
+        <v>0.79611200000000004</v>
+      </c>
+      <c r="L19" s="24">
+        <v>2.8887399999999999</v>
+      </c>
+      <c r="M19" s="1">
+        <v>254</v>
+      </c>
+      <c r="N19" s="30">
+        <v>1.9978899999999999</v>
+      </c>
+      <c r="O19" s="24">
+        <v>1.9979100000000001</v>
+      </c>
+      <c r="P19" s="24">
+        <v>8.8264799999999998E-4</v>
+      </c>
+      <c r="Q19" s="24">
+        <v>0.319664</v>
+      </c>
+      <c r="R19" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>0.17</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="1"/>
+      <c r="B20" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C20" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D20" s="5">
+        <v>-1.32013</v>
+      </c>
+      <c r="E20" s="24">
+        <v>-1.31996</v>
+      </c>
+      <c r="F20" s="24">
+        <v>22.045400000000001</v>
+      </c>
+      <c r="G20" s="24">
+        <v>0.92467100000000002</v>
+      </c>
+      <c r="H20" s="22">
+        <v>254</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1.8138000000000001</v>
+      </c>
+      <c r="J20" s="24">
+        <v>1.8138000000000001</v>
+      </c>
+      <c r="K20" s="24">
+        <v>0.69343299999999997</v>
+      </c>
+      <c r="L20" s="24">
+        <v>2.9090099999999999</v>
+      </c>
+      <c r="M20" s="1">
+        <v>254</v>
+      </c>
+      <c r="N20" s="30">
+        <v>1.9981</v>
+      </c>
+      <c r="O20" s="24">
+        <v>1.99803</v>
+      </c>
+      <c r="P20" s="24">
+        <v>7.5250499999999999E-4</v>
+      </c>
+      <c r="Q20" s="24">
+        <v>0.31968999999999997</v>
+      </c>
+      <c r="R20" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>0.18</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="1"/>
+      <c r="B21" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C21" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-1.2800400000000001</v>
+      </c>
+      <c r="E21" s="24">
+        <v>-1.2799799999999999</v>
+      </c>
+      <c r="F21" s="24">
+        <v>21.516999999999999</v>
+      </c>
+      <c r="G21" s="24">
+        <v>1.0367599999999999</v>
+      </c>
+      <c r="H21" s="22">
+        <v>254</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1.8255399999999999</v>
+      </c>
+      <c r="J21" s="24">
+        <v>1.82582</v>
+      </c>
+      <c r="K21" s="24">
+        <v>0.607761</v>
+      </c>
+      <c r="L21" s="24">
+        <v>2.9271600000000002</v>
+      </c>
+      <c r="M21" s="1">
+        <v>254</v>
+      </c>
+      <c r="N21" s="30">
+        <v>1.99817</v>
+      </c>
+      <c r="O21" s="24">
+        <v>1.9981800000000001</v>
+      </c>
+      <c r="P21" s="24">
+        <v>6.6439299999999999E-4</v>
+      </c>
+      <c r="Q21" s="24">
+        <v>0.31970799999999999</v>
+      </c>
+      <c r="R21" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>0.19</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="1"/>
+      <c r="B22" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C22" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D22" s="5">
+        <v>-1.2399199999999999</v>
+      </c>
+      <c r="E22" s="24">
+        <v>-1.24003</v>
+      </c>
+      <c r="F22" s="24">
+        <v>20.994900000000001</v>
+      </c>
+      <c r="G22" s="24">
+        <v>1.1552800000000001</v>
+      </c>
+      <c r="H22" s="22">
+        <v>254</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1.8364199999999999</v>
+      </c>
+      <c r="J22" s="24">
+        <v>1.83646</v>
+      </c>
+      <c r="K22" s="24">
+        <v>0.53502899999999998</v>
+      </c>
+      <c r="L22" s="24">
+        <v>2.9436599999999999</v>
+      </c>
+      <c r="M22" s="1">
+        <v>254</v>
+      </c>
+      <c r="N22" s="30">
+        <v>1.99824</v>
+      </c>
+      <c r="O22" s="24">
+        <v>1.9983200000000001</v>
+      </c>
+      <c r="P22" s="24">
+        <v>5.9207200000000002E-4</v>
+      </c>
+      <c r="Q22" s="24">
+        <v>0.31972499999999998</v>
+      </c>
+      <c r="R22" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>0.2</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="1"/>
+      <c r="B23" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C23" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-1.20001</v>
+      </c>
+      <c r="E23" s="24">
+        <v>-1.2</v>
+      </c>
+      <c r="F23" s="24">
+        <v>20.48</v>
+      </c>
+      <c r="G23" s="24">
+        <v>1.27999</v>
+      </c>
+      <c r="H23" s="22">
+        <v>254</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1.8461700000000001</v>
+      </c>
+      <c r="J23" s="24">
+        <v>1.84615</v>
+      </c>
+      <c r="K23" s="24">
+        <v>0.47335300000000002</v>
+      </c>
+      <c r="L23" s="24">
+        <v>2.95858</v>
+      </c>
+      <c r="M23" s="1">
+        <v>254</v>
+      </c>
+      <c r="N23" s="30">
+        <v>1.9984900000000001</v>
+      </c>
+      <c r="O23" s="24">
+        <v>1.9983599999999999</v>
+      </c>
+      <c r="P23" s="24">
+        <v>4.9738500000000004E-4</v>
+      </c>
+      <c r="Q23" s="24">
+        <v>0.31974799999999998</v>
+      </c>
+      <c r="R23" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>0.21</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="1"/>
+      <c r="B24" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C24" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D24" s="5">
+        <v>-1.1599299999999999</v>
+      </c>
+      <c r="E24" s="24">
+        <v>-1.1600200000000001</v>
+      </c>
+      <c r="F24" s="24">
+        <v>19.9709</v>
+      </c>
+      <c r="G24" s="24">
+        <v>1.4112899999999999</v>
+      </c>
+      <c r="H24" s="22">
+        <v>254</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1.85504</v>
+      </c>
+      <c r="J24" s="24">
+        <v>1.8549500000000001</v>
+      </c>
+      <c r="K24" s="24">
+        <v>0.42053400000000002</v>
+      </c>
+      <c r="L24" s="24">
+        <v>2.9722</v>
+      </c>
+      <c r="M24" s="1">
+        <v>254</v>
+      </c>
+      <c r="N24" s="30">
+        <v>1.99855</v>
+      </c>
+      <c r="O24" s="24">
+        <v>1.99847</v>
+      </c>
+      <c r="P24" s="24">
+        <v>4.4493400000000002E-4</v>
+      </c>
+      <c r="Q24" s="24">
+        <v>0.31976100000000002</v>
+      </c>
+      <c r="R24" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>0.22</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="1"/>
+      <c r="B25" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C25" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D25" s="5">
+        <v>-1.12022</v>
+      </c>
+      <c r="E25" s="24">
+        <v>-1.11992</v>
+      </c>
+      <c r="F25" s="24">
+        <v>19.4696</v>
+      </c>
+      <c r="G25" s="24">
+        <v>1.5485599999999999</v>
+      </c>
+      <c r="H25" s="22">
+        <v>254</v>
+      </c>
+      <c r="I25" s="5">
+        <v>1.86294</v>
+      </c>
+      <c r="J25" s="24">
+        <v>1.8630800000000001</v>
+      </c>
+      <c r="K25" s="24">
+        <v>0.37530999999999998</v>
+      </c>
+      <c r="L25" s="24">
+        <v>2.9845700000000002</v>
+      </c>
+      <c r="M25" s="1">
+        <v>254</v>
+      </c>
+      <c r="N25" s="30">
+        <v>1.9985900000000001</v>
+      </c>
+      <c r="O25" s="24">
+        <v>1.99858</v>
+      </c>
+      <c r="P25" s="24">
+        <v>4.00698E-4</v>
+      </c>
+      <c r="Q25" s="24">
+        <v>0.319774</v>
+      </c>
+      <c r="R25" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>0.23</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="1"/>
+      <c r="B26" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C26" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D26" s="5">
+        <v>-1.0801499999999999</v>
+      </c>
+      <c r="E26" s="24">
+        <v>-1.0799399999999999</v>
+      </c>
+      <c r="F26" s="24">
+        <v>18.973400000000002</v>
+      </c>
+      <c r="G26" s="24">
+        <v>1.6926300000000001</v>
+      </c>
+      <c r="H26" s="22">
+        <v>254</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1.87025</v>
+      </c>
+      <c r="J26" s="24">
+        <v>1.87052</v>
+      </c>
+      <c r="K26" s="24">
+        <v>0.33599400000000001</v>
+      </c>
+      <c r="L26" s="24">
+        <v>2.9959799999999999</v>
+      </c>
+      <c r="M26" s="1">
+        <v>254</v>
+      </c>
+      <c r="N26" s="30">
+        <v>1.99865</v>
+      </c>
+      <c r="O26" s="24">
+        <v>1.9986699999999999</v>
+      </c>
+      <c r="P26" s="24">
+        <v>3.6039200000000001E-4</v>
+      </c>
+      <c r="Q26" s="24">
+        <v>0.31978499999999999</v>
+      </c>
+      <c r="R26" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>0.24</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="1"/>
+      <c r="B27" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C27" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D27" s="5">
+        <v>-1.0401</v>
+      </c>
+      <c r="E27" s="24">
+        <v>-1.0399700000000001</v>
+      </c>
+      <c r="F27" s="24">
+        <v>18.483599999999999</v>
+      </c>
+      <c r="G27" s="24">
+        <v>1.8430599999999999</v>
+      </c>
+      <c r="H27" s="22">
+        <v>254</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1.87723</v>
+      </c>
+      <c r="J27" s="24">
+        <v>1.8772200000000001</v>
+      </c>
+      <c r="K27" s="24">
+        <v>0.301487</v>
+      </c>
+      <c r="L27" s="24">
+        <v>3.00657</v>
+      </c>
+      <c r="M27" s="1">
+        <v>254</v>
+      </c>
+      <c r="N27" s="30">
+        <v>1.99868</v>
+      </c>
+      <c r="O27" s="24">
+        <v>1.9987600000000001</v>
+      </c>
+      <c r="P27" s="24">
+        <v>3.2782200000000002E-4</v>
+      </c>
+      <c r="Q27" s="24">
+        <v>0.319795</v>
+      </c>
+      <c r="R27" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>0.25</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="1"/>
+      <c r="B28" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C28" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D28" s="5">
+        <v>-1.0000199999999999</v>
+      </c>
+      <c r="E28" s="24">
+        <v>-0.99999099999999996</v>
+      </c>
+      <c r="F28" s="24">
+        <v>18.0001</v>
+      </c>
+      <c r="G28" s="24">
+        <v>1.99997</v>
+      </c>
+      <c r="H28" s="22">
+        <v>254</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1.8834900000000001</v>
+      </c>
+      <c r="J28" s="24">
+        <v>1.8835</v>
+      </c>
+      <c r="K28" s="24">
+        <v>0.27147199999999999</v>
+      </c>
+      <c r="L28" s="24">
+        <v>3.0163099999999998</v>
+      </c>
+      <c r="M28" s="1">
+        <v>254</v>
+      </c>
+      <c r="N28" s="30">
+        <v>1.9986200000000001</v>
+      </c>
+      <c r="O28" s="24">
+        <v>1.9988999999999999</v>
+      </c>
+      <c r="P28" s="24">
+        <v>3.1089300000000002E-4</v>
+      </c>
+      <c r="Q28" s="24">
+        <v>0.31980199999999998</v>
+      </c>
+      <c r="R28" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>0.26</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="1"/>
+      <c r="B29" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C29" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D29" s="5">
+        <v>-0.95989999999999998</v>
+      </c>
+      <c r="E29" s="24">
+        <v>-0.96003899999999998</v>
+      </c>
+      <c r="F29" s="24">
+        <v>17.5228</v>
+      </c>
+      <c r="G29" s="24">
+        <v>2.1633300000000002</v>
+      </c>
+      <c r="H29" s="22">
+        <v>254</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1.8892899999999999</v>
+      </c>
+      <c r="J29" s="24">
+        <v>1.88931</v>
+      </c>
+      <c r="K29" s="24">
+        <v>0.24508199999999999</v>
+      </c>
+      <c r="L29" s="24">
+        <v>3.0253299999999999</v>
+      </c>
+      <c r="M29" s="1">
+        <v>254</v>
+      </c>
+      <c r="N29" s="30">
+        <v>1.99902</v>
+      </c>
+      <c r="O29" s="24">
+        <v>1.9987900000000001</v>
+      </c>
+      <c r="P29" s="24">
+        <v>2.43451E-4</v>
+      </c>
+      <c r="Q29" s="24">
+        <v>0.319824</v>
+      </c>
+      <c r="R29" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>0.27</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="1"/>
+      <c r="B30" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C30" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D30" s="5">
+        <v>-0.91998800000000003</v>
+      </c>
+      <c r="E30" s="24">
+        <v>-0.92000499999999996</v>
+      </c>
+      <c r="F30" s="24">
+        <v>17.052800000000001</v>
+      </c>
+      <c r="G30" s="24">
+        <v>2.3328199999999999</v>
+      </c>
+      <c r="H30" s="22">
+        <v>254</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1.89472</v>
+      </c>
+      <c r="J30" s="24">
+        <v>1.89469</v>
+      </c>
+      <c r="K30" s="24">
+        <v>0.221744</v>
+      </c>
+      <c r="L30" s="24">
+        <v>3.0337399999999999</v>
+      </c>
+      <c r="M30" s="1">
+        <v>254</v>
+      </c>
+      <c r="N30" s="30">
+        <v>1.9990399999999999</v>
+      </c>
+      <c r="O30" s="24">
+        <v>1.99885</v>
+      </c>
+      <c r="P30" s="24">
+        <v>2.2430900000000001E-4</v>
+      </c>
+      <c r="Q30" s="24">
+        <v>0.31983099999999998</v>
+      </c>
+      <c r="R30" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="1"/>
+      <c r="B31" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C31" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D31" s="5">
+        <v>-0.879911</v>
+      </c>
+      <c r="E31" s="24">
+        <v>-0.88002800000000003</v>
+      </c>
+      <c r="F31" s="24">
+        <v>16.5884</v>
+      </c>
+      <c r="G31" s="24">
+        <v>2.5089399999999999</v>
+      </c>
+      <c r="H31" s="22">
+        <v>254</v>
+      </c>
+      <c r="I31" s="5">
+        <v>1.8997599999999999</v>
+      </c>
+      <c r="J31" s="24">
+        <v>1.8996999999999999</v>
+      </c>
+      <c r="K31" s="24">
+        <v>0.20107</v>
+      </c>
+      <c r="L31" s="24">
+        <v>3.0415800000000002</v>
+      </c>
+      <c r="M31" s="1">
+        <v>254</v>
+      </c>
+      <c r="N31" s="30">
+        <v>1.99908</v>
+      </c>
+      <c r="O31" s="24">
+        <v>1.99891</v>
+      </c>
+      <c r="P31" s="24">
+        <v>2.0365300000000001E-4</v>
+      </c>
+      <c r="Q31" s="24">
+        <v>0.31983899999999998</v>
+      </c>
+      <c r="R31" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>0.28999999999999998</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="1"/>
+      <c r="B32" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C32" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D32" s="5">
+        <v>-0.84019699999999997</v>
+      </c>
+      <c r="E32" s="24">
+        <v>-0.83992100000000003</v>
+      </c>
+      <c r="F32" s="24">
+        <v>16.131900000000002</v>
+      </c>
+      <c r="G32" s="24">
+        <v>2.6909299999999998</v>
+      </c>
+      <c r="H32" s="22">
+        <v>254</v>
+      </c>
+      <c r="I32" s="5">
+        <v>1.9044099999999999</v>
+      </c>
+      <c r="J32" s="24">
+        <v>1.9044099999999999</v>
+      </c>
+      <c r="K32" s="24">
+        <v>0.182751</v>
+      </c>
+      <c r="L32" s="24">
+        <v>3.04888</v>
+      </c>
+      <c r="M32" s="1">
+        <v>254</v>
+      </c>
+      <c r="N32" s="30">
+        <v>1.9991099999999999</v>
+      </c>
+      <c r="O32" s="24">
+        <v>1.9989699999999999</v>
+      </c>
+      <c r="P32" s="24">
+        <v>1.8509399999999999E-4</v>
+      </c>
+      <c r="Q32" s="24">
+        <v>0.31984699999999999</v>
+      </c>
+      <c r="R32" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>0.3</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="1"/>
+      <c r="B33" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C33" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D33" s="5">
+        <v>-0.80012700000000003</v>
+      </c>
+      <c r="E33" s="24">
+        <v>-0.79996</v>
+      </c>
+      <c r="F33" s="24">
+        <v>15.6805</v>
+      </c>
+      <c r="G33" s="24">
+        <v>2.8797899999999998</v>
+      </c>
+      <c r="H33" s="22">
+        <v>254</v>
+      </c>
+      <c r="I33" s="5">
+        <v>1.9087700000000001</v>
+      </c>
+      <c r="J33" s="24">
+        <v>1.9088099999999999</v>
+      </c>
+      <c r="K33" s="24">
+        <v>0.16638600000000001</v>
+      </c>
+      <c r="L33" s="24">
+        <v>3.0557300000000001</v>
+      </c>
+      <c r="M33" s="1">
+        <v>254</v>
+      </c>
+      <c r="N33" s="30">
+        <v>1.9991399999999999</v>
+      </c>
+      <c r="O33" s="24">
+        <v>1.9990300000000001</v>
+      </c>
+      <c r="P33" s="24">
+        <v>1.68047E-4</v>
+      </c>
+      <c r="Q33" s="24">
+        <v>0.31985400000000003</v>
+      </c>
+      <c r="R33" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>0.31</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="1"/>
+      <c r="B34" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C34" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D34" s="5">
+        <v>-0.76007899999999995</v>
+      </c>
+      <c r="E34" s="24">
+        <v>-0.75997400000000004</v>
+      </c>
+      <c r="F34" s="24">
+        <v>15.2355</v>
+      </c>
+      <c r="G34" s="24">
+        <v>3.0750700000000002</v>
+      </c>
+      <c r="H34" s="22">
+        <v>254</v>
+      </c>
+      <c r="I34" s="5">
+        <v>1.9129700000000001</v>
+      </c>
+      <c r="J34" s="24">
+        <v>1.9128799999999999</v>
+      </c>
+      <c r="K34" s="24">
+        <v>0.15165100000000001</v>
+      </c>
+      <c r="L34" s="24">
+        <v>3.0621900000000002</v>
+      </c>
+      <c r="M34" s="1">
+        <v>254</v>
+      </c>
+      <c r="N34" s="30">
+        <v>1.99916</v>
+      </c>
+      <c r="O34" s="24">
+        <v>1.99909</v>
+      </c>
+      <c r="P34" s="24">
+        <v>1.54177E-4</v>
+      </c>
+      <c r="Q34" s="24">
+        <v>0.31985999999999998</v>
+      </c>
+      <c r="R34" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>0.32</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="1"/>
+      <c r="B35" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C35" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D35" s="5">
+        <v>-0.72000500000000001</v>
+      </c>
+      <c r="E35" s="24">
+        <v>-0.71999800000000003</v>
+      </c>
+      <c r="F35" s="24">
+        <v>14.796799999999999</v>
+      </c>
+      <c r="G35" s="24">
+        <v>3.2767900000000001</v>
+      </c>
+      <c r="H35" s="22">
+        <v>254</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1.91683</v>
+      </c>
+      <c r="J35" s="24">
+        <v>1.9167400000000001</v>
+      </c>
+      <c r="K35" s="24">
+        <v>0.13849900000000001</v>
+      </c>
+      <c r="L35" s="24">
+        <v>3.0682399999999999</v>
+      </c>
+      <c r="M35" s="1">
+        <v>254</v>
+      </c>
+      <c r="N35" s="30">
+        <v>1.99901</v>
+      </c>
+      <c r="O35" s="24">
+        <v>1.99922</v>
+      </c>
+      <c r="P35" s="24">
+        <v>1.5972999999999999E-4</v>
+      </c>
+      <c r="Q35" s="24">
+        <v>0.31985799999999998</v>
+      </c>
+      <c r="R35" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>0.33</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="1"/>
+      <c r="B36" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C36" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D36" s="5">
+        <v>-0.67988300000000002</v>
+      </c>
+      <c r="E36" s="24">
+        <v>-0.68004799999999999</v>
+      </c>
+      <c r="F36" s="24">
+        <v>14.3644</v>
+      </c>
+      <c r="G36" s="24">
+        <v>3.4849800000000002</v>
+      </c>
+      <c r="H36" s="22">
+        <v>254</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1.9204300000000001</v>
+      </c>
+      <c r="J36" s="24">
+        <v>1.92039</v>
+      </c>
+      <c r="K36" s="24">
+        <v>0.126694</v>
+      </c>
+      <c r="L36" s="24">
+        <v>3.0739200000000002</v>
+      </c>
+      <c r="M36" s="1">
+        <v>254</v>
+      </c>
+      <c r="N36" s="30">
+        <v>1.9990300000000001</v>
+      </c>
+      <c r="O36" s="24">
+        <v>1.9992799999999999</v>
+      </c>
+      <c r="P36" s="24">
+        <v>1.4651399999999999E-4</v>
+      </c>
+      <c r="Q36" s="24">
+        <v>0.31986500000000001</v>
+      </c>
+      <c r="R36" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>0.34</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="1"/>
+      <c r="B37" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C37" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D37" s="5">
+        <v>-0.63997199999999999</v>
+      </c>
+      <c r="E37" s="24">
+        <v>-0.640011</v>
+      </c>
+      <c r="F37" s="24">
+        <v>13.9391</v>
+      </c>
+      <c r="G37" s="24">
+        <v>3.6992400000000001</v>
+      </c>
+      <c r="H37" s="22">
+        <v>254</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1.9238500000000001</v>
+      </c>
+      <c r="J37" s="24">
+        <v>1.9238200000000001</v>
+      </c>
+      <c r="K37" s="24">
+        <v>0.116023</v>
+      </c>
+      <c r="L37" s="24">
+        <v>3.0792999999999999</v>
+      </c>
+      <c r="M37" s="1">
+        <v>254</v>
+      </c>
+      <c r="N37" s="30">
+        <v>1.9992799999999999</v>
+      </c>
+      <c r="O37" s="24">
+        <v>1.9992000000000001</v>
+      </c>
+      <c r="P37" s="24">
+        <v>1.16426E-4</v>
+      </c>
+      <c r="Q37" s="24">
+        <v>0.319878</v>
+      </c>
+      <c r="R37" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>0.35000000000000003</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="1"/>
+      <c r="B38" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C38" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D38" s="5">
+        <v>-0.59989400000000004</v>
+      </c>
+      <c r="E38" s="24">
+        <v>-0.60003499999999999</v>
+      </c>
+      <c r="F38" s="24">
+        <v>13.519600000000001</v>
+      </c>
+      <c r="G38" s="24">
+        <v>3.9201999999999999</v>
+      </c>
+      <c r="H38" s="22">
+        <v>254</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1.9270499999999999</v>
+      </c>
+      <c r="J38" s="24">
+        <v>1.9270799999999999</v>
+      </c>
+      <c r="K38" s="24">
+        <v>0.106393</v>
+      </c>
+      <c r="L38" s="24">
+        <v>3.0843699999999998</v>
+      </c>
+      <c r="M38" s="1">
+        <v>254</v>
+      </c>
+      <c r="N38" s="30">
+        <v>1.9993000000000001</v>
+      </c>
+      <c r="O38" s="24">
+        <v>1.9992399999999999</v>
+      </c>
+      <c r="P38" s="24">
+        <v>1.07392E-4</v>
+      </c>
+      <c r="Q38" s="24">
+        <v>0.31988299999999997</v>
+      </c>
+      <c r="R38" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>0.36</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="1"/>
+      <c r="B39" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C39" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D39" s="5">
+        <v>-0.56018000000000001</v>
+      </c>
+      <c r="E39" s="24">
+        <v>-0.55992399999999998</v>
+      </c>
+      <c r="F39" s="24">
+        <v>13.107699999999999</v>
+      </c>
+      <c r="G39" s="24">
+        <v>4.1468999999999996</v>
+      </c>
+      <c r="H39" s="22">
+        <v>254</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1.9301299999999999</v>
+      </c>
+      <c r="J39" s="24">
+        <v>1.9301299999999999</v>
+      </c>
+      <c r="K39" s="24">
+        <v>9.7635200000000005E-2</v>
+      </c>
+      <c r="L39" s="24">
+        <v>3.0891799999999998</v>
+      </c>
+      <c r="M39" s="1">
+        <v>254</v>
+      </c>
+      <c r="N39" s="30">
+        <v>1.9993099999999999</v>
+      </c>
+      <c r="O39" s="24">
+        <v>1.9992799999999999</v>
+      </c>
+      <c r="P39" s="46">
+        <v>9.9975400000000005E-5</v>
+      </c>
+      <c r="Q39" s="24">
+        <v>0.31988699999999998</v>
+      </c>
+      <c r="R39" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>0.37</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="1"/>
+      <c r="B40" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C40" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D40" s="5">
+        <v>-0.51997199999999999</v>
+      </c>
+      <c r="E40" s="24">
+        <v>-0.52000999999999997</v>
+      </c>
+      <c r="F40" s="24">
+        <v>12.700699999999999</v>
+      </c>
+      <c r="G40" s="24">
+        <v>4.3808600000000002</v>
+      </c>
+      <c r="H40" s="22">
+        <v>254</v>
+      </c>
+      <c r="I40" s="5">
+        <v>1.93289</v>
+      </c>
+      <c r="J40" s="24">
+        <v>1.9331</v>
+      </c>
+      <c r="K40" s="24">
+        <v>8.97921E-2</v>
+      </c>
+      <c r="L40" s="24">
+        <v>3.0936900000000001</v>
+      </c>
+      <c r="M40" s="1">
+        <v>254</v>
+      </c>
+      <c r="N40" s="30">
+        <v>1.9993300000000001</v>
+      </c>
+      <c r="O40" s="24">
+        <v>1.9993099999999999</v>
+      </c>
+      <c r="P40" s="46">
+        <v>9.2213200000000007E-5</v>
+      </c>
+      <c r="Q40" s="24">
+        <v>0.31989099999999998</v>
+      </c>
+      <c r="R40" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>0.38</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="1"/>
+      <c r="B41" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C41" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D41" s="5">
+        <v>-0.48004599999999997</v>
+      </c>
+      <c r="E41" s="24">
+        <v>-0.47998000000000002</v>
+      </c>
+      <c r="F41" s="24">
+        <v>12.3009</v>
+      </c>
+      <c r="G41" s="24">
+        <v>4.6207200000000004</v>
+      </c>
+      <c r="H41" s="22">
+        <v>254</v>
+      </c>
+      <c r="I41" s="5">
+        <v>1.9356100000000001</v>
+      </c>
+      <c r="J41" s="24">
+        <v>1.93588</v>
+      </c>
+      <c r="K41" s="24">
+        <v>8.25684E-2</v>
+      </c>
+      <c r="L41" s="24">
+        <v>3.09802</v>
+      </c>
+      <c r="M41" s="1">
+        <v>254</v>
+      </c>
+      <c r="N41" s="30">
+        <v>1.99935</v>
+      </c>
+      <c r="O41" s="24">
+        <v>1.99935</v>
+      </c>
+      <c r="P41" s="46">
+        <v>8.5078200000000001E-5</v>
+      </c>
+      <c r="Q41" s="24">
+        <v>0.31989600000000001</v>
+      </c>
+      <c r="R41" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>0.39</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="1"/>
+      <c r="B42" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C42" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D42" s="5">
+        <v>-0.43998799999999999</v>
+      </c>
+      <c r="E42" s="24">
+        <v>-0.44000499999999998</v>
+      </c>
+      <c r="F42" s="24">
+        <v>11.9072</v>
+      </c>
+      <c r="G42" s="24">
+        <v>4.8672199999999997</v>
+      </c>
+      <c r="H42" s="22">
+        <v>254</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1.93835</v>
+      </c>
+      <c r="J42" s="24">
+        <v>1.93842</v>
+      </c>
+      <c r="K42" s="24">
+        <v>7.5921699999999995E-2</v>
+      </c>
+      <c r="L42" s="24">
+        <v>3.1021800000000002</v>
+      </c>
+      <c r="M42" s="1">
+        <v>254</v>
+      </c>
+      <c r="N42" s="30">
+        <v>1.9993700000000001</v>
+      </c>
+      <c r="O42" s="24">
+        <v>1.9993799999999999</v>
+      </c>
+      <c r="P42" s="46">
+        <v>7.8671999999999995E-5</v>
+      </c>
+      <c r="Q42" s="24">
+        <v>0.31990000000000002</v>
+      </c>
+      <c r="R42" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>0.4</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="1"/>
+      <c r="B43" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C43" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D43" s="5">
+        <v>-0.399868</v>
+      </c>
+      <c r="E43" s="24">
+        <v>-0.40005800000000002</v>
+      </c>
+      <c r="F43" s="24">
+        <v>11.519600000000001</v>
+      </c>
+      <c r="G43" s="24">
+        <v>5.1202399999999999</v>
+      </c>
+      <c r="H43" s="22">
+        <v>254</v>
+      </c>
+      <c r="I43" s="5">
+        <v>1.9407000000000001</v>
+      </c>
+      <c r="J43" s="24">
+        <v>1.94099</v>
+      </c>
+      <c r="K43" s="24">
+        <v>6.9985000000000006E-2</v>
+      </c>
+      <c r="L43" s="24">
+        <v>3.1060500000000002</v>
+      </c>
+      <c r="M43" s="1">
+        <v>254</v>
+      </c>
+      <c r="N43" s="30">
+        <v>1.9993799999999999</v>
+      </c>
+      <c r="O43" s="24">
+        <v>1.9994099999999999</v>
+      </c>
+      <c r="P43" s="46">
+        <v>7.2920899999999995E-5</v>
+      </c>
+      <c r="Q43" s="24">
+        <v>0.31990299999999999</v>
+      </c>
+      <c r="R43" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>0.41000000000000003</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="1"/>
+      <c r="B44" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C44" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D44" s="5">
+        <v>-0.359958</v>
+      </c>
+      <c r="E44" s="24">
+        <v>-0.360018</v>
+      </c>
+      <c r="F44" s="24">
+        <v>11.139099999999999</v>
+      </c>
+      <c r="G44" s="24">
+        <v>5.3792799999999996</v>
+      </c>
+      <c r="H44" s="22">
+        <v>254</v>
+      </c>
+      <c r="I44" s="5">
+        <v>1.9432799999999999</v>
+      </c>
+      <c r="J44" s="24">
+        <v>1.9432400000000001</v>
+      </c>
+      <c r="K44" s="24">
+        <v>6.4385100000000001E-2</v>
+      </c>
+      <c r="L44" s="24">
+        <v>3.1098599999999998</v>
+      </c>
+      <c r="M44" s="1">
+        <v>254</v>
+      </c>
+      <c r="N44" s="30">
+        <v>1.9994000000000001</v>
+      </c>
+      <c r="O44" s="24">
+        <v>1.9994400000000001</v>
+      </c>
+      <c r="P44" s="46">
+        <v>6.7566500000000004E-5</v>
+      </c>
+      <c r="Q44" s="24">
+        <v>0.319907</v>
+      </c>
+      <c r="R44" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>0.42</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="1"/>
+      <c r="B45" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C45" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D45" s="5">
+        <v>-0.31987900000000002</v>
+      </c>
+      <c r="E45" s="24">
+        <v>-0.32004199999999999</v>
+      </c>
+      <c r="F45" s="24">
+        <v>10.7644</v>
+      </c>
+      <c r="G45" s="24">
+        <v>5.64506</v>
+      </c>
+      <c r="H45" s="22">
+        <v>254</v>
+      </c>
+      <c r="I45" s="5">
+        <v>1.9456100000000001</v>
+      </c>
+      <c r="J45" s="24">
+        <v>1.94547</v>
+      </c>
+      <c r="K45" s="24">
+        <v>5.9320999999999999E-2</v>
+      </c>
+      <c r="L45" s="24">
+        <v>3.1134499999999998</v>
+      </c>
+      <c r="M45" s="1">
+        <v>254</v>
+      </c>
+      <c r="N45" s="30">
+        <v>1.9994099999999999</v>
+      </c>
+      <c r="O45" s="24">
+        <v>1.9994700000000001</v>
+      </c>
+      <c r="P45" s="46">
+        <v>6.3571499999999999E-5</v>
+      </c>
+      <c r="Q45" s="24">
+        <v>0.31991000000000003</v>
+      </c>
+      <c r="R45" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>0.43</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="1"/>
+      <c r="B46" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C46" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D46" s="5">
+        <v>-0.28007300000000002</v>
+      </c>
+      <c r="E46" s="24">
+        <v>-0.279974</v>
+      </c>
+      <c r="F46" s="24">
+        <v>10.397</v>
+      </c>
+      <c r="G46" s="24">
+        <v>5.9166400000000001</v>
+      </c>
+      <c r="H46" s="22">
+        <v>254</v>
+      </c>
+      <c r="I46" s="5">
+        <v>1.94767</v>
+      </c>
+      <c r="J46" s="24">
+        <v>1.94767</v>
+      </c>
+      <c r="K46" s="24">
+        <v>5.4769999999999999E-2</v>
+      </c>
+      <c r="L46" s="24">
+        <v>3.1168200000000001</v>
+      </c>
+      <c r="M46" s="1">
+        <v>254</v>
+      </c>
+      <c r="N46" s="30">
+        <v>1.99942</v>
+      </c>
+      <c r="O46" s="24">
+        <v>1.99949</v>
+      </c>
+      <c r="P46" s="46">
+        <v>5.9371599999999999E-5</v>
+      </c>
+      <c r="Q46" s="24">
+        <v>0.319913</v>
+      </c>
+      <c r="R46" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>0.44</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="1"/>
+      <c r="B47" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C47" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D47" s="5">
+        <v>-0.239949</v>
+      </c>
+      <c r="E47" s="24">
+        <v>-0.24001800000000001</v>
+      </c>
+      <c r="F47" s="24">
+        <v>10.0351</v>
+      </c>
+      <c r="G47" s="24">
+        <v>6.1953100000000001</v>
+      </c>
+      <c r="H47" s="22">
+        <v>254</v>
+      </c>
+      <c r="I47" s="5">
+        <v>1.94967</v>
+      </c>
+      <c r="J47" s="24">
+        <v>1.9497599999999999</v>
+      </c>
+      <c r="K47" s="24">
+        <v>5.0573600000000003E-2</v>
+      </c>
+      <c r="L47" s="24">
+        <v>3.12005</v>
+      </c>
+      <c r="M47" s="1">
+        <v>254</v>
+      </c>
+      <c r="N47" s="30">
+        <v>1.99943</v>
+      </c>
+      <c r="O47" s="24">
+        <v>1.99952</v>
+      </c>
+      <c r="P47" s="46">
+        <v>5.5420900000000003E-5</v>
+      </c>
+      <c r="Q47" s="24">
+        <v>0.31991599999999998</v>
+      </c>
+      <c r="R47" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>0.45</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="1"/>
+      <c r="B48" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C48" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D48" s="5">
+        <v>-0.20002800000000001</v>
+      </c>
+      <c r="E48" s="24">
+        <v>-0.199987</v>
+      </c>
+      <c r="F48" s="24">
+        <v>9.6800700000000006</v>
+      </c>
+      <c r="G48" s="24">
+        <v>6.47994</v>
+      </c>
+      <c r="H48" s="22">
+        <v>254</v>
+      </c>
+      <c r="I48" s="5">
+        <v>1.9516199999999999</v>
+      </c>
+      <c r="J48" s="24">
+        <v>1.95174</v>
+      </c>
+      <c r="K48" s="24">
+        <v>4.6696000000000001E-2</v>
+      </c>
+      <c r="L48" s="24">
+        <v>3.1231599999999999</v>
+      </c>
+      <c r="M48" s="1">
+        <v>254</v>
+      </c>
+      <c r="N48" s="30">
+        <v>1.9994400000000001</v>
+      </c>
+      <c r="O48" s="24">
+        <v>1.9995400000000001</v>
+      </c>
+      <c r="P48" s="46">
+        <v>5.1880299999999999E-5</v>
+      </c>
+      <c r="Q48" s="24">
+        <v>0.31991900000000001</v>
+      </c>
+      <c r="R48" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>0.46</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="1"/>
+      <c r="B49" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C49" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D49" s="5">
+        <v>-0.15997400000000001</v>
+      </c>
+      <c r="E49" s="24">
+        <v>-0.16001199999999999</v>
+      </c>
+      <c r="F49" s="24">
+        <v>9.3311399999999995</v>
+      </c>
+      <c r="G49" s="24">
+        <v>6.7712500000000002</v>
+      </c>
+      <c r="H49" s="22">
+        <v>254</v>
+      </c>
+      <c r="I49" s="5">
+        <v>1.95353</v>
+      </c>
+      <c r="J49" s="24">
+        <v>1.9536199999999999</v>
+      </c>
+      <c r="K49" s="24">
+        <v>4.3111099999999999E-2</v>
+      </c>
+      <c r="L49" s="24">
+        <v>3.12615</v>
+      </c>
+      <c r="M49" s="1">
+        <v>254</v>
+      </c>
+      <c r="N49" s="30">
+        <v>1.9994499999999999</v>
+      </c>
+      <c r="O49" s="24">
+        <v>1.9995700000000001</v>
+      </c>
+      <c r="P49" s="46">
+        <v>4.8674000000000002E-5</v>
+      </c>
+      <c r="Q49" s="24">
+        <v>0.31992199999999998</v>
+      </c>
+      <c r="R49" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>0.47000000000000003</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="1"/>
+      <c r="B50" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C50" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D50" s="5">
+        <v>-0.119854</v>
+      </c>
+      <c r="E50" s="24">
+        <v>-0.12006600000000001</v>
+      </c>
+      <c r="F50" s="24">
+        <v>8.9884599999999999</v>
+      </c>
+      <c r="G50" s="24">
+        <v>7.0690999999999997</v>
+      </c>
+      <c r="H50" s="22">
+        <v>254</v>
+      </c>
+      <c r="I50" s="5">
+        <v>1.95539</v>
+      </c>
+      <c r="J50" s="24">
+        <v>1.9554</v>
+      </c>
+      <c r="K50" s="24">
+        <v>3.9792300000000003E-2</v>
+      </c>
+      <c r="L50" s="24">
+        <v>3.1290300000000002</v>
+      </c>
+      <c r="M50" s="1">
+        <v>254</v>
+      </c>
+      <c r="N50" s="30">
+        <v>1.99946</v>
+      </c>
+      <c r="O50" s="24">
+        <v>1.99959</v>
+      </c>
+      <c r="P50" s="46">
+        <v>4.5593799999999997E-5</v>
+      </c>
+      <c r="Q50" s="24">
+        <v>0.31992399999999999</v>
+      </c>
+      <c r="R50" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>0.48</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="1"/>
+      <c r="B51" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C51" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D51" s="5">
+        <v>-7.9931199999999994E-2</v>
+      </c>
+      <c r="E51" s="24">
+        <v>-8.0025299999999994E-2</v>
+      </c>
+      <c r="F51" s="24">
+        <v>8.6526200000000006</v>
+      </c>
+      <c r="G51" s="24">
+        <v>7.3729699999999996</v>
+      </c>
+      <c r="H51" s="22">
+        <v>254</v>
+      </c>
+      <c r="I51" s="5">
+        <v>1.9570799999999999</v>
+      </c>
+      <c r="J51" s="24">
+        <v>1.9571499999999999</v>
+      </c>
+      <c r="K51" s="24">
+        <v>3.6776700000000002E-2</v>
+      </c>
+      <c r="L51" s="24">
+        <v>3.1317599999999999</v>
+      </c>
+      <c r="M51" s="1">
+        <v>254</v>
+      </c>
+      <c r="N51" s="30">
+        <v>1.9994700000000001</v>
+      </c>
+      <c r="O51" s="24">
+        <v>1.9996100000000001</v>
+      </c>
+      <c r="P51" s="46">
+        <v>4.28169E-5</v>
+      </c>
+      <c r="Q51" s="24">
+        <v>0.31992700000000002</v>
+      </c>
+      <c r="R51" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>0.49</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="1"/>
+      <c r="B52" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C52" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D52" s="5">
+        <v>-4.0118300000000003E-2</v>
+      </c>
+      <c r="E52" s="24">
+        <v>-3.9956600000000002E-2</v>
+      </c>
+      <c r="F52" s="24">
+        <v>8.3235100000000006</v>
+      </c>
+      <c r="G52" s="24">
+        <v>7.6829099999999997</v>
+      </c>
+      <c r="H52" s="22">
+        <v>254</v>
+      </c>
+      <c r="I52" s="5">
+        <v>1.95886</v>
+      </c>
+      <c r="J52" s="24">
+        <v>1.9587600000000001</v>
+      </c>
+      <c r="K52" s="24">
+        <v>3.3926900000000003E-2</v>
+      </c>
+      <c r="L52" s="24">
+        <v>3.1344400000000001</v>
+      </c>
+      <c r="M52" s="1">
+        <v>254</v>
+      </c>
+      <c r="N52" s="30">
+        <v>1.9996799999999999</v>
+      </c>
+      <c r="O52" s="24">
+        <v>1.9995400000000001</v>
+      </c>
+      <c r="P52" s="46">
+        <v>3.1632199999999998E-5</v>
+      </c>
+      <c r="Q52" s="24">
+        <v>0.31993700000000003</v>
+      </c>
+      <c r="R52" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>0.5</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="1"/>
+      <c r="B53" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C53" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D53" s="45">
+        <v>-4.1449000000000002E-5</v>
+      </c>
+      <c r="E53" s="46">
+        <v>1.8958100000000001E-5</v>
+      </c>
+      <c r="F53" s="24">
+        <v>8.0000900000000001</v>
+      </c>
+      <c r="G53" s="24">
+        <v>7.9999099999999999</v>
+      </c>
+      <c r="H53" s="22">
+        <v>254</v>
+      </c>
+      <c r="I53" s="5">
+        <v>1.9603999999999999</v>
+      </c>
+      <c r="J53" s="24">
+        <v>1.9603900000000001</v>
+      </c>
+      <c r="K53" s="24">
+        <v>3.1366400000000003E-2</v>
+      </c>
+      <c r="L53" s="24">
+        <v>3.1369500000000001</v>
+      </c>
+      <c r="M53" s="1">
+        <v>254</v>
+      </c>
+      <c r="N53" s="30">
+        <v>1.99969</v>
+      </c>
+      <c r="O53" s="24">
+        <v>1.99956</v>
+      </c>
+      <c r="P53" s="46">
+        <v>2.9236099999999999E-5</v>
+      </c>
+      <c r="Q53" s="24">
+        <v>0.31994</v>
+      </c>
+      <c r="R53" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>0.51</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="1"/>
+      <c r="B54" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C54" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D54" s="5">
+        <v>4.00779E-2</v>
+      </c>
+      <c r="E54" s="24">
+        <v>3.9963600000000002E-2</v>
+      </c>
+      <c r="F54" s="24">
+        <v>7.6830400000000001</v>
+      </c>
+      <c r="G54" s="24">
+        <v>8.3233700000000006</v>
+      </c>
+      <c r="H54" s="22">
+        <v>254</v>
+      </c>
+      <c r="I54" s="5">
+        <v>1.9619899999999999</v>
+      </c>
+      <c r="J54" s="24">
+        <v>1.96191</v>
+      </c>
+      <c r="K54" s="24">
+        <v>2.8956599999999999E-2</v>
+      </c>
+      <c r="L54" s="24">
+        <v>3.1394099999999998</v>
+      </c>
+      <c r="M54" s="1">
+        <v>254</v>
+      </c>
+      <c r="N54" s="30">
+        <v>1.9997</v>
+      </c>
+      <c r="O54" s="24">
+        <v>1.9995799999999999</v>
+      </c>
+      <c r="P54" s="46">
+        <v>2.7034199999999999E-5</v>
+      </c>
+      <c r="Q54" s="24">
+        <v>0.319942</v>
+      </c>
+      <c r="R54" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>0.52</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="1"/>
+      <c r="B55" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C55" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D55" s="5">
+        <v>7.9987699999999995E-2</v>
+      </c>
+      <c r="E55" s="24">
+        <v>8.0005900000000005E-2</v>
+      </c>
+      <c r="F55" s="24">
+        <v>7.3728199999999999</v>
+      </c>
+      <c r="G55" s="24">
+        <v>8.6527700000000003</v>
+      </c>
+      <c r="H55" s="22">
+        <v>254</v>
+      </c>
+      <c r="I55" s="5">
+        <v>1.96347</v>
+      </c>
+      <c r="J55" s="24">
+        <v>1.96339</v>
+      </c>
+      <c r="K55" s="24">
+        <v>2.67488E-2</v>
+      </c>
+      <c r="L55" s="24">
+        <v>3.14175</v>
+      </c>
+      <c r="M55" s="1">
+        <v>254</v>
+      </c>
+      <c r="N55" s="30">
+        <v>1.9997100000000001</v>
+      </c>
+      <c r="O55" s="24">
+        <v>1.9996</v>
+      </c>
+      <c r="P55" s="46">
+        <v>2.50723E-5</v>
+      </c>
+      <c r="Q55" s="24">
+        <v>0.31994400000000001</v>
+      </c>
+      <c r="R55" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>0.53</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="1"/>
+      <c r="B56" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C56" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0.12003900000000001</v>
+      </c>
+      <c r="E56" s="24">
+        <v>0.119981</v>
+      </c>
+      <c r="F56" s="24">
+        <v>7.0687199999999999</v>
+      </c>
+      <c r="G56" s="24">
+        <v>8.9888899999999996</v>
+      </c>
+      <c r="H56" s="22">
+        <v>254</v>
+      </c>
+      <c r="I56" s="5">
+        <v>1.9648000000000001</v>
+      </c>
+      <c r="J56" s="24">
+        <v>1.9648600000000001</v>
+      </c>
+      <c r="K56" s="24">
+        <v>2.4740499999999999E-2</v>
+      </c>
+      <c r="L56" s="24">
+        <v>3.1439699999999999</v>
+      </c>
+      <c r="M56" s="1">
+        <v>254</v>
+      </c>
+      <c r="N56" s="30">
+        <v>1.9997100000000001</v>
+      </c>
+      <c r="O56" s="24">
+        <v>1.9996100000000001</v>
+      </c>
+      <c r="P56" s="46">
+        <v>2.31868E-5</v>
+      </c>
+      <c r="Q56" s="24">
+        <v>0.31994600000000001</v>
+      </c>
+      <c r="R56" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>0.54</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="1"/>
+      <c r="B57" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C57" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0.16015799999999999</v>
+      </c>
+      <c r="E57" s="24">
+        <v>0.15992500000000001</v>
+      </c>
+      <c r="F57" s="24">
+        <v>6.7708899999999996</v>
+      </c>
+      <c r="G57" s="24">
+        <v>9.3315599999999996</v>
+      </c>
+      <c r="H57" s="22">
+        <v>254</v>
+      </c>
+      <c r="I57" s="5">
+        <v>1.96634</v>
+      </c>
+      <c r="J57" s="24">
+        <v>1.96614</v>
+      </c>
+      <c r="K57" s="24">
+        <v>2.2792400000000001E-2</v>
+      </c>
+      <c r="L57" s="24">
+        <v>3.14621</v>
+      </c>
+      <c r="M57" s="1">
+        <v>254</v>
+      </c>
+      <c r="N57" s="30">
+        <v>1.9997199999999999</v>
+      </c>
+      <c r="O57" s="24">
+        <v>1.99963</v>
+      </c>
+      <c r="P57" s="46">
+        <v>2.14639E-5</v>
+      </c>
+      <c r="Q57" s="24">
+        <v>0.31994800000000001</v>
+      </c>
+      <c r="R57" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="1"/>
+      <c r="B58" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C58" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0.19983699999999999</v>
+      </c>
+      <c r="E58" s="24">
+        <v>0.20007800000000001</v>
+      </c>
+      <c r="F58" s="24">
+        <v>6.4803100000000002</v>
+      </c>
+      <c r="G58" s="24">
+        <v>9.6796299999999995</v>
+      </c>
+      <c r="H58" s="22">
+        <v>254</v>
+      </c>
+      <c r="I58" s="5">
+        <v>1.96763</v>
+      </c>
+      <c r="J58" s="24">
+        <v>1.96749</v>
+      </c>
+      <c r="K58" s="24">
+        <v>2.10511E-2</v>
+      </c>
+      <c r="L58" s="24">
+        <v>3.1482999999999999</v>
+      </c>
+      <c r="M58" s="1">
+        <v>254</v>
+      </c>
+      <c r="N58" s="30">
+        <v>1.99973</v>
+      </c>
+      <c r="O58" s="24">
+        <v>1.9996499999999999</v>
+      </c>
+      <c r="P58" s="46">
+        <v>1.9893000000000001E-5</v>
+      </c>
+      <c r="Q58" s="24">
+        <v>0.31995000000000001</v>
+      </c>
+      <c r="R58" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="24"/>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="1"/>
+      <c r="B59" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C59" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0.23990400000000001</v>
+      </c>
+      <c r="E59" s="24">
+        <v>0.240037</v>
+      </c>
+      <c r="F59" s="24">
+        <v>6.1954099999999999</v>
+      </c>
+      <c r="G59" s="24">
+        <v>10.0349</v>
+      </c>
+      <c r="H59" s="22">
+        <v>254</v>
+      </c>
+      <c r="I59" s="5">
+        <v>1.96872</v>
+      </c>
+      <c r="J59" s="24">
+        <v>1.9688600000000001</v>
+      </c>
+      <c r="K59" s="24">
+        <v>1.9479900000000001E-2</v>
+      </c>
+      <c r="L59" s="24">
+        <v>3.1502599999999998</v>
+      </c>
+      <c r="M59" s="1">
+        <v>254</v>
+      </c>
+      <c r="N59" s="30">
+        <v>1.9997400000000001</v>
+      </c>
+      <c r="O59" s="24">
+        <v>1.99966</v>
+      </c>
+      <c r="P59" s="46">
+        <v>1.8354000000000001E-5</v>
+      </c>
+      <c r="Q59" s="24">
+        <v>0.31995200000000001</v>
+      </c>
+      <c r="R59" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>0.57000000000000006</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="24"/>
-      <c r="R60" s="1"/>
+      <c r="B60" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C60" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D60" s="5">
+        <v>0.27997499999999997</v>
+      </c>
+      <c r="E60" s="24">
+        <v>0.28001199999999998</v>
+      </c>
+      <c r="F60" s="24">
+        <v>5.9168500000000002</v>
+      </c>
+      <c r="G60" s="24">
+        <v>10.396699999999999</v>
+      </c>
+      <c r="H60" s="22">
+        <v>254</v>
+      </c>
+      <c r="I60" s="5">
+        <v>1.9701299999999999</v>
+      </c>
+      <c r="J60" s="24">
+        <v>1.97001</v>
+      </c>
+      <c r="K60" s="24">
+        <v>1.7913499999999999E-2</v>
+      </c>
+      <c r="L60" s="24">
+        <v>3.1522899999999998</v>
+      </c>
+      <c r="M60" s="1">
+        <v>254</v>
+      </c>
+      <c r="N60" s="30">
+        <v>1.9997400000000001</v>
+      </c>
+      <c r="O60" s="24">
+        <v>1.9996799999999999</v>
+      </c>
+      <c r="P60" s="46">
+        <v>1.70323E-5</v>
+      </c>
+      <c r="Q60" s="24">
+        <v>0.31995400000000002</v>
+      </c>
+      <c r="R60" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>0.57999999999999996</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="24"/>
-      <c r="Q61" s="24"/>
-      <c r="R61" s="1"/>
+      <c r="B61" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C61" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0.32009300000000002</v>
+      </c>
+      <c r="E61" s="24">
+        <v>0.31995499999999999</v>
+      </c>
+      <c r="F61" s="24">
+        <v>5.6446399999999999</v>
+      </c>
+      <c r="G61" s="24">
+        <v>10.765000000000001</v>
+      </c>
+      <c r="H61" s="22">
+        <v>254</v>
+      </c>
+      <c r="I61" s="5">
+        <v>1.97132</v>
+      </c>
+      <c r="J61" s="24">
+        <v>1.9712000000000001</v>
+      </c>
+      <c r="K61" s="24">
+        <v>1.65148E-2</v>
+      </c>
+      <c r="L61" s="24">
+        <v>3.1541899999999998</v>
+      </c>
+      <c r="M61" s="1">
+        <v>254</v>
+      </c>
+      <c r="N61" s="30">
+        <v>1.9997499999999999</v>
+      </c>
+      <c r="O61" s="24">
+        <v>1.99969</v>
+      </c>
+      <c r="P61" s="46">
+        <v>1.57346E-5</v>
+      </c>
+      <c r="Q61" s="24">
+        <v>0.31995499999999999</v>
+      </c>
+      <c r="R61" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>0.59</v>
       </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="24"/>
-      <c r="P62" s="24"/>
-      <c r="Q62" s="24"/>
-      <c r="R62" s="1"/>
+      <c r="B62" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C62" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D62" s="5">
+        <v>0.36000199999999999</v>
+      </c>
+      <c r="E62" s="24">
+        <v>0.35999900000000001</v>
+      </c>
+      <c r="F62" s="24">
+        <v>5.3792</v>
+      </c>
+      <c r="G62" s="24">
+        <v>11.139200000000001</v>
+      </c>
+      <c r="H62" s="22">
+        <v>254</v>
+      </c>
+      <c r="I62" s="5">
+        <v>1.9722</v>
+      </c>
+      <c r="J62" s="24">
+        <v>1.97251</v>
+      </c>
+      <c r="K62" s="24">
+        <v>1.5287E-2</v>
+      </c>
+      <c r="L62" s="24">
+        <v>3.1559200000000001</v>
+      </c>
+      <c r="M62" s="1">
+        <v>254</v>
+      </c>
+      <c r="N62" s="30">
+        <v>1.9997499999999999</v>
+      </c>
+      <c r="O62" s="24">
+        <v>1.9997100000000001</v>
+      </c>
+      <c r="P62" s="46">
+        <v>1.4910500000000001E-5</v>
+      </c>
+      <c r="Q62" s="24">
+        <v>0.31995600000000002</v>
+      </c>
+      <c r="R62" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>0.6</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="1"/>
+      <c r="B63" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C63" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0.400065</v>
+      </c>
+      <c r="E63" s="24">
+        <v>0.399974</v>
+      </c>
+      <c r="F63" s="24">
+        <v>5.1198699999999997</v>
+      </c>
+      <c r="G63" s="24">
+        <v>11.520200000000001</v>
+      </c>
+      <c r="H63" s="22">
+        <v>254</v>
+      </c>
+      <c r="I63" s="5">
+        <v>1.97357</v>
+      </c>
+      <c r="J63" s="24">
+        <v>1.9734799999999999</v>
+      </c>
+      <c r="K63" s="24">
+        <v>1.40185E-2</v>
+      </c>
+      <c r="L63" s="24">
+        <v>3.1577799999999998</v>
+      </c>
+      <c r="M63" s="1">
+        <v>254</v>
+      </c>
+      <c r="N63" s="30">
+        <v>1.99976</v>
+      </c>
+      <c r="O63" s="24">
+        <v>1.9997199999999999</v>
+      </c>
+      <c r="P63" s="46">
+        <v>1.37506E-5</v>
+      </c>
+      <c r="Q63" s="24">
+        <v>0.31995800000000002</v>
+      </c>
+      <c r="R63" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>0.61</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="1"/>
+      <c r="B64" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C64" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D64" s="5">
+        <v>0.43980200000000003</v>
+      </c>
+      <c r="E64" s="24">
+        <v>0.44009700000000002</v>
+      </c>
+      <c r="F64" s="24">
+        <v>4.8675100000000002</v>
+      </c>
+      <c r="G64" s="24">
+        <v>11.906700000000001</v>
+      </c>
+      <c r="H64" s="22">
+        <v>254</v>
+      </c>
+      <c r="I64" s="5">
+        <v>1.97464</v>
+      </c>
+      <c r="J64" s="24">
+        <v>1.9745600000000001</v>
+      </c>
+      <c r="K64" s="24">
+        <v>1.29006E-2</v>
+      </c>
+      <c r="L64" s="24">
+        <v>3.1594899999999999</v>
+      </c>
+      <c r="M64" s="1">
+        <v>254</v>
+      </c>
+      <c r="N64" s="30">
+        <v>1.99976</v>
+      </c>
+      <c r="O64" s="24">
+        <v>1.99973</v>
+      </c>
+      <c r="P64" s="46">
+        <v>1.26969E-5</v>
+      </c>
+      <c r="Q64" s="24">
+        <v>0.31996000000000002</v>
+      </c>
+      <c r="R64" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>0.62</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="24"/>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="1"/>
+      <c r="B65" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C65" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D65" s="5">
+        <v>0.479856</v>
+      </c>
+      <c r="E65" s="24">
+        <v>0.48005799999999998</v>
+      </c>
+      <c r="F65" s="24">
+        <v>4.6210599999999999</v>
+      </c>
+      <c r="G65" s="24">
+        <v>12.3004</v>
+      </c>
+      <c r="H65" s="22">
+        <v>254</v>
+      </c>
+      <c r="I65" s="5">
+        <v>1.9757400000000001</v>
+      </c>
+      <c r="J65" s="24">
+        <v>1.97557</v>
+      </c>
+      <c r="K65" s="24">
+        <v>1.1851499999999999E-2</v>
+      </c>
+      <c r="L65" s="24">
+        <v>3.1611699999999998</v>
+      </c>
+      <c r="M65" s="1">
+        <v>254</v>
+      </c>
+      <c r="N65" s="30">
+        <v>1.99977</v>
+      </c>
+      <c r="O65" s="24">
+        <v>1.9997499999999999</v>
+      </c>
+      <c r="P65" s="46">
+        <v>1.1687E-5</v>
+      </c>
+      <c r="Q65" s="24">
+        <v>0.319961</v>
+      </c>
+      <c r="R65" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>0.63</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="1"/>
+      <c r="B66" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C66" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0.51992499999999997</v>
+      </c>
+      <c r="E66" s="24">
+        <v>0.52002999999999999</v>
+      </c>
+      <c r="F66" s="24">
+        <v>4.3809300000000002</v>
+      </c>
+      <c r="G66" s="24">
+        <v>12.7006</v>
+      </c>
+      <c r="H66" s="22">
+        <v>254</v>
+      </c>
+      <c r="I66" s="5">
+        <v>1.9766999999999999</v>
+      </c>
+      <c r="J66" s="24">
+        <v>1.97662</v>
+      </c>
+      <c r="K66" s="24">
+        <v>1.08962E-2</v>
+      </c>
+      <c r="L66" s="24">
+        <v>3.16276</v>
+      </c>
+      <c r="M66" s="1">
+        <v>254</v>
+      </c>
+      <c r="N66" s="30">
+        <v>1.9997799999999999</v>
+      </c>
+      <c r="O66" s="24">
+        <v>1.99976</v>
+      </c>
+      <c r="P66" s="46">
+        <v>1.0773499999999999E-5</v>
+      </c>
+      <c r="Q66" s="24">
+        <v>0.319963</v>
+      </c>
+      <c r="R66" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>0.64</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="1"/>
+      <c r="B67" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C67" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0.55998899999999996</v>
+      </c>
+      <c r="E67" s="24">
+        <v>0.56000499999999998</v>
+      </c>
+      <c r="F67" s="24">
+        <v>4.1472199999999999</v>
+      </c>
+      <c r="G67" s="24">
+        <v>13.107200000000001</v>
+      </c>
+      <c r="H67" s="22">
+        <v>254</v>
+      </c>
+      <c r="I67" s="5">
+        <v>1.9777199999999999</v>
+      </c>
+      <c r="J67" s="24">
+        <v>1.9775700000000001</v>
+      </c>
+      <c r="K67" s="24">
+        <v>9.9943600000000007E-3</v>
+      </c>
+      <c r="L67" s="24">
+        <v>3.1643300000000001</v>
+      </c>
+      <c r="M67" s="1">
+        <v>254</v>
+      </c>
+      <c r="N67" s="30">
+        <v>1.9997799999999999</v>
+      </c>
+      <c r="O67" s="24">
+        <v>1.99977</v>
+      </c>
+      <c r="P67" s="46">
+        <v>9.9302500000000003E-6</v>
+      </c>
+      <c r="Q67" s="24">
+        <v>0.31996400000000003</v>
+      </c>
+      <c r="R67" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>0.65</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="30"/>
-      <c r="O68" s="24"/>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="24"/>
-      <c r="R68" s="1"/>
+      <c r="B68" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C68" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0.60010699999999995</v>
+      </c>
+      <c r="E68" s="24">
+        <v>0.59994700000000001</v>
+      </c>
+      <c r="F68" s="24">
+        <v>3.9198499999999998</v>
+      </c>
+      <c r="G68" s="24">
+        <v>13.520300000000001</v>
+      </c>
+      <c r="H68" s="22">
+        <v>254</v>
+      </c>
+      <c r="I68" s="5">
+        <v>1.9786300000000001</v>
+      </c>
+      <c r="J68" s="24">
+        <v>1.97855</v>
+      </c>
+      <c r="K68" s="24">
+        <v>9.1676899999999992E-3</v>
+      </c>
+      <c r="L68" s="24">
+        <v>3.1658400000000002</v>
+      </c>
+      <c r="M68" s="1">
+        <v>254</v>
+      </c>
+      <c r="N68" s="30">
+        <v>1.99979</v>
+      </c>
+      <c r="O68" s="24">
+        <v>1.9997799999999999</v>
+      </c>
+      <c r="P68" s="46">
+        <v>9.1716200000000001E-6</v>
+      </c>
+      <c r="Q68" s="24">
+        <v>0.31996599999999997</v>
+      </c>
+      <c r="R68" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>0.66</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="30"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="1"/>
+      <c r="B69" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C69" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0.640015</v>
+      </c>
+      <c r="E69" s="24">
+        <v>0.63999200000000001</v>
+      </c>
+      <c r="F69" s="24">
+        <v>3.6991800000000001</v>
+      </c>
+      <c r="G69" s="24">
+        <v>13.9392</v>
+      </c>
+      <c r="H69" s="22">
+        <v>254</v>
+      </c>
+      <c r="I69" s="5">
+        <v>1.9796100000000001</v>
+      </c>
+      <c r="J69" s="24">
+        <v>1.9794400000000001</v>
+      </c>
+      <c r="K69" s="24">
+        <v>8.3863300000000009E-3</v>
+      </c>
+      <c r="L69" s="24">
+        <v>3.1673200000000001</v>
+      </c>
+      <c r="M69" s="1">
+        <v>254</v>
+      </c>
+      <c r="N69" s="30">
+        <v>1.9998</v>
+      </c>
+      <c r="O69" s="24">
+        <v>1.99979</v>
+      </c>
+      <c r="P69" s="46">
+        <v>8.4448999999999994E-6</v>
+      </c>
+      <c r="Q69" s="24">
+        <v>0.319967</v>
+      </c>
+      <c r="R69" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>0.67</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="30"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="24"/>
-      <c r="Q70" s="24"/>
-      <c r="R70" s="1"/>
+      <c r="B70" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C70" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D70" s="5">
+        <v>0.68008000000000002</v>
+      </c>
+      <c r="E70" s="24">
+        <v>0.67996699999999999</v>
+      </c>
+      <c r="F70" s="24">
+        <v>3.48468</v>
+      </c>
+      <c r="G70" s="24">
+        <v>14.3651</v>
+      </c>
+      <c r="H70" s="22">
+        <v>254</v>
+      </c>
+      <c r="I70" s="5">
+        <v>1.98038</v>
+      </c>
+      <c r="J70" s="24">
+        <v>1.98041</v>
+      </c>
+      <c r="K70" s="24">
+        <v>7.68996E-3</v>
+      </c>
+      <c r="L70" s="24">
+        <v>3.1686999999999999</v>
+      </c>
+      <c r="M70" s="1">
+        <v>254</v>
+      </c>
+      <c r="N70" s="30">
+        <v>1.9998</v>
+      </c>
+      <c r="O70" s="24">
+        <v>1.9998</v>
+      </c>
+      <c r="P70" s="46">
+        <v>7.7501099999999996E-6</v>
+      </c>
+      <c r="Q70" s="24">
+        <v>0.319969</v>
+      </c>
+      <c r="R70" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>0.68</v>
       </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="30"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="24"/>
-      <c r="Q71" s="24"/>
-      <c r="R71" s="1"/>
+      <c r="B71" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C71" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D71" s="5">
+        <v>0.71981700000000004</v>
+      </c>
+      <c r="E71" s="24">
+        <v>0.72009299999999998</v>
+      </c>
+      <c r="F71" s="24">
+        <v>3.2770299999999999</v>
+      </c>
+      <c r="G71" s="24">
+        <v>14.7963</v>
+      </c>
+      <c r="H71" s="22">
+        <v>254</v>
+      </c>
+      <c r="I71" s="5">
+        <v>1.9811799999999999</v>
+      </c>
+      <c r="J71" s="24">
+        <v>1.9813000000000001</v>
+      </c>
+      <c r="K71" s="24">
+        <v>7.0362200000000001E-3</v>
+      </c>
+      <c r="L71" s="24">
+        <v>3.1700599999999999</v>
+      </c>
+      <c r="M71" s="1">
+        <v>254</v>
+      </c>
+      <c r="N71" s="30">
+        <v>1.9998100000000001</v>
+      </c>
+      <c r="O71" s="24">
+        <v>1.9998100000000001</v>
+      </c>
+      <c r="P71" s="46">
+        <v>7.1032799999999997E-6</v>
+      </c>
+      <c r="Q71" s="24">
+        <v>0.31996999999999998</v>
+      </c>
+      <c r="R71" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>0.69000000000000006</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="30"/>
-      <c r="O72" s="24"/>
-      <c r="P72" s="24"/>
-      <c r="Q72" s="24"/>
-      <c r="R72" s="1"/>
+      <c r="B72" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C72" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D72" s="5">
+        <v>0.75987099999999996</v>
+      </c>
+      <c r="E72" s="24">
+        <v>0.76005299999999998</v>
+      </c>
+      <c r="F72" s="24">
+        <v>3.0753900000000001</v>
+      </c>
+      <c r="G72" s="24">
+        <v>15.2348</v>
+      </c>
+      <c r="H72" s="22">
+        <v>254</v>
+      </c>
+      <c r="I72" s="5">
+        <v>1.9821800000000001</v>
+      </c>
+      <c r="J72" s="24">
+        <v>1.9820800000000001</v>
+      </c>
+      <c r="K72" s="24">
+        <v>6.3885000000000001E-3</v>
+      </c>
+      <c r="L72" s="24">
+        <v>3.1714699999999998</v>
+      </c>
+      <c r="M72" s="1">
+        <v>254</v>
+      </c>
+      <c r="N72" s="30">
+        <v>1.9998199999999999</v>
+      </c>
+      <c r="O72" s="24">
+        <v>1.9998199999999999</v>
+      </c>
+      <c r="P72" s="46">
+        <v>6.5521600000000003E-6</v>
+      </c>
+      <c r="Q72" s="24">
+        <v>0.31997100000000001</v>
+      </c>
+      <c r="R72" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>0.70000000000000007</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="30"/>
-      <c r="O73" s="24"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="24"/>
-      <c r="R73" s="1"/>
+      <c r="B73" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C73" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D73" s="5">
+        <v>0.79994399999999999</v>
+      </c>
+      <c r="E73" s="24">
+        <v>0.80002300000000004</v>
+      </c>
+      <c r="F73" s="24">
+        <v>2.88008</v>
+      </c>
+      <c r="G73" s="24">
+        <v>15.6798</v>
+      </c>
+      <c r="H73" s="22">
+        <v>254</v>
+      </c>
+      <c r="I73" s="5">
+        <v>1.9829600000000001</v>
+      </c>
+      <c r="J73" s="24">
+        <v>1.98292</v>
+      </c>
+      <c r="K73" s="24">
+        <v>5.8236700000000004E-3</v>
+      </c>
+      <c r="L73" s="24">
+        <v>3.1727599999999998</v>
+      </c>
+      <c r="M73" s="1">
+        <v>254</v>
+      </c>
+      <c r="N73" s="30">
+        <v>1.9998199999999999</v>
+      </c>
+      <c r="O73" s="24">
+        <v>1.99983</v>
+      </c>
+      <c r="P73" s="46">
+        <v>6.0104299999999996E-6</v>
+      </c>
+      <c r="Q73" s="24">
+        <v>0.31997199999999998</v>
+      </c>
+      <c r="R73" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>0.71</v>
       </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="24"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="30"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="24"/>
-      <c r="R74" s="1"/>
+      <c r="B74" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C74" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D74" s="5">
+        <v>0.84000300000000006</v>
+      </c>
+      <c r="E74" s="24">
+        <v>0.83999900000000005</v>
+      </c>
+      <c r="F74" s="24">
+        <v>2.6911999999999998</v>
+      </c>
+      <c r="G74" s="24">
+        <v>16.1312</v>
+      </c>
+      <c r="H74" s="22">
+        <v>254</v>
+      </c>
+      <c r="I74" s="5">
+        <v>1.98386</v>
+      </c>
+      <c r="J74" s="24">
+        <v>1.9836499999999999</v>
+      </c>
+      <c r="K74" s="24">
+        <v>5.2765099999999999E-3</v>
+      </c>
+      <c r="L74" s="24">
+        <v>3.1740699999999999</v>
+      </c>
+      <c r="M74" s="1">
+        <v>254</v>
+      </c>
+      <c r="N74" s="30">
+        <v>1.99983</v>
+      </c>
+      <c r="O74" s="24">
+        <v>1.9998400000000001</v>
+      </c>
+      <c r="P74" s="46">
+        <v>5.4942400000000001E-6</v>
+      </c>
+      <c r="Q74" s="24">
+        <v>0.31997399999999998</v>
+      </c>
+      <c r="R74" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>0.72</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="24"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="30"/>
-      <c r="O75" s="24"/>
-      <c r="P75" s="24"/>
-      <c r="Q75" s="24"/>
-      <c r="R75" s="1"/>
+      <c r="B75" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C75" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0.88011899999999998</v>
+      </c>
+      <c r="E75" s="24">
+        <v>0.879938</v>
+      </c>
+      <c r="F75" s="24">
+        <v>2.50867</v>
+      </c>
+      <c r="G75" s="24">
+        <v>16.589099999999998</v>
+      </c>
+      <c r="H75" s="22">
+        <v>254</v>
+      </c>
+      <c r="I75" s="5">
+        <v>1.9845699999999999</v>
+      </c>
+      <c r="J75" s="24">
+        <v>1.98447</v>
+      </c>
+      <c r="K75" s="24">
+        <v>4.7916599999999997E-3</v>
+      </c>
+      <c r="L75" s="24">
+        <v>3.1752799999999999</v>
+      </c>
+      <c r="M75" s="1">
+        <v>254</v>
+      </c>
+      <c r="N75" s="30">
+        <v>1.99983</v>
+      </c>
+      <c r="O75" s="24">
+        <v>1.9998499999999999</v>
+      </c>
+      <c r="P75" s="46">
+        <v>5.03851E-6</v>
+      </c>
+      <c r="Q75" s="24">
+        <v>0.31997500000000001</v>
+      </c>
+      <c r="R75" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>0.73</v>
       </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="30"/>
-      <c r="O76" s="24"/>
-      <c r="P76" s="24"/>
-      <c r="Q76" s="24"/>
-      <c r="R76" s="1"/>
+      <c r="B76" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C76" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D76" s="5">
+        <v>0.92002700000000004</v>
+      </c>
+      <c r="E76" s="24">
+        <v>0.91998599999999997</v>
+      </c>
+      <c r="F76" s="24">
+        <v>2.33277</v>
+      </c>
+      <c r="G76" s="24">
+        <v>17.052900000000001</v>
+      </c>
+      <c r="H76" s="22">
+        <v>254</v>
+      </c>
+      <c r="I76" s="5">
+        <v>1.98532</v>
+      </c>
+      <c r="J76" s="24">
+        <v>1.9852300000000001</v>
+      </c>
+      <c r="K76" s="24">
+        <v>4.3367299999999996E-3</v>
+      </c>
+      <c r="L76" s="24">
+        <v>3.1764800000000002</v>
+      </c>
+      <c r="M76" s="1">
+        <v>254</v>
+      </c>
+      <c r="N76" s="30">
+        <v>1.9998400000000001</v>
+      </c>
+      <c r="O76" s="24">
+        <v>1.99986</v>
+      </c>
+      <c r="P76" s="46">
+        <v>4.5920299999999998E-6</v>
+      </c>
+      <c r="Q76" s="24">
+        <v>0.31997599999999998</v>
+      </c>
+      <c r="R76" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>0.74</v>
       </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="24"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="30"/>
-      <c r="O77" s="24"/>
-      <c r="P77" s="24"/>
-      <c r="Q77" s="24"/>
-      <c r="R77" s="1"/>
+      <c r="B77" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C77" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D77" s="5">
+        <v>0.96009299999999997</v>
+      </c>
+      <c r="E77" s="24">
+        <v>0.95996000000000004</v>
+      </c>
+      <c r="F77" s="24">
+        <v>2.16309</v>
+      </c>
+      <c r="G77" s="24">
+        <v>17.523499999999999</v>
+      </c>
+      <c r="H77" s="22">
+        <v>254</v>
+      </c>
+      <c r="I77" s="5">
+        <v>1.9860500000000001</v>
+      </c>
+      <c r="J77" s="24">
+        <v>1.98597</v>
+      </c>
+      <c r="K77" s="24">
+        <v>3.9141799999999997E-3</v>
+      </c>
+      <c r="L77" s="24">
+        <v>3.1776599999999999</v>
+      </c>
+      <c r="M77" s="1">
+        <v>254</v>
+      </c>
+      <c r="N77" s="30">
+        <v>1.9998400000000001</v>
+      </c>
+      <c r="O77" s="24">
+        <v>1.99987</v>
+      </c>
+      <c r="P77" s="46">
+        <v>4.2124100000000004E-6</v>
+      </c>
+      <c r="Q77" s="24">
+        <v>0.31997700000000001</v>
+      </c>
+      <c r="R77" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>0.75</v>
       </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="30"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="24"/>
-      <c r="R78" s="1"/>
+      <c r="B78" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C78" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D78" s="5">
+        <v>0.99983</v>
+      </c>
+      <c r="E78" s="24">
+        <v>1.0000899999999999</v>
+      </c>
+      <c r="F78" s="24">
+        <v>2.0001600000000002</v>
+      </c>
+      <c r="G78" s="24">
+        <v>17.999500000000001</v>
+      </c>
+      <c r="H78" s="22">
+        <v>254</v>
+      </c>
+      <c r="I78" s="5">
+        <v>1.9866600000000001</v>
+      </c>
+      <c r="J78" s="24">
+        <v>1.98674</v>
+      </c>
+      <c r="K78" s="24">
+        <v>3.5396E-3</v>
+      </c>
+      <c r="L78" s="24">
+        <v>3.17875</v>
+      </c>
+      <c r="M78" s="1">
+        <v>254</v>
+      </c>
+      <c r="N78" s="30">
+        <v>1.9998499999999999</v>
+      </c>
+      <c r="O78" s="24">
+        <v>1.9998800000000001</v>
+      </c>
+      <c r="P78" s="46">
+        <v>3.8399600000000002E-6</v>
+      </c>
+      <c r="Q78" s="24">
+        <v>0.31997799999999998</v>
+      </c>
+      <c r="R78" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>0.76</v>
       </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="30"/>
-      <c r="O79" s="24"/>
-      <c r="P79" s="24"/>
-      <c r="Q79" s="24"/>
-      <c r="R79" s="1"/>
+      <c r="B79" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C79" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1.0400499999999999</v>
+      </c>
+      <c r="E79" s="24">
+        <v>1.0399799999999999</v>
+      </c>
+      <c r="F79" s="24">
+        <v>1.84314</v>
+      </c>
+      <c r="G79" s="24">
+        <v>18.4834</v>
+      </c>
+      <c r="H79" s="22">
+        <v>254</v>
+      </c>
+      <c r="I79" s="5">
+        <v>1.9873799999999999</v>
+      </c>
+      <c r="J79" s="24">
+        <v>1.98742</v>
+      </c>
+      <c r="K79" s="24">
+        <v>3.1741E-3</v>
+      </c>
+      <c r="L79" s="24">
+        <v>3.1798799999999998</v>
+      </c>
+      <c r="M79" s="1">
+        <v>254</v>
+      </c>
+      <c r="N79" s="30">
+        <v>1.9998499999999999</v>
+      </c>
+      <c r="O79" s="24">
+        <v>1.9998899999999999</v>
+      </c>
+      <c r="P79" s="46">
+        <v>3.4873699999999999E-6</v>
+      </c>
+      <c r="Q79" s="24">
+        <v>0.31997900000000001</v>
+      </c>
+      <c r="R79" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>0.77</v>
       </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="30"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="24"/>
-      <c r="R80" s="1"/>
+      <c r="B80" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C80" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D80" s="5">
+        <v>1.0799700000000001</v>
+      </c>
+      <c r="E80" s="24">
+        <v>1.08002</v>
+      </c>
+      <c r="F80" s="24">
+        <v>1.69282</v>
+      </c>
+      <c r="G80" s="24">
+        <v>18.9727</v>
+      </c>
+      <c r="H80" s="22">
+        <v>254</v>
+      </c>
+      <c r="I80" s="5">
+        <v>1.9880800000000001</v>
+      </c>
+      <c r="J80" s="24">
+        <v>1.9880899999999999</v>
+      </c>
+      <c r="K80" s="24">
+        <v>2.8392700000000001E-3</v>
+      </c>
+      <c r="L80" s="24">
+        <v>3.1809599999999998</v>
+      </c>
+      <c r="M80" s="1">
+        <v>254</v>
+      </c>
+      <c r="N80" s="30">
+        <v>1.99986</v>
+      </c>
+      <c r="O80" s="24">
+        <v>1.9998899999999999</v>
+      </c>
+      <c r="P80" s="46">
+        <v>3.18141E-6</v>
+      </c>
+      <c r="Q80" s="24">
+        <v>0.31997999999999999</v>
+      </c>
+      <c r="R80" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>0.78</v>
       </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="24"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="30"/>
-      <c r="O81" s="24"/>
-      <c r="P81" s="24"/>
-      <c r="Q81" s="24"/>
-      <c r="R81" s="1"/>
+      <c r="B81" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C81" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D81" s="5">
+        <v>1.12001</v>
+      </c>
+      <c r="E81" s="24">
+        <v>1.11999</v>
+      </c>
+      <c r="F81" s="24">
+        <v>1.5487899999999999</v>
+      </c>
+      <c r="G81" s="24">
+        <v>19.468800000000002</v>
+      </c>
+      <c r="H81" s="22">
+        <v>254</v>
+      </c>
+      <c r="I81" s="5">
+        <v>1.98891</v>
+      </c>
+      <c r="J81" s="24">
+        <v>1.9886699999999999</v>
+      </c>
+      <c r="K81" s="24">
+        <v>2.5127299999999999E-3</v>
+      </c>
+      <c r="L81" s="24">
+        <v>3.1820900000000001</v>
+      </c>
+      <c r="M81" s="1">
+        <v>254</v>
+      </c>
+      <c r="N81" s="30">
+        <v>1.99986</v>
+      </c>
+      <c r="O81" s="24">
+        <v>1.9999</v>
+      </c>
+      <c r="P81" s="46">
+        <v>2.89217E-6</v>
+      </c>
+      <c r="Q81" s="24">
+        <v>0.31998100000000002</v>
+      </c>
+      <c r="R81" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>0.79</v>
       </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="24"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="30"/>
-      <c r="O82" s="24"/>
-      <c r="P82" s="24"/>
-      <c r="Q82" s="24"/>
-      <c r="R82" s="1"/>
+      <c r="B82" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C82" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D82" s="5">
+        <v>1.1601300000000001</v>
+      </c>
+      <c r="E82" s="24">
+        <v>1.1599299999999999</v>
+      </c>
+      <c r="F82" s="24">
+        <v>1.4111</v>
+      </c>
+      <c r="G82" s="24">
+        <v>19.971599999999999</v>
+      </c>
+      <c r="H82" s="22">
+        <v>254</v>
+      </c>
+      <c r="I82" s="5">
+        <v>1.98933</v>
+      </c>
+      <c r="J82" s="24">
+        <v>1.98942</v>
+      </c>
+      <c r="K82" s="24">
+        <v>2.2562400000000001E-3</v>
+      </c>
+      <c r="L82" s="24">
+        <v>3.18303</v>
+      </c>
+      <c r="M82" s="1">
+        <v>254</v>
+      </c>
+      <c r="N82" s="30">
+        <v>1.99986</v>
+      </c>
+      <c r="O82" s="24">
+        <v>1.9999100000000001</v>
+      </c>
+      <c r="P82" s="46">
+        <v>2.6435300000000002E-6</v>
+      </c>
+      <c r="Q82" s="24">
+        <v>0.31998199999999999</v>
+      </c>
+      <c r="R82" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>0.8</v>
       </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="30"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="24"/>
-      <c r="Q83" s="24"/>
-      <c r="R83" s="1"/>
+      <c r="B83" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C83" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1.2000500000000001</v>
+      </c>
+      <c r="E83" s="24">
+        <v>1.19998</v>
+      </c>
+      <c r="F83" s="24">
+        <v>1.27996</v>
+      </c>
+      <c r="G83" s="24">
+        <v>20.4802</v>
+      </c>
+      <c r="H83" s="22">
+        <v>254</v>
+      </c>
+      <c r="I83" s="5">
+        <v>1.9900100000000001</v>
+      </c>
+      <c r="J83" s="24">
+        <v>1.99003</v>
+      </c>
+      <c r="K83" s="24">
+        <v>1.9910499999999999E-3</v>
+      </c>
+      <c r="L83" s="24">
+        <v>3.1840600000000001</v>
+      </c>
+      <c r="M83" s="1">
+        <v>254</v>
+      </c>
+      <c r="N83" s="30">
+        <v>1.99987</v>
+      </c>
+      <c r="O83" s="24">
+        <v>1.9999199999999999</v>
+      </c>
+      <c r="P83" s="46">
+        <v>2.38621E-6</v>
+      </c>
+      <c r="Q83" s="24">
+        <v>0.31998300000000002</v>
+      </c>
+      <c r="R83" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>0.81</v>
       </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="30"/>
-      <c r="O84" s="24"/>
-      <c r="P84" s="24"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="1"/>
+      <c r="B84" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C84" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D84" s="5">
+        <v>1.24027</v>
+      </c>
+      <c r="E84" s="24">
+        <v>1.23986</v>
+      </c>
+      <c r="F84" s="24">
+        <v>1.1550100000000001</v>
+      </c>
+      <c r="G84" s="24">
+        <v>20.995999999999999</v>
+      </c>
+      <c r="H84" s="22">
+        <v>254</v>
+      </c>
+      <c r="I84" s="5">
+        <v>1.9904500000000001</v>
+      </c>
+      <c r="J84" s="24">
+        <v>1.99074</v>
+      </c>
+      <c r="K84" s="24">
+        <v>1.7679600000000001E-3</v>
+      </c>
+      <c r="L84" s="24">
+        <v>3.1849799999999999</v>
+      </c>
+      <c r="M84" s="1">
+        <v>254</v>
+      </c>
+      <c r="N84" s="30">
+        <v>1.99986</v>
+      </c>
+      <c r="O84" s="24">
+        <v>1.99993</v>
+      </c>
+      <c r="P84" s="46">
+        <v>2.40278E-6</v>
+      </c>
+      <c r="Q84" s="24">
+        <v>0.31998300000000002</v>
+      </c>
+      <c r="R84" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>0.82000000000000006</v>
       </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="30"/>
-      <c r="O85" s="24"/>
-      <c r="P85" s="24"/>
-      <c r="Q85" s="24"/>
-      <c r="R85" s="1"/>
+      <c r="B85" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C85" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D85" s="5">
+        <v>1.2799499999999999</v>
+      </c>
+      <c r="E85" s="24">
+        <v>1.2800199999999999</v>
+      </c>
+      <c r="F85" s="24">
+        <v>1.03684</v>
+      </c>
+      <c r="G85" s="24">
+        <v>21.5166</v>
+      </c>
+      <c r="H85" s="22">
+        <v>254</v>
+      </c>
+      <c r="I85" s="5">
+        <v>1.99122</v>
+      </c>
+      <c r="J85" s="24">
+        <v>1.99125</v>
+      </c>
+      <c r="K85" s="24">
+        <v>1.5366100000000001E-3</v>
+      </c>
+      <c r="L85" s="24">
+        <v>3.1859899999999999</v>
+      </c>
+      <c r="M85" s="1">
+        <v>254</v>
+      </c>
+      <c r="N85" s="30">
+        <v>1.99987</v>
+      </c>
+      <c r="O85" s="24">
+        <v>1.99993</v>
+      </c>
+      <c r="P85" s="46">
+        <v>2.2084899999999998E-6</v>
+      </c>
+      <c r="Q85" s="24">
+        <v>0.31998399999999999</v>
+      </c>
+      <c r="R85" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>0.83000000000000007</v>
       </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="30"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="24"/>
-      <c r="R86" s="1"/>
+      <c r="B86" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C86" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D86" s="5">
+        <v>1.3200700000000001</v>
+      </c>
+      <c r="E86" s="24">
+        <v>1.3199700000000001</v>
+      </c>
+      <c r="F86" s="24">
+        <v>0.92474900000000004</v>
+      </c>
+      <c r="G86" s="24">
+        <v>22.045100000000001</v>
+      </c>
+      <c r="H86" s="22">
+        <v>254</v>
+      </c>
+      <c r="I86" s="5">
+        <v>1.9916400000000001</v>
+      </c>
+      <c r="J86" s="24">
+        <v>1.99193</v>
+      </c>
+      <c r="K86" s="24">
+        <v>1.35023E-3</v>
+      </c>
+      <c r="L86" s="24">
+        <v>3.1868699999999999</v>
+      </c>
+      <c r="M86" s="1">
+        <v>254</v>
+      </c>
+      <c r="N86" s="30">
+        <v>1.99987</v>
+      </c>
+      <c r="O86" s="24">
+        <v>1.9999400000000001</v>
+      </c>
+      <c r="P86" s="46">
+        <v>2.0399600000000001E-6</v>
+      </c>
+      <c r="Q86" s="24">
+        <v>0.31998500000000002</v>
+      </c>
+      <c r="R86" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>0.84</v>
       </c>
-      <c r="B87" s="5"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="30"/>
-      <c r="O87" s="24"/>
-      <c r="P87" s="24"/>
-      <c r="Q87" s="24"/>
-      <c r="R87" s="1"/>
+      <c r="B87" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C87" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D87" s="5">
+        <v>1.35998</v>
+      </c>
+      <c r="E87" s="24">
+        <v>1.3600099999999999</v>
+      </c>
+      <c r="F87" s="24">
+        <v>0.81920899999999996</v>
+      </c>
+      <c r="G87" s="24">
+        <v>22.5792</v>
+      </c>
+      <c r="H87" s="22">
+        <v>254</v>
+      </c>
+      <c r="I87" s="5">
+        <v>1.9923900000000001</v>
+      </c>
+      <c r="J87" s="24">
+        <v>1.9923999999999999</v>
+      </c>
+      <c r="K87" s="24">
+        <v>1.15711E-3</v>
+      </c>
+      <c r="L87" s="24">
+        <v>3.18784</v>
+      </c>
+      <c r="M87" s="1">
+        <v>254</v>
+      </c>
+      <c r="N87" s="30">
+        <v>1.99987</v>
+      </c>
+      <c r="O87" s="24">
+        <v>1.9999499999999999</v>
+      </c>
+      <c r="P87" s="46">
+        <v>1.8706600000000001E-6</v>
+      </c>
+      <c r="Q87" s="24">
+        <v>0.31998599999999999</v>
+      </c>
+      <c r="R87" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>0.85</v>
       </c>
-      <c r="B88" s="5"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="24"/>
-      <c r="L88" s="24"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="30"/>
-      <c r="O88" s="24"/>
-      <c r="P88" s="24"/>
-      <c r="Q88" s="24"/>
-      <c r="R88" s="1"/>
+      <c r="B88" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C88" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D88" s="5">
+        <v>1.4000300000000001</v>
+      </c>
+      <c r="E88" s="24">
+        <v>1.3999900000000001</v>
+      </c>
+      <c r="F88" s="24">
+        <v>0.71998499999999999</v>
+      </c>
+      <c r="G88" s="24">
+        <v>23.120100000000001</v>
+      </c>
+      <c r="H88" s="22">
+        <v>254</v>
+      </c>
+      <c r="I88" s="5">
+        <v>1.9928999999999999</v>
+      </c>
+      <c r="J88" s="24">
+        <v>1.99298</v>
+      </c>
+      <c r="K88" s="24">
+        <v>9.9717399999999998E-4</v>
+      </c>
+      <c r="L88" s="24">
+        <v>3.1887099999999999</v>
+      </c>
+      <c r="M88" s="1">
+        <v>254</v>
+      </c>
+      <c r="N88" s="30">
+        <v>1.9998800000000001</v>
+      </c>
+      <c r="O88" s="24">
+        <v>1.9999499999999999</v>
+      </c>
+      <c r="P88" s="46">
+        <v>1.73211E-6</v>
+      </c>
+      <c r="Q88" s="24">
+        <v>0.31998599999999999</v>
+      </c>
+      <c r="R88" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>0.86</v>
       </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="24"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="30"/>
-      <c r="O89" s="24"/>
-      <c r="P89" s="24"/>
-      <c r="Q89" s="24"/>
-      <c r="R89" s="1"/>
+      <c r="B89" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C89" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D89" s="5">
+        <v>1.44014</v>
+      </c>
+      <c r="E89" s="24">
+        <v>1.4399200000000001</v>
+      </c>
+      <c r="F89" s="24">
+        <v>0.62712800000000002</v>
+      </c>
+      <c r="G89" s="24">
+        <v>23.6676</v>
+      </c>
+      <c r="H89" s="22">
+        <v>254</v>
+      </c>
+      <c r="I89" s="5">
+        <v>1.99352</v>
+      </c>
+      <c r="J89" s="24">
+        <v>1.99349</v>
+      </c>
+      <c r="K89" s="24">
+        <v>8.4414099999999997E-4</v>
+      </c>
+      <c r="L89" s="24">
+        <v>3.1896100000000001</v>
+      </c>
+      <c r="M89" s="1">
+        <v>254</v>
+      </c>
+      <c r="N89" s="30">
+        <v>1.9998800000000001</v>
+      </c>
+      <c r="O89" s="24">
+        <v>1.99996</v>
+      </c>
+      <c r="P89" s="46">
+        <v>1.59734E-6</v>
+      </c>
+      <c r="Q89" s="24">
+        <v>0.31998700000000002</v>
+      </c>
+      <c r="R89" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>0.87</v>
       </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="24"/>
-      <c r="K90" s="24"/>
-      <c r="L90" s="24"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="30"/>
-      <c r="O90" s="24"/>
-      <c r="P90" s="24"/>
-      <c r="Q90" s="24"/>
-      <c r="R90" s="1"/>
+      <c r="B90" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C90" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D90" s="5">
+        <v>1.47983</v>
+      </c>
+      <c r="E90" s="24">
+        <v>1.4800899999999999</v>
+      </c>
+      <c r="F90" s="24">
+        <v>0.54088000000000003</v>
+      </c>
+      <c r="G90" s="24">
+        <v>24.220300000000002</v>
+      </c>
+      <c r="H90" s="22">
+        <v>254</v>
+      </c>
+      <c r="I90" s="5">
+        <v>1.9940899999999999</v>
+      </c>
+      <c r="J90" s="24">
+        <v>1.994</v>
+      </c>
+      <c r="K90" s="24">
+        <v>7.08518E-4</v>
+      </c>
+      <c r="L90" s="24">
+        <v>3.19048</v>
+      </c>
+      <c r="M90" s="1">
+        <v>254</v>
+      </c>
+      <c r="N90" s="30">
+        <v>1.9998800000000001</v>
+      </c>
+      <c r="O90" s="24">
+        <v>1.99997</v>
+      </c>
+      <c r="P90" s="46">
+        <v>1.4888400000000001E-6</v>
+      </c>
+      <c r="Q90" s="24">
+        <v>0.31998799999999999</v>
+      </c>
+      <c r="R90" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>0.88</v>
       </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="24"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="30"/>
-      <c r="O91" s="24"/>
-      <c r="P91" s="24"/>
-      <c r="Q91" s="24"/>
-      <c r="R91" s="1"/>
+      <c r="B91" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C91" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D91" s="5">
+        <v>1.5199100000000001</v>
+      </c>
+      <c r="E91" s="24">
+        <v>1.5200400000000001</v>
+      </c>
+      <c r="F91" s="24">
+        <v>0.46084599999999998</v>
+      </c>
+      <c r="G91" s="24">
+        <v>24.7805</v>
+      </c>
+      <c r="H91" s="22">
+        <v>254</v>
+      </c>
+      <c r="I91" s="5">
+        <v>1.99464</v>
+      </c>
+      <c r="J91" s="24">
+        <v>1.99451</v>
+      </c>
+      <c r="K91" s="24">
+        <v>5.88504E-4</v>
+      </c>
+      <c r="L91" s="24">
+        <v>3.1913299999999998</v>
+      </c>
+      <c r="M91" s="1">
+        <v>254</v>
+      </c>
+      <c r="N91" s="30">
+        <v>1.9998899999999999</v>
+      </c>
+      <c r="O91" s="24">
+        <v>1.99997</v>
+      </c>
+      <c r="P91" s="46">
+        <v>1.3802200000000001E-6</v>
+      </c>
+      <c r="Q91" s="24">
+        <v>0.31998900000000002</v>
+      </c>
+      <c r="R91" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>0.89</v>
       </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="24"/>
-      <c r="K92" s="24"/>
-      <c r="L92" s="24"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="30"/>
-      <c r="O92" s="24"/>
-      <c r="P92" s="24"/>
-      <c r="Q92" s="24"/>
-      <c r="R92" s="1"/>
+      <c r="B92" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C92" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D92" s="5">
+        <v>1.5599700000000001</v>
+      </c>
+      <c r="E92" s="24">
+        <v>1.5600099999999999</v>
+      </c>
+      <c r="F92" s="24">
+        <v>0.38721</v>
+      </c>
+      <c r="G92" s="24">
+        <v>25.347100000000001</v>
+      </c>
+      <c r="H92" s="22">
+        <v>254</v>
+      </c>
+      <c r="I92" s="5">
+        <v>1.99505</v>
+      </c>
+      <c r="J92" s="24">
+        <v>1.9950699999999999</v>
+      </c>
+      <c r="K92" s="24">
+        <v>4.8798899999999998E-4</v>
+      </c>
+      <c r="L92" s="24">
+        <v>3.1920999999999999</v>
+      </c>
+      <c r="M92" s="1">
+        <v>254</v>
+      </c>
+      <c r="N92" s="30">
+        <v>2.0000100000000001</v>
+      </c>
+      <c r="O92" s="24">
+        <v>1.9999199999999999</v>
+      </c>
+      <c r="P92" s="46">
+        <v>6.0638900000000004E-7</v>
+      </c>
+      <c r="Q92" s="24">
+        <v>0.31999499999999997</v>
+      </c>
+      <c r="R92" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>0.9</v>
       </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="24"/>
-      <c r="K93" s="24"/>
-      <c r="L93" s="24"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="30"/>
-      <c r="O93" s="24"/>
-      <c r="P93" s="24"/>
-      <c r="Q93" s="24"/>
-      <c r="R93" s="1"/>
+      <c r="B93" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C93" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D93" s="5">
+        <v>1.60009</v>
+      </c>
+      <c r="E93" s="24">
+        <v>1.59995</v>
+      </c>
+      <c r="F93" s="24">
+        <v>0.31996799999999997</v>
+      </c>
+      <c r="G93" s="24">
+        <v>25.920300000000001</v>
+      </c>
+      <c r="H93" s="22">
+        <v>254</v>
+      </c>
+      <c r="I93" s="5">
+        <v>1.9955400000000001</v>
+      </c>
+      <c r="J93" s="24">
+        <v>1.9955700000000001</v>
+      </c>
+      <c r="K93" s="24">
+        <v>3.9502899999999997E-4</v>
+      </c>
+      <c r="L93" s="24">
+        <v>3.1928899999999998</v>
+      </c>
+      <c r="M93" s="1">
+        <v>254</v>
+      </c>
+      <c r="N93" s="30">
+        <v>2.0000100000000001</v>
+      </c>
+      <c r="O93" s="24">
+        <v>1.99993</v>
+      </c>
+      <c r="P93" s="46">
+        <v>5.1764699999999995E-7</v>
+      </c>
+      <c r="Q93" s="24">
+        <v>0.31999499999999997</v>
+      </c>
+      <c r="R93" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>0.91</v>
       </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="24"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="30"/>
-      <c r="O94" s="24"/>
-      <c r="P94" s="24"/>
-      <c r="Q94" s="24"/>
-      <c r="R94" s="1"/>
+      <c r="B94" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C94" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D94" s="5">
+        <v>1.64</v>
+      </c>
+      <c r="E94" s="24">
+        <v>1.64</v>
+      </c>
+      <c r="F94" s="24">
+        <v>0.25920199999999999</v>
+      </c>
+      <c r="G94" s="24">
+        <v>26.499199999999998</v>
+      </c>
+      <c r="H94" s="22">
+        <v>254</v>
+      </c>
+      <c r="I94" s="5">
+        <v>1.9958899999999999</v>
+      </c>
+      <c r="J94" s="24">
+        <v>1.99614</v>
+      </c>
+      <c r="K94" s="24">
+        <v>3.1789600000000002E-4</v>
+      </c>
+      <c r="L94" s="24">
+        <v>3.1936300000000002</v>
+      </c>
+      <c r="M94" s="1">
+        <v>254</v>
+      </c>
+      <c r="N94" s="30">
+        <v>2.0000100000000001</v>
+      </c>
+      <c r="O94" s="24">
+        <v>1.99993</v>
+      </c>
+      <c r="P94" s="46">
+        <v>4.5130599999999998E-7</v>
+      </c>
+      <c r="Q94" s="24">
+        <v>0.319996</v>
+      </c>
+      <c r="R94" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>0.92</v>
       </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="22"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="24"/>
-      <c r="K95" s="24"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="30"/>
-      <c r="O95" s="24"/>
-      <c r="P95" s="24"/>
-      <c r="Q95" s="24"/>
-      <c r="R95" s="1"/>
+      <c r="B95" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C95" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D95" s="5">
+        <v>1.68005</v>
+      </c>
+      <c r="E95" s="24">
+        <v>1.67998</v>
+      </c>
+      <c r="F95" s="24">
+        <v>0.20478299999999999</v>
+      </c>
+      <c r="G95" s="24">
+        <v>27.085000000000001</v>
+      </c>
+      <c r="H95" s="22">
+        <v>254</v>
+      </c>
+      <c r="I95" s="5">
+        <v>1.9965900000000001</v>
+      </c>
+      <c r="J95" s="24">
+        <v>1.9964900000000001</v>
+      </c>
+      <c r="K95" s="24">
+        <v>2.39125E-4</v>
+      </c>
+      <c r="L95" s="24">
+        <v>3.1944699999999999</v>
+      </c>
+      <c r="M95" s="1">
+        <v>254</v>
+      </c>
+      <c r="N95" s="30">
+        <v>2.0000200000000001</v>
+      </c>
+      <c r="O95" s="24">
+        <v>1.9999400000000001</v>
+      </c>
+      <c r="P95" s="46">
+        <v>3.8649600000000002E-7</v>
+      </c>
+      <c r="Q95" s="24">
+        <v>0.31999699999999998</v>
+      </c>
+      <c r="R95" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>0.93</v>
       </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="24"/>
-      <c r="K96" s="24"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="30"/>
-      <c r="O96" s="24"/>
-      <c r="P96" s="24"/>
-      <c r="Q96" s="24"/>
-      <c r="R96" s="1"/>
+      <c r="B96" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C96" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D96" s="5">
+        <v>1.7198</v>
+      </c>
+      <c r="E96" s="24">
+        <v>1.72011</v>
+      </c>
+      <c r="F96" s="24">
+        <v>0.15684899999999999</v>
+      </c>
+      <c r="G96" s="24">
+        <v>27.676100000000002</v>
+      </c>
+      <c r="H96" s="22">
+        <v>254</v>
+      </c>
+      <c r="I96" s="5">
+        <v>1.9971099999999999</v>
+      </c>
+      <c r="J96" s="24">
+        <v>1.99692</v>
+      </c>
+      <c r="K96" s="24">
+        <v>1.7804299999999999E-4</v>
+      </c>
+      <c r="L96" s="24">
+        <v>3.19523</v>
+      </c>
+      <c r="M96" s="1">
+        <v>254</v>
+      </c>
+      <c r="N96" s="30">
+        <v>2.0000200000000001</v>
+      </c>
+      <c r="O96" s="24">
+        <v>1.9999499999999999</v>
+      </c>
+      <c r="P96" s="46">
+        <v>3.3308800000000002E-7</v>
+      </c>
+      <c r="Q96" s="24">
+        <v>0.31999699999999998</v>
+      </c>
+      <c r="R96" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>0.94000000000000006</v>
       </c>
-      <c r="B97" s="5"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="24"/>
-      <c r="K97" s="24"/>
-      <c r="L97" s="24"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="30"/>
-      <c r="O97" s="24"/>
-      <c r="P97" s="24"/>
-      <c r="Q97" s="24"/>
-      <c r="R97" s="1"/>
+      <c r="B97" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C97" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D97" s="5">
+        <v>1.7598400000000001</v>
+      </c>
+      <c r="E97" s="24">
+        <v>1.7600899999999999</v>
+      </c>
+      <c r="F97" s="24">
+        <v>0.115233</v>
+      </c>
+      <c r="G97" s="24">
+        <v>28.274699999999999</v>
+      </c>
+      <c r="H97" s="22">
+        <v>254</v>
+      </c>
+      <c r="I97" s="5">
+        <v>1.9974400000000001</v>
+      </c>
+      <c r="J97" s="24">
+        <v>1.9974499999999999</v>
+      </c>
+      <c r="K97" s="24">
+        <v>1.3043399999999999E-4</v>
+      </c>
+      <c r="L97" s="24">
+        <v>3.1959200000000001</v>
+      </c>
+      <c r="M97" s="1">
+        <v>254</v>
+      </c>
+      <c r="N97" s="30">
+        <v>2.0000200000000001</v>
+      </c>
+      <c r="O97" s="24">
+        <v>1.9999499999999999</v>
+      </c>
+      <c r="P97" s="46">
+        <v>2.8477900000000001E-7</v>
+      </c>
+      <c r="Q97" s="24">
+        <v>0.319998</v>
+      </c>
+      <c r="R97" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>0.95000000000000007</v>
       </c>
-      <c r="B98" s="5"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="24"/>
-      <c r="K98" s="24"/>
-      <c r="L98" s="24"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="30"/>
-      <c r="O98" s="24"/>
-      <c r="P98" s="24"/>
-      <c r="Q98" s="24"/>
-      <c r="R98" s="1"/>
+      <c r="B98" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C98" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D98" s="5">
+        <v>1.79993</v>
+      </c>
+      <c r="E98" s="24">
+        <v>1.80003</v>
+      </c>
+      <c r="F98" s="24">
+        <v>8.0015000000000003E-2</v>
+      </c>
+      <c r="G98" s="24">
+        <v>28.8797</v>
+      </c>
+      <c r="H98" s="22">
+        <v>254</v>
+      </c>
+      <c r="I98" s="5">
+        <v>1.9978899999999999</v>
+      </c>
+      <c r="J98" s="24">
+        <v>1.9979</v>
+      </c>
+      <c r="K98" s="46">
+        <v>8.8665000000000006E-5</v>
+      </c>
+      <c r="L98" s="24">
+        <v>3.1966299999999999</v>
+      </c>
+      <c r="M98" s="1">
+        <v>254</v>
+      </c>
+      <c r="N98" s="30">
+        <v>2.0000300000000002</v>
+      </c>
+      <c r="O98" s="24">
+        <v>1.99996</v>
+      </c>
+      <c r="P98" s="46">
+        <v>2.4820000000000001E-7</v>
+      </c>
+      <c r="Q98" s="24">
+        <v>0.31999899999999998</v>
+      </c>
+      <c r="R98" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>0.96</v>
       </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="22"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="24"/>
-      <c r="K99" s="24"/>
-      <c r="L99" s="24"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="30"/>
-      <c r="O99" s="24"/>
-      <c r="P99" s="24"/>
-      <c r="Q99" s="24"/>
-      <c r="R99" s="1"/>
+      <c r="B99" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C99" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D99" s="5">
+        <v>1.83999</v>
+      </c>
+      <c r="E99" s="24">
+        <v>1.8400099999999999</v>
+      </c>
+      <c r="F99" s="24">
+        <v>5.1201999999999998E-2</v>
+      </c>
+      <c r="G99" s="24">
+        <v>29.491199999999999</v>
+      </c>
+      <c r="H99" s="22">
+        <v>254</v>
+      </c>
+      <c r="I99" s="5">
+        <v>1.9982599999999999</v>
+      </c>
+      <c r="J99" s="24">
+        <v>1.99837</v>
+      </c>
+      <c r="K99" s="46">
+        <v>5.6909700000000002E-5</v>
+      </c>
+      <c r="L99" s="24">
+        <v>3.1972999999999998</v>
+      </c>
+      <c r="M99" s="1">
+        <v>254</v>
+      </c>
+      <c r="N99" s="30">
+        <v>2.0000300000000002</v>
+      </c>
+      <c r="O99" s="24">
+        <v>1.99996</v>
+      </c>
+      <c r="P99" s="46">
+        <v>2.2025600000000001E-7</v>
+      </c>
+      <c r="Q99" s="24">
+        <v>0.31999899999999998</v>
+      </c>
+      <c r="R99" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>0.97</v>
       </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="24"/>
-      <c r="K100" s="24"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="30"/>
-      <c r="O100" s="24"/>
-      <c r="P100" s="24"/>
-      <c r="Q100" s="24"/>
-      <c r="R100" s="1"/>
+      <c r="B100" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C100" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D100" s="5">
+        <v>1.8801000000000001</v>
+      </c>
+      <c r="E100" s="24">
+        <v>1.8799399999999999</v>
+      </c>
+      <c r="F100" s="24">
+        <v>2.8789700000000001E-2</v>
+      </c>
+      <c r="G100" s="24">
+        <v>30.109100000000002</v>
+      </c>
+      <c r="H100" s="22">
+        <v>254</v>
+      </c>
+      <c r="I100" s="5">
+        <v>1.9985900000000001</v>
+      </c>
+      <c r="J100" s="24">
+        <v>1.9988600000000001</v>
+      </c>
+      <c r="K100" s="46">
+        <v>3.2778399999999998E-5</v>
+      </c>
+      <c r="L100" s="24">
+        <v>3.1979600000000001</v>
+      </c>
+      <c r="M100" s="1">
+        <v>254</v>
+      </c>
+      <c r="N100" s="30">
+        <v>2.0000300000000002</v>
+      </c>
+      <c r="O100" s="24">
+        <v>1.99997</v>
+      </c>
+      <c r="P100" s="46">
+        <v>1.9850200000000001E-7</v>
+      </c>
+      <c r="Q100" s="24">
+        <v>0.32</v>
+      </c>
+      <c r="R100" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>0.98</v>
       </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="24"/>
-      <c r="K101" s="24"/>
-      <c r="L101" s="24"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="30"/>
-      <c r="O101" s="24"/>
-      <c r="P101" s="24"/>
-      <c r="Q101" s="24"/>
-      <c r="R101" s="1"/>
+      <c r="B101" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C101" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D101" s="5">
+        <v>1.92001</v>
+      </c>
+      <c r="E101" s="24">
+        <v>1.92</v>
+      </c>
+      <c r="F101" s="24">
+        <v>1.27995E-2</v>
+      </c>
+      <c r="G101" s="24">
+        <v>30.732800000000001</v>
+      </c>
+      <c r="H101" s="22">
+        <v>254</v>
+      </c>
+      <c r="I101" s="5">
+        <v>1.9990300000000001</v>
+      </c>
+      <c r="J101" s="24">
+        <v>1.9992700000000001</v>
+      </c>
+      <c r="K101" s="46">
+        <v>1.4776900000000001E-5</v>
+      </c>
+      <c r="L101" s="24">
+        <v>3.1986400000000001</v>
+      </c>
+      <c r="M101" s="1">
+        <v>254</v>
+      </c>
+      <c r="N101" s="30">
+        <v>2.0000300000000002</v>
+      </c>
+      <c r="O101" s="24">
+        <v>1.99997</v>
+      </c>
+      <c r="P101" s="46">
+        <v>1.8213999999999999E-7</v>
+      </c>
+      <c r="Q101" s="24">
+        <v>0.32</v>
+      </c>
+      <c r="R101" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>0.99</v>
       </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="22"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="24"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="30"/>
-      <c r="O102" s="24"/>
-      <c r="P102" s="24"/>
-      <c r="Q102" s="24"/>
-      <c r="R102" s="1"/>
+      <c r="B102" s="5">
+        <v>-3.74065</v>
+      </c>
+      <c r="C102" s="22">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D102" s="5">
+        <v>1.9600599999999999</v>
+      </c>
+      <c r="E102" s="24">
+        <v>1.95997</v>
+      </c>
+      <c r="F102" s="24">
+        <v>3.1974799999999999E-3</v>
+      </c>
+      <c r="G102" s="24">
+        <v>31.363499999999998</v>
+      </c>
+      <c r="H102" s="22">
+        <v>254</v>
+      </c>
+      <c r="I102" s="5">
+        <v>1.99969</v>
+      </c>
+      <c r="J102" s="24">
+        <v>1.9995499999999999</v>
+      </c>
+      <c r="K102" s="46">
+        <v>2.9832000000000001E-6</v>
+      </c>
+      <c r="L102" s="24">
+        <v>3.1993900000000002</v>
+      </c>
+      <c r="M102" s="1">
+        <v>254</v>
+      </c>
+      <c r="N102" s="30">
+        <v>2.0000399999999998</v>
+      </c>
+      <c r="O102" s="24">
+        <v>1.9999800000000001</v>
+      </c>
+      <c r="P102" s="46">
+        <v>1.7317400000000001E-7</v>
+      </c>
+      <c r="Q102" s="24">
+        <v>0.32000099999999998</v>
+      </c>
+      <c r="R102" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="103" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>1</v>
       </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="23"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="25"/>
-      <c r="K103" s="25"/>
-      <c r="L103" s="25"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="31"/>
-      <c r="O103" s="25"/>
-      <c r="P103" s="25"/>
-      <c r="Q103" s="25"/>
-      <c r="R103" s="2"/>
+      <c r="B103" s="6">
+        <v>-3.74065</v>
+      </c>
+      <c r="C103" s="23">
+        <v>-9.0795600000000007</v>
+      </c>
+      <c r="D103" s="6">
+        <v>2.0000300000000002</v>
+      </c>
+      <c r="E103" s="25">
+        <v>1.9999800000000001</v>
+      </c>
+      <c r="F103" s="47">
+        <v>1.0458300000000001E-9</v>
+      </c>
+      <c r="G103" s="25">
+        <v>32.000100000000003</v>
+      </c>
+      <c r="H103" s="23">
+        <v>254</v>
+      </c>
+      <c r="I103" s="6">
+        <v>2.0000300000000002</v>
+      </c>
+      <c r="J103" s="25">
+        <v>1.9999800000000001</v>
+      </c>
+      <c r="K103" s="47">
+        <v>1.04583E-8</v>
+      </c>
+      <c r="L103" s="25">
+        <v>3.2000099999999998</v>
+      </c>
+      <c r="M103" s="2">
+        <v>254</v>
+      </c>
+      <c r="N103" s="31">
+        <v>2.0000300000000002</v>
+      </c>
+      <c r="O103" s="25">
+        <v>1.9999800000000001</v>
+      </c>
+      <c r="P103" s="47">
+        <v>1.04583E-7</v>
+      </c>
+      <c r="Q103" s="25">
+        <v>0.32000099999999998</v>
+      </c>
+      <c r="R103" s="2">
+        <v>254</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Coursework Reports/5th assignment/xlsx5.xlsx
+++ b/Coursework Reports/5th assignment/xlsx5.xlsx
@@ -3,20 +3,33 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AE2DFF-4149-42AE-B3C8-0C18B5C81998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D21159-7A8C-460E-A4AC-BCCABFEDBE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabela 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Liczba wywołań funkcji celu</t>
   </si>
@@ -270,6 +283,21 @@
   <si>
     <t>a=100</t>
   </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>bad L</t>
+  </si>
+  <si>
+    <t>bad D</t>
+  </si>
+  <si>
+    <t>bad kg</t>
+  </si>
+  <si>
+    <t>bad deflect</t>
+  </si>
 </sst>
 </file>
 
@@ -735,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -790,6 +818,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -823,11 +856,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1134,52 +1168,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="18" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="18" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="32" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="35" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="34"/>
-    </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="41"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="39"/>
+    </row>
+    <row r="2" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="42"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="27" t="s">
         <v>12</v>
       </c>
@@ -1226,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -1242,10 +1276,10 @@
       <c r="E3" s="26">
         <v>-1.9999899999999999</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="32">
         <v>31.9999</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="32">
         <v>1.7421699999999999E-10</v>
       </c>
       <c r="H3" s="21">
@@ -1254,19 +1288,19 @@
       <c r="I3" s="4">
         <v>-1.9999899999999999</v>
       </c>
-      <c r="J3" s="43">
+      <c r="J3" s="32">
         <v>-1.9999899999999999</v>
       </c>
       <c r="K3" s="26">
         <v>319.99900000000002</v>
       </c>
-      <c r="L3" s="43">
+      <c r="L3" s="32">
         <v>1.7421699999999999E-11</v>
       </c>
       <c r="M3" s="3">
         <v>160</v>
       </c>
-      <c r="N3" s="44">
+      <c r="N3" s="33">
         <v>-1.9999899999999999</v>
       </c>
       <c r="O3" s="26">
@@ -1275,14 +1309,14 @@
       <c r="P3" s="26">
         <v>3199.99</v>
       </c>
-      <c r="Q3" s="43">
+      <c r="Q3" s="32">
         <v>1.74217E-12</v>
       </c>
       <c r="R3" s="3">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0.01</v>
       </c>
@@ -1338,7 +1372,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>0.02</v>
       </c>
@@ -1394,7 +1428,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0.03</v>
       </c>
@@ -1450,7 +1484,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>0.04</v>
       </c>
@@ -1506,7 +1540,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>0.05</v>
       </c>
@@ -1562,7 +1596,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>0.06</v>
       </c>
@@ -1618,7 +1652,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1674,7 +1708,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>0.08</v>
       </c>
@@ -1730,7 +1764,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>0.09</v>
       </c>
@@ -1786,7 +1820,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>0.1</v>
       </c>
@@ -1842,7 +1876,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>0.11</v>
       </c>
@@ -1898,7 +1932,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>0.12</v>
       </c>
@@ -1954,7 +1988,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>0.13</v>
       </c>
@@ -2010,7 +2044,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>0.14000000000000001</v>
       </c>
@@ -2066,7 +2100,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>0.15</v>
       </c>
@@ -2122,7 +2156,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>0.16</v>
       </c>
@@ -2178,7 +2212,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>0.17</v>
       </c>
@@ -2234,7 +2268,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>0.18</v>
       </c>
@@ -2290,7 +2324,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>0.19</v>
       </c>
@@ -2346,7 +2380,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>0.2</v>
       </c>
@@ -2402,7 +2436,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>0.21</v>
       </c>
@@ -2458,7 +2492,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>0.22</v>
       </c>
@@ -2514,7 +2548,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>0.23</v>
       </c>
@@ -2570,7 +2604,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>0.24</v>
       </c>
@@ -2626,7 +2660,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>0.25</v>
       </c>
@@ -2682,7 +2716,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>0.26</v>
       </c>
@@ -2738,7 +2772,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>0.27</v>
       </c>
@@ -2794,7 +2828,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>0.28000000000000003</v>
       </c>
@@ -2850,7 +2884,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>0.28999999999999998</v>
       </c>
@@ -2906,7 +2940,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>0.3</v>
       </c>
@@ -2962,7 +2996,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>0.31</v>
       </c>
@@ -3018,7 +3052,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>0.32</v>
       </c>
@@ -3074,7 +3108,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>0.33</v>
       </c>
@@ -3130,7 +3164,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>0.34</v>
       </c>
@@ -3186,7 +3220,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>0.35000000000000003</v>
       </c>
@@ -3242,7 +3276,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>0.36</v>
       </c>
@@ -3288,7 +3322,7 @@
       <c r="O39" s="24">
         <v>1.9992799999999999</v>
       </c>
-      <c r="P39" s="46">
+      <c r="P39" s="35">
         <v>9.9975400000000005E-5</v>
       </c>
       <c r="Q39" s="24">
@@ -3298,7 +3332,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>0.37</v>
       </c>
@@ -3344,7 +3378,7 @@
       <c r="O40" s="24">
         <v>1.9993099999999999</v>
       </c>
-      <c r="P40" s="46">
+      <c r="P40" s="35">
         <v>9.2213200000000007E-5</v>
       </c>
       <c r="Q40" s="24">
@@ -3354,7 +3388,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>0.38</v>
       </c>
@@ -3400,7 +3434,7 @@
       <c r="O41" s="24">
         <v>1.99935</v>
       </c>
-      <c r="P41" s="46">
+      <c r="P41" s="35">
         <v>8.5078200000000001E-5</v>
       </c>
       <c r="Q41" s="24">
@@ -3410,7 +3444,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>0.39</v>
       </c>
@@ -3456,7 +3490,7 @@
       <c r="O42" s="24">
         <v>1.9993799999999999</v>
       </c>
-      <c r="P42" s="46">
+      <c r="P42" s="35">
         <v>7.8671999999999995E-5</v>
       </c>
       <c r="Q42" s="24">
@@ -3466,7 +3500,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>0.4</v>
       </c>
@@ -3512,7 +3546,7 @@
       <c r="O43" s="24">
         <v>1.9994099999999999</v>
       </c>
-      <c r="P43" s="46">
+      <c r="P43" s="35">
         <v>7.2920899999999995E-5</v>
       </c>
       <c r="Q43" s="24">
@@ -3522,7 +3556,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>0.41000000000000003</v>
       </c>
@@ -3568,7 +3602,7 @@
       <c r="O44" s="24">
         <v>1.9994400000000001</v>
       </c>
-      <c r="P44" s="46">
+      <c r="P44" s="35">
         <v>6.7566500000000004E-5</v>
       </c>
       <c r="Q44" s="24">
@@ -3578,7 +3612,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>0.42</v>
       </c>
@@ -3624,7 +3658,7 @@
       <c r="O45" s="24">
         <v>1.9994700000000001</v>
       </c>
-      <c r="P45" s="46">
+      <c r="P45" s="35">
         <v>6.3571499999999999E-5</v>
       </c>
       <c r="Q45" s="24">
@@ -3634,7 +3668,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>0.43</v>
       </c>
@@ -3680,7 +3714,7 @@
       <c r="O46" s="24">
         <v>1.99949</v>
       </c>
-      <c r="P46" s="46">
+      <c r="P46" s="35">
         <v>5.9371599999999999E-5</v>
       </c>
       <c r="Q46" s="24">
@@ -3690,7 +3724,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>0.44</v>
       </c>
@@ -3736,7 +3770,7 @@
       <c r="O47" s="24">
         <v>1.99952</v>
       </c>
-      <c r="P47" s="46">
+      <c r="P47" s="35">
         <v>5.5420900000000003E-5</v>
       </c>
       <c r="Q47" s="24">
@@ -3746,7 +3780,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>0.45</v>
       </c>
@@ -3792,7 +3826,7 @@
       <c r="O48" s="24">
         <v>1.9995400000000001</v>
       </c>
-      <c r="P48" s="46">
+      <c r="P48" s="35">
         <v>5.1880299999999999E-5</v>
       </c>
       <c r="Q48" s="24">
@@ -3802,7 +3836,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>0.46</v>
       </c>
@@ -3848,7 +3882,7 @@
       <c r="O49" s="24">
         <v>1.9995700000000001</v>
       </c>
-      <c r="P49" s="46">
+      <c r="P49" s="35">
         <v>4.8674000000000002E-5</v>
       </c>
       <c r="Q49" s="24">
@@ -3858,7 +3892,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>0.47000000000000003</v>
       </c>
@@ -3904,7 +3938,7 @@
       <c r="O50" s="24">
         <v>1.99959</v>
       </c>
-      <c r="P50" s="46">
+      <c r="P50" s="35">
         <v>4.5593799999999997E-5</v>
       </c>
       <c r="Q50" s="24">
@@ -3914,7 +3948,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>0.48</v>
       </c>
@@ -3960,7 +3994,7 @@
       <c r="O51" s="24">
         <v>1.9996100000000001</v>
       </c>
-      <c r="P51" s="46">
+      <c r="P51" s="35">
         <v>4.28169E-5</v>
       </c>
       <c r="Q51" s="24">
@@ -3970,7 +4004,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>0.49</v>
       </c>
@@ -4016,7 +4050,7 @@
       <c r="O52" s="24">
         <v>1.9995400000000001</v>
       </c>
-      <c r="P52" s="46">
+      <c r="P52" s="35">
         <v>3.1632199999999998E-5</v>
       </c>
       <c r="Q52" s="24">
@@ -4026,7 +4060,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>0.5</v>
       </c>
@@ -4036,10 +4070,10 @@
       <c r="C53" s="22">
         <v>-9.0795600000000007</v>
       </c>
-      <c r="D53" s="45">
+      <c r="D53" s="34">
         <v>-4.1449000000000002E-5</v>
       </c>
-      <c r="E53" s="46">
+      <c r="E53" s="35">
         <v>1.8958100000000001E-5</v>
       </c>
       <c r="F53" s="24">
@@ -4072,7 +4106,7 @@
       <c r="O53" s="24">
         <v>1.99956</v>
       </c>
-      <c r="P53" s="46">
+      <c r="P53" s="35">
         <v>2.9236099999999999E-5</v>
       </c>
       <c r="Q53" s="24">
@@ -4082,7 +4116,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>0.51</v>
       </c>
@@ -4128,7 +4162,7 @@
       <c r="O54" s="24">
         <v>1.9995799999999999</v>
       </c>
-      <c r="P54" s="46">
+      <c r="P54" s="35">
         <v>2.7034199999999999E-5</v>
       </c>
       <c r="Q54" s="24">
@@ -4138,7 +4172,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>0.52</v>
       </c>
@@ -4184,7 +4218,7 @@
       <c r="O55" s="24">
         <v>1.9996</v>
       </c>
-      <c r="P55" s="46">
+      <c r="P55" s="35">
         <v>2.50723E-5</v>
       </c>
       <c r="Q55" s="24">
@@ -4194,7 +4228,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>0.53</v>
       </c>
@@ -4240,7 +4274,7 @@
       <c r="O56" s="24">
         <v>1.9996100000000001</v>
       </c>
-      <c r="P56" s="46">
+      <c r="P56" s="35">
         <v>2.31868E-5</v>
       </c>
       <c r="Q56" s="24">
@@ -4250,7 +4284,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>0.54</v>
       </c>
@@ -4296,7 +4330,7 @@
       <c r="O57" s="24">
         <v>1.99963</v>
       </c>
-      <c r="P57" s="46">
+      <c r="P57" s="35">
         <v>2.14639E-5</v>
       </c>
       <c r="Q57" s="24">
@@ -4306,7 +4340,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>0.55000000000000004</v>
       </c>
@@ -4352,7 +4386,7 @@
       <c r="O58" s="24">
         <v>1.9996499999999999</v>
       </c>
-      <c r="P58" s="46">
+      <c r="P58" s="35">
         <v>1.9893000000000001E-5</v>
       </c>
       <c r="Q58" s="24">
@@ -4362,7 +4396,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>0.56000000000000005</v>
       </c>
@@ -4408,7 +4442,7 @@
       <c r="O59" s="24">
         <v>1.99966</v>
       </c>
-      <c r="P59" s="46">
+      <c r="P59" s="35">
         <v>1.8354000000000001E-5</v>
       </c>
       <c r="Q59" s="24">
@@ -4418,7 +4452,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>0.57000000000000006</v>
       </c>
@@ -4464,7 +4498,7 @@
       <c r="O60" s="24">
         <v>1.9996799999999999</v>
       </c>
-      <c r="P60" s="46">
+      <c r="P60" s="35">
         <v>1.70323E-5</v>
       </c>
       <c r="Q60" s="24">
@@ -4474,7 +4508,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>0.57999999999999996</v>
       </c>
@@ -4520,7 +4554,7 @@
       <c r="O61" s="24">
         <v>1.99969</v>
       </c>
-      <c r="P61" s="46">
+      <c r="P61" s="35">
         <v>1.57346E-5</v>
       </c>
       <c r="Q61" s="24">
@@ -4530,7 +4564,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>0.59</v>
       </c>
@@ -4576,7 +4610,7 @@
       <c r="O62" s="24">
         <v>1.9997100000000001</v>
       </c>
-      <c r="P62" s="46">
+      <c r="P62" s="35">
         <v>1.4910500000000001E-5</v>
       </c>
       <c r="Q62" s="24">
@@ -4586,7 +4620,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>0.6</v>
       </c>
@@ -4632,7 +4666,7 @@
       <c r="O63" s="24">
         <v>1.9997199999999999</v>
       </c>
-      <c r="P63" s="46">
+      <c r="P63" s="35">
         <v>1.37506E-5</v>
       </c>
       <c r="Q63" s="24">
@@ -4642,7 +4676,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>0.61</v>
       </c>
@@ -4688,7 +4722,7 @@
       <c r="O64" s="24">
         <v>1.99973</v>
       </c>
-      <c r="P64" s="46">
+      <c r="P64" s="35">
         <v>1.26969E-5</v>
       </c>
       <c r="Q64" s="24">
@@ -4698,7 +4732,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>0.62</v>
       </c>
@@ -4744,7 +4778,7 @@
       <c r="O65" s="24">
         <v>1.9997499999999999</v>
       </c>
-      <c r="P65" s="46">
+      <c r="P65" s="35">
         <v>1.1687E-5</v>
       </c>
       <c r="Q65" s="24">
@@ -4754,7 +4788,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>0.63</v>
       </c>
@@ -4800,7 +4834,7 @@
       <c r="O66" s="24">
         <v>1.99976</v>
       </c>
-      <c r="P66" s="46">
+      <c r="P66" s="35">
         <v>1.0773499999999999E-5</v>
       </c>
       <c r="Q66" s="24">
@@ -4810,7 +4844,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>0.64</v>
       </c>
@@ -4856,7 +4890,7 @@
       <c r="O67" s="24">
         <v>1.99977</v>
       </c>
-      <c r="P67" s="46">
+      <c r="P67" s="35">
         <v>9.9302500000000003E-6</v>
       </c>
       <c r="Q67" s="24">
@@ -4866,7 +4900,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>0.65</v>
       </c>
@@ -4912,7 +4946,7 @@
       <c r="O68" s="24">
         <v>1.9997799999999999</v>
       </c>
-      <c r="P68" s="46">
+      <c r="P68" s="35">
         <v>9.1716200000000001E-6</v>
       </c>
       <c r="Q68" s="24">
@@ -4922,7 +4956,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>0.66</v>
       </c>
@@ -4968,7 +5002,7 @@
       <c r="O69" s="24">
         <v>1.99979</v>
       </c>
-      <c r="P69" s="46">
+      <c r="P69" s="35">
         <v>8.4448999999999994E-6</v>
       </c>
       <c r="Q69" s="24">
@@ -4978,7 +5012,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>0.67</v>
       </c>
@@ -5024,7 +5058,7 @@
       <c r="O70" s="24">
         <v>1.9998</v>
       </c>
-      <c r="P70" s="46">
+      <c r="P70" s="35">
         <v>7.7501099999999996E-6</v>
       </c>
       <c r="Q70" s="24">
@@ -5034,7 +5068,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>0.68</v>
       </c>
@@ -5080,7 +5114,7 @@
       <c r="O71" s="24">
         <v>1.9998100000000001</v>
       </c>
-      <c r="P71" s="46">
+      <c r="P71" s="35">
         <v>7.1032799999999997E-6</v>
       </c>
       <c r="Q71" s="24">
@@ -5090,7 +5124,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>0.69000000000000006</v>
       </c>
@@ -5136,7 +5170,7 @@
       <c r="O72" s="24">
         <v>1.9998199999999999</v>
       </c>
-      <c r="P72" s="46">
+      <c r="P72" s="35">
         <v>6.5521600000000003E-6</v>
       </c>
       <c r="Q72" s="24">
@@ -5146,7 +5180,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>0.70000000000000007</v>
       </c>
@@ -5192,7 +5226,7 @@
       <c r="O73" s="24">
         <v>1.99983</v>
       </c>
-      <c r="P73" s="46">
+      <c r="P73" s="35">
         <v>6.0104299999999996E-6</v>
       </c>
       <c r="Q73" s="24">
@@ -5202,7 +5236,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>0.71</v>
       </c>
@@ -5248,7 +5282,7 @@
       <c r="O74" s="24">
         <v>1.9998400000000001</v>
       </c>
-      <c r="P74" s="46">
+      <c r="P74" s="35">
         <v>5.4942400000000001E-6</v>
       </c>
       <c r="Q74" s="24">
@@ -5258,7 +5292,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>0.72</v>
       </c>
@@ -5304,7 +5338,7 @@
       <c r="O75" s="24">
         <v>1.9998499999999999</v>
       </c>
-      <c r="P75" s="46">
+      <c r="P75" s="35">
         <v>5.03851E-6</v>
       </c>
       <c r="Q75" s="24">
@@ -5314,7 +5348,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>0.73</v>
       </c>
@@ -5360,7 +5394,7 @@
       <c r="O76" s="24">
         <v>1.99986</v>
       </c>
-      <c r="P76" s="46">
+      <c r="P76" s="35">
         <v>4.5920299999999998E-6</v>
       </c>
       <c r="Q76" s="24">
@@ -5370,7 +5404,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>0.74</v>
       </c>
@@ -5416,7 +5450,7 @@
       <c r="O77" s="24">
         <v>1.99987</v>
       </c>
-      <c r="P77" s="46">
+      <c r="P77" s="35">
         <v>4.2124100000000004E-6</v>
       </c>
       <c r="Q77" s="24">
@@ -5426,7 +5460,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>0.75</v>
       </c>
@@ -5472,7 +5506,7 @@
       <c r="O78" s="24">
         <v>1.9998800000000001</v>
       </c>
-      <c r="P78" s="46">
+      <c r="P78" s="35">
         <v>3.8399600000000002E-6</v>
       </c>
       <c r="Q78" s="24">
@@ -5482,7 +5516,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>0.76</v>
       </c>
@@ -5528,7 +5562,7 @@
       <c r="O79" s="24">
         <v>1.9998899999999999</v>
       </c>
-      <c r="P79" s="46">
+      <c r="P79" s="35">
         <v>3.4873699999999999E-6</v>
       </c>
       <c r="Q79" s="24">
@@ -5538,7 +5572,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>0.77</v>
       </c>
@@ -5584,7 +5618,7 @@
       <c r="O80" s="24">
         <v>1.9998899999999999</v>
       </c>
-      <c r="P80" s="46">
+      <c r="P80" s="35">
         <v>3.18141E-6</v>
       </c>
       <c r="Q80" s="24">
@@ -5594,7 +5628,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>0.78</v>
       </c>
@@ -5640,7 +5674,7 @@
       <c r="O81" s="24">
         <v>1.9999</v>
       </c>
-      <c r="P81" s="46">
+      <c r="P81" s="35">
         <v>2.89217E-6</v>
       </c>
       <c r="Q81" s="24">
@@ -5650,7 +5684,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <v>0.79</v>
       </c>
@@ -5696,7 +5730,7 @@
       <c r="O82" s="24">
         <v>1.9999100000000001</v>
       </c>
-      <c r="P82" s="46">
+      <c r="P82" s="35">
         <v>2.6435300000000002E-6</v>
       </c>
       <c r="Q82" s="24">
@@ -5706,7 +5740,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>0.8</v>
       </c>
@@ -5752,7 +5786,7 @@
       <c r="O83" s="24">
         <v>1.9999199999999999</v>
       </c>
-      <c r="P83" s="46">
+      <c r="P83" s="35">
         <v>2.38621E-6</v>
       </c>
       <c r="Q83" s="24">
@@ -5762,7 +5796,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
         <v>0.81</v>
       </c>
@@ -5808,7 +5842,7 @@
       <c r="O84" s="24">
         <v>1.99993</v>
       </c>
-      <c r="P84" s="46">
+      <c r="P84" s="35">
         <v>2.40278E-6</v>
       </c>
       <c r="Q84" s="24">
@@ -5818,7 +5852,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>0.82000000000000006</v>
       </c>
@@ -5864,7 +5898,7 @@
       <c r="O85" s="24">
         <v>1.99993</v>
       </c>
-      <c r="P85" s="46">
+      <c r="P85" s="35">
         <v>2.2084899999999998E-6</v>
       </c>
       <c r="Q85" s="24">
@@ -5874,7 +5908,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <v>0.83000000000000007</v>
       </c>
@@ -5920,7 +5954,7 @@
       <c r="O86" s="24">
         <v>1.9999400000000001</v>
       </c>
-      <c r="P86" s="46">
+      <c r="P86" s="35">
         <v>2.0399600000000001E-6</v>
       </c>
       <c r="Q86" s="24">
@@ -5930,7 +5964,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>0.84</v>
       </c>
@@ -5976,7 +6010,7 @@
       <c r="O87" s="24">
         <v>1.9999499999999999</v>
       </c>
-      <c r="P87" s="46">
+      <c r="P87" s="35">
         <v>1.8706600000000001E-6</v>
       </c>
       <c r="Q87" s="24">
@@ -5986,7 +6020,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>0.85</v>
       </c>
@@ -6032,7 +6066,7 @@
       <c r="O88" s="24">
         <v>1.9999499999999999</v>
       </c>
-      <c r="P88" s="46">
+      <c r="P88" s="35">
         <v>1.73211E-6</v>
       </c>
       <c r="Q88" s="24">
@@ -6042,7 +6076,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>0.86</v>
       </c>
@@ -6088,7 +6122,7 @@
       <c r="O89" s="24">
         <v>1.99996</v>
       </c>
-      <c r="P89" s="46">
+      <c r="P89" s="35">
         <v>1.59734E-6</v>
       </c>
       <c r="Q89" s="24">
@@ -6098,7 +6132,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>0.87</v>
       </c>
@@ -6144,7 +6178,7 @@
       <c r="O90" s="24">
         <v>1.99997</v>
       </c>
-      <c r="P90" s="46">
+      <c r="P90" s="35">
         <v>1.4888400000000001E-6</v>
       </c>
       <c r="Q90" s="24">
@@ -6154,7 +6188,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>0.88</v>
       </c>
@@ -6200,7 +6234,7 @@
       <c r="O91" s="24">
         <v>1.99997</v>
       </c>
-      <c r="P91" s="46">
+      <c r="P91" s="35">
         <v>1.3802200000000001E-6</v>
       </c>
       <c r="Q91" s="24">
@@ -6210,7 +6244,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>0.89</v>
       </c>
@@ -6256,7 +6290,7 @@
       <c r="O92" s="24">
         <v>1.9999199999999999</v>
       </c>
-      <c r="P92" s="46">
+      <c r="P92" s="35">
         <v>6.0638900000000004E-7</v>
       </c>
       <c r="Q92" s="24">
@@ -6266,7 +6300,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>0.9</v>
       </c>
@@ -6312,7 +6346,7 @@
       <c r="O93" s="24">
         <v>1.99993</v>
       </c>
-      <c r="P93" s="46">
+      <c r="P93" s="35">
         <v>5.1764699999999995E-7</v>
       </c>
       <c r="Q93" s="24">
@@ -6322,7 +6356,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>0.91</v>
       </c>
@@ -6368,7 +6402,7 @@
       <c r="O94" s="24">
         <v>1.99993</v>
       </c>
-      <c r="P94" s="46">
+      <c r="P94" s="35">
         <v>4.5130599999999998E-7</v>
       </c>
       <c r="Q94" s="24">
@@ -6378,7 +6412,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>0.92</v>
       </c>
@@ -6424,7 +6458,7 @@
       <c r="O95" s="24">
         <v>1.9999400000000001</v>
       </c>
-      <c r="P95" s="46">
+      <c r="P95" s="35">
         <v>3.8649600000000002E-7</v>
       </c>
       <c r="Q95" s="24">
@@ -6434,7 +6468,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
         <v>0.93</v>
       </c>
@@ -6480,7 +6514,7 @@
       <c r="O96" s="24">
         <v>1.9999499999999999</v>
       </c>
-      <c r="P96" s="46">
+      <c r="P96" s="35">
         <v>3.3308800000000002E-7</v>
       </c>
       <c r="Q96" s="24">
@@ -6490,7 +6524,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>0.94000000000000006</v>
       </c>
@@ -6536,7 +6570,7 @@
       <c r="O97" s="24">
         <v>1.9999499999999999</v>
       </c>
-      <c r="P97" s="46">
+      <c r="P97" s="35">
         <v>2.8477900000000001E-7</v>
       </c>
       <c r="Q97" s="24">
@@ -6546,7 +6580,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <v>0.95000000000000007</v>
       </c>
@@ -6577,7 +6611,7 @@
       <c r="J98" s="24">
         <v>1.9979</v>
       </c>
-      <c r="K98" s="46">
+      <c r="K98" s="35">
         <v>8.8665000000000006E-5</v>
       </c>
       <c r="L98" s="24">
@@ -6592,7 +6626,7 @@
       <c r="O98" s="24">
         <v>1.99996</v>
       </c>
-      <c r="P98" s="46">
+      <c r="P98" s="35">
         <v>2.4820000000000001E-7</v>
       </c>
       <c r="Q98" s="24">
@@ -6602,7 +6636,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>0.96</v>
       </c>
@@ -6633,7 +6667,7 @@
       <c r="J99" s="24">
         <v>1.99837</v>
       </c>
-      <c r="K99" s="46">
+      <c r="K99" s="35">
         <v>5.6909700000000002E-5</v>
       </c>
       <c r="L99" s="24">
@@ -6648,7 +6682,7 @@
       <c r="O99" s="24">
         <v>1.99996</v>
       </c>
-      <c r="P99" s="46">
+      <c r="P99" s="35">
         <v>2.2025600000000001E-7</v>
       </c>
       <c r="Q99" s="24">
@@ -6658,7 +6692,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <v>0.97</v>
       </c>
@@ -6689,7 +6723,7 @@
       <c r="J100" s="24">
         <v>1.9988600000000001</v>
       </c>
-      <c r="K100" s="46">
+      <c r="K100" s="35">
         <v>3.2778399999999998E-5</v>
       </c>
       <c r="L100" s="24">
@@ -6704,7 +6738,7 @@
       <c r="O100" s="24">
         <v>1.99997</v>
       </c>
-      <c r="P100" s="46">
+      <c r="P100" s="35">
         <v>1.9850200000000001E-7</v>
       </c>
       <c r="Q100" s="24">
@@ -6714,7 +6748,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>0.98</v>
       </c>
@@ -6745,7 +6779,7 @@
       <c r="J101" s="24">
         <v>1.9992700000000001</v>
       </c>
-      <c r="K101" s="46">
+      <c r="K101" s="35">
         <v>1.4776900000000001E-5</v>
       </c>
       <c r="L101" s="24">
@@ -6760,7 +6794,7 @@
       <c r="O101" s="24">
         <v>1.99997</v>
       </c>
-      <c r="P101" s="46">
+      <c r="P101" s="35">
         <v>1.8213999999999999E-7</v>
       </c>
       <c r="Q101" s="24">
@@ -6770,7 +6804,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <v>0.99</v>
       </c>
@@ -6801,7 +6835,7 @@
       <c r="J102" s="24">
         <v>1.9995499999999999</v>
       </c>
-      <c r="K102" s="46">
+      <c r="K102" s="35">
         <v>2.9832000000000001E-6</v>
       </c>
       <c r="L102" s="24">
@@ -6816,7 +6850,7 @@
       <c r="O102" s="24">
         <v>1.9999800000000001</v>
       </c>
-      <c r="P102" s="46">
+      <c r="P102" s="35">
         <v>1.7317400000000001E-7</v>
       </c>
       <c r="Q102" s="24">
@@ -6826,7 +6860,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="8">
         <v>1</v>
       </c>
@@ -6842,7 +6876,7 @@
       <c r="E103" s="25">
         <v>1.9999800000000001</v>
       </c>
-      <c r="F103" s="47">
+      <c r="F103" s="36">
         <v>1.0458300000000001E-9</v>
       </c>
       <c r="G103" s="25">
@@ -6857,7 +6891,7 @@
       <c r="J103" s="25">
         <v>1.9999800000000001</v>
       </c>
-      <c r="K103" s="47">
+      <c r="K103" s="36">
         <v>1.04583E-8</v>
       </c>
       <c r="L103" s="25">
@@ -6872,7 +6906,7 @@
       <c r="O103" s="25">
         <v>1.9999800000000001</v>
       </c>
-      <c r="P103" s="47">
+      <c r="P103" s="36">
         <v>1.04583E-7</v>
       </c>
       <c r="Q103" s="25">
@@ -6898,19 +6932,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="8" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -6935,1218 +6969,2966 @@
       <c r="H1" s="18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="4">
+        <v>604.18700000000001</v>
+      </c>
+      <c r="C2" s="3">
+        <v>48.573</v>
+      </c>
+      <c r="D2" s="49">
+        <v>200</v>
+      </c>
+      <c r="E2" s="50">
+        <v>50</v>
+      </c>
+      <c r="F2" s="49">
+        <v>3.0630500000000001</v>
+      </c>
+      <c r="G2" s="50">
+        <v>4.1990300000000001E-2</v>
+      </c>
+      <c r="H2" s="12">
+        <v>326</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>COUNTIF(D:D,"&lt;200") + COUNTIF(D:D,"&gt;1000")</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIF(E:E,"&lt;10") + COUNTIF(E:E,"&gt;50")</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>COUNTIF(F:F,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>COUNTIF(G:G,"&lt;0") + COUNTIF(G:G,"&gt;5")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>0.01</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>815.81500000000005</v>
+      </c>
+      <c r="C3" s="1">
+        <v>17.668700000000001</v>
+      </c>
+      <c r="D3" s="5">
+        <v>200</v>
+      </c>
+      <c r="E3" s="1">
+        <v>19.0288</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.44364799999999999</v>
+      </c>
+      <c r="G3" s="51">
+        <v>2.0016099999999999</v>
+      </c>
+      <c r="H3" s="9">
+        <v>472</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0.02</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <v>557.31100000000004</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42.806199999999997</v>
+      </c>
+      <c r="D4" s="5">
+        <v>200</v>
+      </c>
+      <c r="E4" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G4" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H4" s="9">
+        <v>280</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>0.03</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>746.428</v>
+      </c>
+      <c r="C5" s="1">
+        <v>28.012</v>
+      </c>
+      <c r="D5" s="34">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F5" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H5" s="9">
+        <v>280</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0.04</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>729.70399999999995</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19.641400000000001</v>
+      </c>
+      <c r="D6" s="5">
+        <v>200</v>
+      </c>
+      <c r="E6" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F6" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H6" s="9">
+        <v>280</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>0.05</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>276.14999999999998</v>
+      </c>
+      <c r="C7" s="1">
+        <v>32.329799999999999</v>
+      </c>
+      <c r="D7" s="5">
+        <v>200</v>
+      </c>
+      <c r="E7" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F7" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G7" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H7" s="9">
+        <v>280</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>0.06</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>358.03699999999998</v>
+      </c>
+      <c r="C8" s="1">
+        <v>25.178699999999999</v>
+      </c>
+      <c r="D8" s="34">
+        <v>200</v>
+      </c>
+      <c r="E8" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F8" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H8" s="9">
+        <v>446</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>583.04399999999998</v>
+      </c>
+      <c r="C9" s="1">
+        <v>46.439100000000003</v>
+      </c>
+      <c r="D9" s="5">
+        <v>200</v>
+      </c>
+      <c r="E9" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H9" s="9">
+        <v>280</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>0.08</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>941.99</v>
+      </c>
+      <c r="C10" s="1">
+        <v>47.150799999999997</v>
+      </c>
+      <c r="D10" s="34">
+        <v>200</v>
+      </c>
+      <c r="E10" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F10" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G10" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H10" s="9">
+        <v>446</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>0.09</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>442.65899999999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>48.0871</v>
+      </c>
+      <c r="D11" s="34">
+        <v>200</v>
+      </c>
+      <c r="E11" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F11" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G11" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H11" s="9">
+        <v>280</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>0.1</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>571.93499999999995</v>
+      </c>
+      <c r="C12" s="1">
+        <v>38.727699999999999</v>
+      </c>
+      <c r="D12" s="5">
+        <v>200</v>
+      </c>
+      <c r="E12" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G12" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H12" s="9">
+        <v>280</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>0.11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>660.29200000000003</v>
+      </c>
+      <c r="C13" s="1">
+        <v>37.119999999999997</v>
+      </c>
+      <c r="D13" s="5">
+        <v>200</v>
+      </c>
+      <c r="E13" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H13" s="9">
+        <v>280</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>0.12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <v>418.31700000000001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="D14" s="5">
+        <v>200</v>
+      </c>
+      <c r="E14" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H14" s="9">
+        <v>280</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>0.13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>273.39100000000002</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10.1257</v>
+      </c>
+      <c r="D15" s="34">
+        <v>200</v>
+      </c>
+      <c r="E15" s="1">
+        <v>28.814900000000002</v>
+      </c>
+      <c r="F15" s="34">
+        <v>1.0173000000000001</v>
+      </c>
+      <c r="G15" s="51">
+        <v>0.38067800000000002</v>
+      </c>
+      <c r="H15" s="9">
+        <v>472</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
+        <v>353.471</v>
+      </c>
+      <c r="C16" s="1">
+        <v>30.4376</v>
+      </c>
+      <c r="D16" s="5">
+        <v>200</v>
+      </c>
+      <c r="E16" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H16" s="9">
+        <v>280</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>0.15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>549.4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45.770099999999999</v>
+      </c>
+      <c r="D17" s="5">
+        <v>200</v>
+      </c>
+      <c r="E17" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F17" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G17" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H17" s="9">
+        <v>280</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>0.16</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
+        <v>731.41300000000001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45.405099999999997</v>
+      </c>
+      <c r="D18" s="34">
+        <v>200</v>
+      </c>
+      <c r="E18" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F18" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H18" s="9">
+        <v>280</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>0.17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>403.59500000000003</v>
+      </c>
+      <c r="C19" s="1">
+        <v>37.079700000000003</v>
+      </c>
+      <c r="D19" s="34">
+        <v>200</v>
+      </c>
+      <c r="E19" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F19" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G19" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H19" s="9">
+        <v>280</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>0.18</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
+        <v>550.49900000000002</v>
+      </c>
+      <c r="C20" s="1">
+        <v>38.283299999999997</v>
+      </c>
+      <c r="D20" s="5">
+        <v>200</v>
+      </c>
+      <c r="E20" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F20" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G20" s="51">
+        <v>2.04087</v>
+      </c>
+      <c r="H20" s="9">
+        <v>280</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>0.19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>862.76400000000001</v>
+      </c>
+      <c r="C21" s="1">
+        <v>26.940200000000001</v>
+      </c>
+      <c r="D21" s="5">
+        <v>200</v>
+      </c>
+      <c r="E21" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2.04087</v>
+      </c>
+      <c r="H21" s="9">
+        <v>280</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>0.2</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="5">
+        <v>223.87799999999999</v>
+      </c>
+      <c r="C22" s="1">
+        <v>39.161000000000001</v>
+      </c>
+      <c r="D22" s="5">
+        <v>200</v>
+      </c>
+      <c r="E22" s="51">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F22" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G22" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H22" s="9">
+        <v>280</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>0.21</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="5">
+        <v>598.596</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43.046700000000001</v>
+      </c>
+      <c r="D23" s="5">
+        <v>200</v>
+      </c>
+      <c r="E23" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H23" s="9">
+        <v>280</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>0.22</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="5">
+        <v>782.56200000000001</v>
+      </c>
+      <c r="C24" s="1">
+        <v>29.495200000000001</v>
+      </c>
+      <c r="D24" s="5">
+        <v>200</v>
+      </c>
+      <c r="E24" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F24" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G24" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H24" s="9">
+        <v>280</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>0.23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
+        <v>956.98099999999999</v>
+      </c>
+      <c r="C25" s="1">
+        <v>28.542999999999999</v>
+      </c>
+      <c r="D25" s="5">
+        <v>200</v>
+      </c>
+      <c r="E25" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F25" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G25" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H25" s="9">
+        <v>280</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>0.24</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <v>536.58299999999997</v>
+      </c>
+      <c r="C26" s="1">
+        <v>47.956499999999998</v>
+      </c>
+      <c r="D26" s="5">
+        <v>200</v>
+      </c>
+      <c r="E26" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F26" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G26" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H26" s="9">
+        <v>280</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>0.25</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="5">
+        <v>907.077</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44.636099999999999</v>
+      </c>
+      <c r="D27" s="5">
+        <v>200</v>
+      </c>
+      <c r="E27" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H27" s="9">
+        <v>446</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>0.26</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
+        <v>218.79900000000001</v>
+      </c>
+      <c r="C28" s="1">
+        <v>23.851700000000001</v>
+      </c>
+      <c r="D28" s="34">
+        <v>200</v>
+      </c>
+      <c r="E28" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F28" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H28" s="9">
+        <v>280</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>0.27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="5">
+        <v>336.06400000000002</v>
+      </c>
+      <c r="C29" s="1">
+        <v>21.3871</v>
+      </c>
+      <c r="D29" s="5">
+        <v>200</v>
+      </c>
+      <c r="E29" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G29" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H29" s="9">
+        <v>280</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="5">
+        <v>836.61599999999999</v>
+      </c>
+      <c r="C30" s="1">
+        <v>24.380299999999998</v>
+      </c>
+      <c r="D30" s="5">
+        <v>200</v>
+      </c>
+      <c r="E30" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H30" s="9">
+        <v>280</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>0.28999999999999998</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
+        <v>914.10900000000004</v>
+      </c>
+      <c r="C31" s="1">
+        <v>32.988999999999997</v>
+      </c>
+      <c r="D31" s="34">
+        <v>200</v>
+      </c>
+      <c r="E31" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F31" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H31" s="9">
+        <v>280</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>0.3</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <v>456.28199999999998</v>
+      </c>
+      <c r="C32" s="1">
+        <v>21.9559</v>
+      </c>
+      <c r="D32" s="34">
+        <v>200</v>
+      </c>
+      <c r="E32" s="51">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F32" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H32" s="9">
+        <v>280</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>0.31</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <v>554.47900000000004</v>
+      </c>
+      <c r="C33" s="1">
+        <v>13.7098</v>
+      </c>
+      <c r="D33" s="5">
+        <v>200</v>
+      </c>
+      <c r="E33" s="1">
+        <v>21.174099999999999</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.54931799999999997</v>
+      </c>
+      <c r="G33" s="51">
+        <v>1.3056000000000001</v>
+      </c>
+      <c r="H33" s="9">
+        <v>472</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>0.32</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="5">
+        <v>545.42100000000005</v>
+      </c>
+      <c r="C34" s="1">
+        <v>27.867999999999999</v>
+      </c>
+      <c r="D34" s="34">
+        <v>340.91699999999997</v>
+      </c>
+      <c r="E34" s="51">
+        <v>22.620899999999999</v>
+      </c>
+      <c r="F34" s="34">
+        <v>1.0686899999999999</v>
+      </c>
+      <c r="G34" s="51">
+        <v>4.9641799999999998</v>
+      </c>
+      <c r="H34" s="9">
+        <v>446</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>0.33</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="9"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="5">
+        <v>294.29000000000002</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10.8179</v>
+      </c>
+      <c r="D35" s="5">
+        <v>200</v>
+      </c>
+      <c r="E35" s="1">
+        <v>26.557400000000001</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.86414100000000005</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.52758000000000005</v>
+      </c>
+      <c r="H35" s="9">
+        <v>472</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>0.34</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="9"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="5">
+        <v>897.971</v>
+      </c>
+      <c r="C36" s="1">
+        <v>18.515899999999998</v>
+      </c>
+      <c r="D36" s="34">
+        <v>200</v>
+      </c>
+      <c r="E36" s="51">
+        <v>18.946400000000001</v>
+      </c>
+      <c r="F36" s="34">
+        <v>0.43981100000000001</v>
+      </c>
+      <c r="G36" s="51">
+        <v>2.0366900000000001</v>
+      </c>
+      <c r="H36" s="9">
+        <v>496</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.35</v>
+      </c>
+      <c r="B37" s="5">
+        <v>420.29500000000002</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10.7019</v>
+      </c>
+      <c r="D37" s="5">
+        <v>200</v>
+      </c>
+      <c r="E37" s="1">
+        <v>26.8978</v>
+      </c>
+      <c r="F37" s="34">
+        <v>0.88643899999999998</v>
+      </c>
+      <c r="G37" s="51">
+        <v>0.50137200000000004</v>
+      </c>
+      <c r="H37" s="9">
+        <v>472</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>0.36</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="5">
+        <v>565.34299999999996</v>
+      </c>
+      <c r="C38" s="1">
+        <v>30.893000000000001</v>
+      </c>
+      <c r="D38" s="34">
+        <v>200</v>
+      </c>
+      <c r="E38" s="51">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F38" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G38" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H38" s="9">
+        <v>326</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>0.37</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="9"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="5">
+        <v>665.00400000000002</v>
+      </c>
+      <c r="C39" s="1">
+        <v>34.4343</v>
+      </c>
+      <c r="D39" s="5">
+        <v>200</v>
+      </c>
+      <c r="E39" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F39" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G39" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H39" s="9">
+        <v>280</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>0.38</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="9"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="5">
+        <v>230.88499999999999</v>
+      </c>
+      <c r="C40" s="1">
+        <v>20.629000000000001</v>
+      </c>
+      <c r="D40" s="34">
+        <v>200</v>
+      </c>
+      <c r="E40" s="51">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F40" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G40" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H40" s="9">
+        <v>281</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>0.39</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="9"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="5">
+        <v>498.32499999999999</v>
+      </c>
+      <c r="C41" s="1">
+        <v>19.049299999999999</v>
+      </c>
+      <c r="D41" s="34">
+        <v>200</v>
+      </c>
+      <c r="E41" s="51">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F41" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G41" s="51">
+        <v>2.04087</v>
+      </c>
+      <c r="H41" s="9">
+        <v>280</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>0.4</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="5">
+        <v>216.13800000000001</v>
+      </c>
+      <c r="C42" s="1">
+        <v>27.6568</v>
+      </c>
+      <c r="D42" s="34">
+        <v>200</v>
+      </c>
+      <c r="E42" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F42" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G42" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H42" s="9">
+        <v>280</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
-        <v>0.41000000000000003</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="9"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.41</v>
+      </c>
+      <c r="B43" s="5">
+        <v>427.08199999999999</v>
+      </c>
+      <c r="C43" s="1">
+        <v>28.015699999999999</v>
+      </c>
+      <c r="D43" s="34">
+        <v>200</v>
+      </c>
+      <c r="E43" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F43" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G43" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H43" s="9">
+        <v>326</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>0.42</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="9"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="5">
+        <v>804.38900000000001</v>
+      </c>
+      <c r="C44" s="1">
+        <v>31.061399999999999</v>
+      </c>
+      <c r="D44" s="34">
+        <v>200</v>
+      </c>
+      <c r="E44" s="51">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F44" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G44" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H44" s="9">
+        <v>280</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>0.43</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="9"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="5">
+        <v>913.303</v>
+      </c>
+      <c r="C45" s="1">
+        <v>16.4528</v>
+      </c>
+      <c r="D45" s="5">
+        <v>200</v>
+      </c>
+      <c r="E45" s="1">
+        <v>19.342600000000001</v>
+      </c>
+      <c r="F45" s="34">
+        <v>0.45839800000000003</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1.87487</v>
+      </c>
+      <c r="H45" s="9">
+        <v>496</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>0.44</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="9"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="5">
+        <v>646.13199999999995</v>
+      </c>
+      <c r="C46" s="1">
+        <v>24.0593</v>
+      </c>
+      <c r="D46" s="34">
+        <v>200</v>
+      </c>
+      <c r="E46" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F46" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H46" s="9">
+        <v>280</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>0.45</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="9"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="5">
+        <v>779.31500000000005</v>
+      </c>
+      <c r="C47" s="1">
+        <v>39.438200000000002</v>
+      </c>
+      <c r="D47" s="34">
+        <v>200</v>
+      </c>
+      <c r="E47" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F47" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G47" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H47" s="9">
+        <v>280</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>0.46</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="9"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="5">
+        <v>707.99900000000002</v>
+      </c>
+      <c r="C48" s="1">
+        <v>36.527900000000002</v>
+      </c>
+      <c r="D48" s="34">
+        <v>200</v>
+      </c>
+      <c r="E48" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F48" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G48" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H48" s="9">
+        <v>280</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
-        <v>0.47000000000000003</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="9"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.47</v>
+      </c>
+      <c r="B49" s="5">
+        <v>452.86399999999998</v>
+      </c>
+      <c r="C49" s="1">
+        <v>46.1693</v>
+      </c>
+      <c r="D49" s="5">
+        <v>200</v>
+      </c>
+      <c r="E49" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F49" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G49" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H49" s="9">
+        <v>280</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>0.48</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="9"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="5">
+        <v>777.31299999999999</v>
+      </c>
+      <c r="C50" s="1">
+        <v>24.2912</v>
+      </c>
+      <c r="D50" s="5">
+        <v>200</v>
+      </c>
+      <c r="E50" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G50" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H50" s="9">
+        <v>280</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>0.49</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="9"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="5">
+        <v>349.02800000000002</v>
+      </c>
+      <c r="C51" s="1">
+        <v>49.720500000000001</v>
+      </c>
+      <c r="D51" s="34">
+        <v>200</v>
+      </c>
+      <c r="E51" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F51" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H51" s="9">
+        <v>280</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>0.5</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="9"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="5">
+        <v>749.82100000000003</v>
+      </c>
+      <c r="C52" s="1">
+        <v>40.976300000000002</v>
+      </c>
+      <c r="D52" s="34">
+        <v>200</v>
+      </c>
+      <c r="E52" s="51">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F52" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G52" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H52" s="9">
+        <v>280</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>0.51</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="9"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="5">
+        <v>970.8</v>
+      </c>
+      <c r="C53" s="1">
+        <v>36.536499999999997</v>
+      </c>
+      <c r="D53" s="5">
+        <v>200</v>
+      </c>
+      <c r="E53" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H53" s="9">
+        <v>280</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>0.52</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="9"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="5">
+        <v>525.03399999999999</v>
+      </c>
+      <c r="C54" s="1">
+        <v>18.706299999999999</v>
+      </c>
+      <c r="D54" s="34">
+        <v>200</v>
+      </c>
+      <c r="E54" s="51">
+        <v>18.939699999999998</v>
+      </c>
+      <c r="F54" s="34">
+        <v>0.43950400000000001</v>
+      </c>
+      <c r="G54" s="51">
+        <v>2.0395400000000001</v>
+      </c>
+      <c r="H54" s="9">
+        <v>496</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>0.53</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="9"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="5">
+        <v>567.76</v>
+      </c>
+      <c r="C55" s="1">
+        <v>42.635300000000001</v>
+      </c>
+      <c r="D55" s="34">
+        <v>200</v>
+      </c>
+      <c r="E55" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F55" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G55" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H55" s="9">
+        <v>280</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>0.54</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="9"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="5">
+        <v>734.48900000000003</v>
+      </c>
+      <c r="C56" s="1">
+        <v>23.866399999999999</v>
+      </c>
+      <c r="D56" s="5">
+        <v>200</v>
+      </c>
+      <c r="E56" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G56" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H56" s="9">
+        <v>446</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="9"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="5">
+        <v>290.11500000000001</v>
+      </c>
+      <c r="C57" s="1">
+        <v>25.505800000000001</v>
+      </c>
+      <c r="D57" s="5">
+        <v>200</v>
+      </c>
+      <c r="E57" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F57" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G57" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H57" s="9">
+        <v>280</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="9"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="5">
+        <v>527.74400000000003</v>
+      </c>
+      <c r="C58" s="1">
+        <v>34.192599999999999</v>
+      </c>
+      <c r="D58" s="34">
+        <v>200</v>
+      </c>
+      <c r="E58" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F58" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G58" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H58" s="9">
+        <v>280</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="9"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="B59" s="5">
+        <v>463.07</v>
+      </c>
+      <c r="C59" s="1">
+        <v>27.9559</v>
+      </c>
+      <c r="D59" s="34">
+        <v>200</v>
+      </c>
+      <c r="E59" s="51">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F59" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G59" s="51">
+        <v>2.04087</v>
+      </c>
+      <c r="H59" s="9">
+        <v>280</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>0.57999999999999996</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="9"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="5">
+        <v>241.334</v>
+      </c>
+      <c r="C60" s="1">
+        <v>23.4526</v>
+      </c>
+      <c r="D60" s="5">
+        <v>200</v>
+      </c>
+      <c r="E60" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F60" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G60" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H60" s="9">
+        <v>280</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>0.59</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="9"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="5">
+        <v>806.26900000000001</v>
+      </c>
+      <c r="C61" s="1">
+        <v>30.176400000000001</v>
+      </c>
+      <c r="D61" s="34">
+        <v>200</v>
+      </c>
+      <c r="E61" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F61" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G61" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H61" s="9">
+        <v>280</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>0.6</v>
       </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="9"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="5">
+        <v>375.24900000000002</v>
+      </c>
+      <c r="C62" s="1">
+        <v>39.941099999999999</v>
+      </c>
+      <c r="D62" s="5">
+        <v>200</v>
+      </c>
+      <c r="E62" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F62" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G62" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H62" s="9">
+        <v>280</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>0.61</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="9"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="5">
+        <v>223.92699999999999</v>
+      </c>
+      <c r="C63" s="1">
+        <v>26.2395</v>
+      </c>
+      <c r="D63" s="34">
+        <v>200</v>
+      </c>
+      <c r="E63" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F63" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G63" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H63" s="9">
+        <v>280</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>0.62</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="9"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="5">
+        <v>702.57899999999995</v>
+      </c>
+      <c r="C64" s="1">
+        <v>25.0627</v>
+      </c>
+      <c r="D64" s="5">
+        <v>200</v>
+      </c>
+      <c r="E64" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H64" s="9">
+        <v>280</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>0.63</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="9"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="5">
+        <v>990.06299999999999</v>
+      </c>
+      <c r="C65" s="1">
+        <v>41.323</v>
+      </c>
+      <c r="D65" s="5">
+        <v>200</v>
+      </c>
+      <c r="E65" s="1">
+        <v>19.136199999999999</v>
+      </c>
+      <c r="F65" s="34">
+        <v>0.44867000000000001</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1.95706</v>
+      </c>
+      <c r="H65" s="9">
+        <v>472</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>0.64</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="9"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="5">
+        <v>536.65599999999995</v>
+      </c>
+      <c r="C66" s="1">
+        <v>18.2363</v>
+      </c>
+      <c r="D66" s="5">
+        <v>200</v>
+      </c>
+      <c r="E66" s="1">
+        <v>18.943100000000001</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0.43965900000000002</v>
+      </c>
+      <c r="G66" s="51">
+        <v>2.0381</v>
+      </c>
+      <c r="H66" s="9">
+        <v>496</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>0.65</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="9"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="5">
+        <v>953.92899999999997</v>
+      </c>
+      <c r="C67" s="1">
+        <v>25.8611</v>
+      </c>
+      <c r="D67" s="5">
+        <v>200</v>
+      </c>
+      <c r="E67" s="1">
+        <v>45.8962</v>
+      </c>
+      <c r="F67" s="34">
+        <v>2.5808900000000001</v>
+      </c>
+      <c r="G67" s="1">
+        <v>5.9145200000000002E-2</v>
+      </c>
+      <c r="H67" s="9">
+        <v>662</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>0.66</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="9"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="5">
+        <v>781.31700000000001</v>
+      </c>
+      <c r="C68" s="1">
+        <v>14.383699999999999</v>
+      </c>
+      <c r="D68" s="5">
+        <v>200</v>
+      </c>
+      <c r="E68" s="1">
+        <v>20.5151</v>
+      </c>
+      <c r="F68" s="34">
+        <v>0.51565799999999995</v>
+      </c>
+      <c r="G68" s="51">
+        <v>1.4816100000000001</v>
+      </c>
+      <c r="H68" s="9">
+        <v>496</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>0.67</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="9"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="5">
+        <v>495.73700000000002</v>
+      </c>
+      <c r="C69" s="1">
+        <v>44.616500000000002</v>
+      </c>
+      <c r="D69" s="34">
+        <v>200</v>
+      </c>
+      <c r="E69" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F69" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G69" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H69" s="9">
+        <v>326</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>0.68</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="9"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="5">
+        <v>788.64099999999996</v>
+      </c>
+      <c r="C70" s="1">
+        <v>40.237699999999997</v>
+      </c>
+      <c r="D70" s="34">
+        <v>200</v>
+      </c>
+      <c r="E70" s="51">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F70" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G70" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H70" s="9">
+        <v>280</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
-        <v>0.69000000000000006</v>
-      </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="9"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.69</v>
+      </c>
+      <c r="B71" s="5">
+        <v>924.24099999999999</v>
+      </c>
+      <c r="C71" s="1">
+        <v>25.042000000000002</v>
+      </c>
+      <c r="D71" s="5">
+        <v>200</v>
+      </c>
+      <c r="E71" s="1">
+        <v>44.171599999999998</v>
+      </c>
+      <c r="F71" s="5">
+        <v>2.3905699999999999</v>
+      </c>
+      <c r="G71" s="1">
+        <v>6.8937600000000002E-2</v>
+      </c>
+      <c r="H71" s="9">
+        <v>2373</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="9"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+      <c r="B72" s="5">
+        <v>249.75700000000001</v>
+      </c>
+      <c r="C72" s="1">
+        <v>35.7393</v>
+      </c>
+      <c r="D72" s="34">
+        <v>200</v>
+      </c>
+      <c r="E72" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F72" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G72" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H72" s="9">
+        <v>280</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>0.71</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="9"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="5">
+        <v>740.37300000000005</v>
+      </c>
+      <c r="C73" s="1">
+        <v>36.710999999999999</v>
+      </c>
+      <c r="D73" s="5">
+        <v>200</v>
+      </c>
+      <c r="E73" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F73" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G73" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H73" s="9">
+        <v>280</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>0.72</v>
       </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="9"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="5">
+        <v>743.47400000000005</v>
+      </c>
+      <c r="C74" s="1">
+        <v>26.752199999999998</v>
+      </c>
+      <c r="D74" s="34">
+        <v>200</v>
+      </c>
+      <c r="E74" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F74" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G74" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H74" s="9">
+        <v>280</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>0.73</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="9"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="5">
+        <v>326.88400000000001</v>
+      </c>
+      <c r="C75" s="1">
+        <v>38.888800000000003</v>
+      </c>
+      <c r="D75" s="34">
+        <v>200</v>
+      </c>
+      <c r="E75" s="51">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F75" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G75" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H75" s="9">
+        <v>280</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>0.74</v>
       </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="9"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="5">
+        <v>367.38799999999998</v>
+      </c>
+      <c r="C76" s="1">
+        <v>15.3688</v>
+      </c>
+      <c r="D76" s="34">
+        <v>200</v>
+      </c>
+      <c r="E76" s="51">
+        <v>19.828800000000001</v>
+      </c>
+      <c r="F76" s="34">
+        <v>0.48173199999999999</v>
+      </c>
+      <c r="G76" s="51">
+        <v>1.69764</v>
+      </c>
+      <c r="H76" s="9">
+        <v>496</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>0.75</v>
       </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="9"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="5">
+        <v>954.19799999999998</v>
+      </c>
+      <c r="C77" s="1">
+        <v>11.6675</v>
+      </c>
+      <c r="D77" s="5">
+        <v>200</v>
+      </c>
+      <c r="E77" s="1">
+        <v>24.3903</v>
+      </c>
+      <c r="F77" s="34">
+        <v>0.72886700000000004</v>
+      </c>
+      <c r="G77" s="51">
+        <v>0.74158599999999997</v>
+      </c>
+      <c r="H77" s="9">
+        <v>472</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>0.76</v>
       </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="9"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="5">
+        <v>877.29100000000005</v>
+      </c>
+      <c r="C78" s="1">
+        <v>34.026600000000002</v>
+      </c>
+      <c r="D78" s="34">
+        <v>200</v>
+      </c>
+      <c r="E78" s="51">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F78" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G78" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H78" s="9">
+        <v>280</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>0.77</v>
       </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="9"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="5">
+        <v>927.87900000000002</v>
+      </c>
+      <c r="C79" s="1">
+        <v>31.413</v>
+      </c>
+      <c r="D79" s="5">
+        <v>200</v>
+      </c>
+      <c r="E79" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G79" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H79" s="9">
+        <v>280</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>0.78</v>
       </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="9"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="5">
+        <v>758.95299999999997</v>
+      </c>
+      <c r="C80" s="1">
+        <v>29.718599999999999</v>
+      </c>
+      <c r="D80" s="34">
+        <v>200</v>
+      </c>
+      <c r="E80" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F80" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G80" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H80" s="9">
+        <v>280</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>0.79</v>
       </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="9"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="5">
+        <v>636.58600000000001</v>
+      </c>
+      <c r="C81" s="1">
+        <v>38.592199999999998</v>
+      </c>
+      <c r="D81" s="34">
+        <v>200</v>
+      </c>
+      <c r="E81" s="51">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F81" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G81" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H81" s="9">
+        <v>446</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <v>0.8</v>
       </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="9"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="5">
+        <v>858.02800000000002</v>
+      </c>
+      <c r="C82" s="1">
+        <v>24.520700000000001</v>
+      </c>
+      <c r="D82" s="5">
+        <v>200</v>
+      </c>
+      <c r="E82" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F82" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G82" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H82" s="9">
+        <v>280</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>0.81</v>
       </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="9"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="5">
+        <v>620.10599999999999</v>
+      </c>
+      <c r="C83" s="1">
+        <v>12.572100000000001</v>
+      </c>
+      <c r="D83" s="5">
+        <v>200</v>
+      </c>
+      <c r="E83" s="1">
+        <v>22.6967</v>
+      </c>
+      <c r="F83" s="34">
+        <v>0.63116000000000005</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.98895999999999995</v>
+      </c>
+      <c r="H83" s="9">
+        <v>472</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
-        <v>0.82000000000000006</v>
-      </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="9"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.82</v>
+      </c>
+      <c r="B84" s="5">
+        <v>792.62099999999998</v>
+      </c>
+      <c r="C84" s="1">
+        <v>18.7088</v>
+      </c>
+      <c r="D84" s="5">
+        <v>200</v>
+      </c>
+      <c r="E84" s="1">
+        <v>18.9438</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0.43969399999999997</v>
+      </c>
+      <c r="G84" s="51">
+        <v>2.0377700000000001</v>
+      </c>
+      <c r="H84" s="9">
+        <v>496</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
-        <v>0.83000000000000007</v>
-      </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="9"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.83</v>
+      </c>
+      <c r="B85" s="5">
+        <v>682.73</v>
+      </c>
+      <c r="C85" s="1">
+        <v>29.6112</v>
+      </c>
+      <c r="D85" s="34">
+        <v>200</v>
+      </c>
+      <c r="E85" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F85" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G85" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H85" s="9">
+        <v>280</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <v>0.84</v>
       </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="9"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="5">
+        <v>773.67499999999995</v>
+      </c>
+      <c r="C86" s="1">
+        <v>42.692599999999999</v>
+      </c>
+      <c r="D86" s="34">
+        <v>200</v>
+      </c>
+      <c r="E86" s="51">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F86" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G86" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H86" s="9">
+        <v>280</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>0.85</v>
       </c>
-      <c r="B87" s="5"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="9"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="5">
+        <v>476.84</v>
+      </c>
+      <c r="C87" s="1">
+        <v>20.298200000000001</v>
+      </c>
+      <c r="D87" s="34">
+        <v>200</v>
+      </c>
+      <c r="E87" s="51">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F87" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G87" s="51">
+        <v>2.04087</v>
+      </c>
+      <c r="H87" s="9">
+        <v>280</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>0.86</v>
       </c>
-      <c r="B88" s="5"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="9"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="5">
+        <v>658.21699999999998</v>
+      </c>
+      <c r="C88" s="1">
+        <v>24.028700000000001</v>
+      </c>
+      <c r="D88" s="5">
+        <v>200</v>
+      </c>
+      <c r="E88" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F88" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G88" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H88" s="9">
+        <v>280</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>0.87</v>
       </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="9"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="5">
+        <v>399.15199999999999</v>
+      </c>
+      <c r="C89" s="1">
+        <v>27.4053</v>
+      </c>
+      <c r="D89" s="5">
+        <v>200</v>
+      </c>
+      <c r="E89" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F89" s="5">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G89" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H89" s="9">
+        <v>326</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>0.88</v>
       </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="9"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="5">
+        <v>460.36</v>
+      </c>
+      <c r="C90" s="1">
+        <v>35.777200000000001</v>
+      </c>
+      <c r="D90" s="34">
+        <v>200</v>
+      </c>
+      <c r="E90" s="51">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F90" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G90" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H90" s="9">
+        <v>280</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>0.89</v>
       </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="9"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="5">
+        <v>304.471</v>
+      </c>
+      <c r="C91" s="1">
+        <v>27.524899999999999</v>
+      </c>
+      <c r="D91" s="34">
+        <v>200</v>
+      </c>
+      <c r="E91" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F91" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G91" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H91" s="9">
+        <v>280</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>0.9</v>
       </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="9"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="5">
+        <v>545.25</v>
+      </c>
+      <c r="C92" s="1">
+        <v>32.407899999999998</v>
+      </c>
+      <c r="D92" s="34">
+        <v>200</v>
+      </c>
+      <c r="E92" s="51">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F92" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G92" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H92" s="9">
+        <v>446</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>0.91</v>
       </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="9"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="5">
+        <v>821.35699999999997</v>
+      </c>
+      <c r="C93" s="1">
+        <v>11.2903</v>
+      </c>
+      <c r="D93" s="5">
+        <v>200</v>
+      </c>
+      <c r="E93" s="1">
+        <v>25.277799999999999</v>
+      </c>
+      <c r="F93" s="34">
+        <v>0.78287499999999999</v>
+      </c>
+      <c r="G93" s="51">
+        <v>0.64279500000000001</v>
+      </c>
+      <c r="H93" s="9">
+        <v>496</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>0.92</v>
       </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="9"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="5">
+        <v>930.54</v>
+      </c>
+      <c r="C94" s="1">
+        <v>39.57</v>
+      </c>
+      <c r="D94" s="34">
+        <v>200</v>
+      </c>
+      <c r="E94" s="1">
+        <v>19.147099999999998</v>
+      </c>
+      <c r="F94" s="34">
+        <v>0.44918200000000003</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1.9525999999999999</v>
+      </c>
+      <c r="H94" s="9">
+        <v>639</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>0.93</v>
       </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="9"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="5">
+        <v>295.97500000000002</v>
+      </c>
+      <c r="C95" s="1">
+        <v>14.223800000000001</v>
+      </c>
+      <c r="D95" s="34">
+        <v>200</v>
+      </c>
+      <c r="E95" s="1">
+        <v>20.6736</v>
+      </c>
+      <c r="F95" s="34">
+        <v>0.52365899999999999</v>
+      </c>
+      <c r="G95" s="51">
+        <v>1.43668</v>
+      </c>
+      <c r="H95" s="9">
+        <v>496</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
-        <v>0.94000000000000006</v>
-      </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="9"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.94</v>
+      </c>
+      <c r="B96" s="5">
+        <v>321.04899999999998</v>
+      </c>
+      <c r="C96" s="1">
+        <v>23.901800000000001</v>
+      </c>
+      <c r="D96" s="5">
+        <v>200</v>
+      </c>
+      <c r="E96" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F96" s="5">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G96" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H96" s="9">
+        <v>280</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
-        <v>0.95000000000000007</v>
-      </c>
-      <c r="B97" s="5"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="9"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.95</v>
+      </c>
+      <c r="B97" s="5">
+        <v>387.92099999999999</v>
+      </c>
+      <c r="C97" s="1">
+        <v>18.6538</v>
+      </c>
+      <c r="D97" s="5">
+        <v>200</v>
+      </c>
+      <c r="E97" s="1">
+        <v>18.940999999999999</v>
+      </c>
+      <c r="F97" s="34">
+        <v>0.43956000000000001</v>
+      </c>
+      <c r="G97" s="51">
+        <v>2.0390199999999998</v>
+      </c>
+      <c r="H97" s="9">
+        <v>496</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <v>0.96</v>
       </c>
-      <c r="B98" s="5"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="9"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="5">
+        <v>700.96699999999998</v>
+      </c>
+      <c r="C98" s="1">
+        <v>49.207700000000003</v>
+      </c>
+      <c r="D98" s="5">
+        <v>200</v>
+      </c>
+      <c r="E98" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F98" s="5">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G98" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H98" s="9">
+        <v>280</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>0.97</v>
       </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="9"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="5">
+        <v>783.75800000000004</v>
+      </c>
+      <c r="C99" s="1">
+        <v>44.435899999999997</v>
+      </c>
+      <c r="D99" s="5">
+        <v>200</v>
+      </c>
+      <c r="E99" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F99" s="5">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G99" s="1">
+        <v>2.04088</v>
+      </c>
+      <c r="H99" s="9">
+        <v>280</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <v>0.98</v>
       </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="9"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="5">
+        <v>508.92099999999999</v>
+      </c>
+      <c r="C100" s="1">
+        <v>25.1738</v>
+      </c>
+      <c r="D100" s="34">
+        <v>200</v>
+      </c>
+      <c r="E100" s="1">
+        <v>18.936599999999999</v>
+      </c>
+      <c r="F100" s="34">
+        <v>0.43935999999999997</v>
+      </c>
+      <c r="G100" s="51">
+        <v>2.04088</v>
+      </c>
+      <c r="H100" s="9">
+        <v>280</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>0.99</v>
       </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="9"/>
-    </row>
-    <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="5">
+        <v>372.66199999999998</v>
+      </c>
+      <c r="C101" s="1">
+        <v>17.5747</v>
+      </c>
+      <c r="D101" s="34">
+        <v>200</v>
+      </c>
+      <c r="E101" s="1">
+        <v>19.052299999999999</v>
+      </c>
+      <c r="F101" s="34">
+        <v>0.444745</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1.9917499999999999</v>
+      </c>
+      <c r="H101" s="9">
+        <v>496</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="8">
         <v>1</v>
       </c>
-      <c r="B102" s="6"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="10"/>
+      <c r="B102" s="6">
+        <v>620.96</v>
+      </c>
+      <c r="C102" s="2">
+        <v>14.947699999999999</v>
+      </c>
+      <c r="D102" s="6">
+        <v>200</v>
+      </c>
+      <c r="E102" s="2">
+        <v>20.098199999999999</v>
+      </c>
+      <c r="F102" s="6">
+        <v>0.49491400000000002</v>
+      </c>
+      <c r="G102" s="2">
+        <v>1.6084099999999999</v>
+      </c>
+      <c r="H102" s="10">
+        <v>496</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Coursework Reports/5th assignment/xlsx5.xlsx
+++ b/Coursework Reports/5th assignment/xlsx5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D21159-7A8C-460E-A4AC-BCCABFEDBE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1273C302-5BAE-49B6-AA7B-0BCD0CC3C50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6934,8 +6934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Coursework Reports/5th assignment/xlsx5.xlsx
+++ b/Coursework Reports/5th assignment/xlsx5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1273C302-5BAE-49B6-AA7B-0BCD0CC3C50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71784369-D882-4001-9218-38DA824E6EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -823,6 +823,12 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -856,12 +862,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -877,6 +877,1644 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rozwiązania Pareto</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - Masa vs Ugięcie</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ugiecie/Masa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tabela 2'!$G$2:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>4.1990300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0016099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38067800000000002</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.04087</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>2.04087</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3056000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.9641799999999998</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>0.52758000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0366900000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.50137200000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.04087</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>1.87487</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.0395400000000001</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.04087</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>1.95706</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.0381</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>5.9145200000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.4816100000000001</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>6.8937600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.69764</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.74158599999999997</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>0.98895999999999995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0377700000000001</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.04087</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.64279500000000001</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>1.9525999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.43668</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.0390199999999998</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.04088</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>1.9917499999999999</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>1.6084099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tabela 2'!$F$2:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>3.0630500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44364799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>1.0173000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.54931799999999997</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00E+00">
+                  <c:v>1.0686899999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.86414100000000005</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.00E+00">
+                  <c:v>0.43981100000000001</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.00E+00">
+                  <c:v>0.88643899999999998</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.00E+00">
+                  <c:v>0.45839800000000003</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00E+00">
+                  <c:v>0.43950400000000001</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00E+00">
+                  <c:v>0.44867000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.43965900000000002</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.00E+00">
+                  <c:v>2.5808900000000001</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.00E+00">
+                  <c:v>0.51565799999999995</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.3905699999999999</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="0.00E+00">
+                  <c:v>0.48173199999999999</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.00E+00">
+                  <c:v>0.72886700000000004</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.00E+00">
+                  <c:v>0.63116000000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.43969399999999997</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="0.00E+00">
+                  <c:v>0.78287499999999999</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="0.00E+00">
+                  <c:v>0.44918200000000003</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="0.00E+00">
+                  <c:v>0.52365899999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="0.00E+00">
+                  <c:v>0.43956000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="0.00E+00">
+                  <c:v>0.43935999999999997</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="0.00E+00">
+                  <c:v>0.444745</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.49491400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-72AD-4C88-A753-9FD23BD50F5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="768937375"/>
+        <c:axId val="768933535"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="768937375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Ugięcie [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="768933535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="768933535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Masa [kg]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="768937375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A43AD74-2243-7705-5415-5ABF4A4E9A5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1179,41 +2817,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="37" t="s">
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="40" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="39"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="43"/>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="46"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="27" t="s">
         <v>12</v>
       </c>
@@ -6934,8 +8572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6969,7 +8607,7 @@
       <c r="H1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="37" t="s">
         <v>17</v>
       </c>
       <c r="J1" t="s">
@@ -6995,16 +8633,16 @@
       <c r="C2" s="3">
         <v>48.573</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="38">
         <v>200</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="39">
         <v>50</v>
       </c>
-      <c r="F2" s="49">
+      <c r="F2" s="38">
         <v>3.0630500000000001</v>
       </c>
-      <c r="G2" s="50">
+      <c r="G2" s="39">
         <v>4.1990300000000001E-2</v>
       </c>
       <c r="H2" s="12">
@@ -7049,7 +8687,7 @@
       <c r="F3" s="5">
         <v>0.44364799999999999</v>
       </c>
-      <c r="G3" s="51">
+      <c r="G3" s="40">
         <v>2.0016099999999999</v>
       </c>
       <c r="H3" s="9">
@@ -7078,7 +8716,7 @@
       <c r="F4" s="5">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="40">
         <v>2.04088</v>
       </c>
       <c r="H4" s="9">
@@ -7165,7 +8803,7 @@
       <c r="F7" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="40">
         <v>2.04088</v>
       </c>
       <c r="H7" s="9">
@@ -7252,7 +8890,7 @@
       <c r="F10" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="40">
         <v>2.04088</v>
       </c>
       <c r="H10" s="9">
@@ -7281,7 +8919,7 @@
       <c r="F11" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="40">
         <v>2.04088</v>
       </c>
       <c r="H11" s="9">
@@ -7310,7 +8948,7 @@
       <c r="F12" s="5">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="40">
         <v>2.04088</v>
       </c>
       <c r="H12" s="9">
@@ -7397,7 +9035,7 @@
       <c r="F15" s="34">
         <v>1.0173000000000001</v>
       </c>
-      <c r="G15" s="51">
+      <c r="G15" s="40">
         <v>0.38067800000000002</v>
       </c>
       <c r="H15" s="9">
@@ -7455,7 +9093,7 @@
       <c r="F17" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="40">
         <v>2.04088</v>
       </c>
       <c r="H17" s="9">
@@ -7513,7 +9151,7 @@
       <c r="F19" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G19" s="51">
+      <c r="G19" s="40">
         <v>2.04088</v>
       </c>
       <c r="H19" s="9">
@@ -7542,7 +9180,7 @@
       <c r="F20" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G20" s="51">
+      <c r="G20" s="40">
         <v>2.04087</v>
       </c>
       <c r="H20" s="9">
@@ -7594,13 +9232,13 @@
       <c r="D22" s="5">
         <v>200</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="40">
         <v>18.936599999999999</v>
       </c>
       <c r="F22" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G22" s="51">
+      <c r="G22" s="40">
         <v>2.04088</v>
       </c>
       <c r="H22" s="9">
@@ -7658,7 +9296,7 @@
       <c r="F24" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G24" s="51">
+      <c r="G24" s="40">
         <v>2.04088</v>
       </c>
       <c r="H24" s="9">
@@ -7687,7 +9325,7 @@
       <c r="F25" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G25" s="51">
+      <c r="G25" s="40">
         <v>2.04088</v>
       </c>
       <c r="H25" s="9">
@@ -7716,7 +9354,7 @@
       <c r="F26" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G26" s="51">
+      <c r="G26" s="40">
         <v>2.04088</v>
       </c>
       <c r="H26" s="9">
@@ -7803,7 +9441,7 @@
       <c r="F29" s="5">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G29" s="51">
+      <c r="G29" s="40">
         <v>2.04088</v>
       </c>
       <c r="H29" s="9">
@@ -7884,7 +9522,7 @@
       <c r="D32" s="34">
         <v>200</v>
       </c>
-      <c r="E32" s="51">
+      <c r="E32" s="40">
         <v>18.936599999999999</v>
       </c>
       <c r="F32" s="34">
@@ -7919,7 +9557,7 @@
       <c r="F33" s="5">
         <v>0.54931799999999997</v>
       </c>
-      <c r="G33" s="51">
+      <c r="G33" s="40">
         <v>1.3056000000000001</v>
       </c>
       <c r="H33" s="9">
@@ -7942,13 +9580,13 @@
       <c r="D34" s="34">
         <v>340.91699999999997</v>
       </c>
-      <c r="E34" s="51">
+      <c r="E34" s="40">
         <v>22.620899999999999</v>
       </c>
       <c r="F34" s="34">
         <v>1.0686899999999999</v>
       </c>
-      <c r="G34" s="51">
+      <c r="G34" s="40">
         <v>4.9641799999999998</v>
       </c>
       <c r="H34" s="9">
@@ -8000,13 +9638,13 @@
       <c r="D36" s="34">
         <v>200</v>
       </c>
-      <c r="E36" s="51">
+      <c r="E36" s="40">
         <v>18.946400000000001</v>
       </c>
       <c r="F36" s="34">
         <v>0.43981100000000001</v>
       </c>
-      <c r="G36" s="51">
+      <c r="G36" s="40">
         <v>2.0366900000000001</v>
       </c>
       <c r="H36" s="9">
@@ -8035,7 +9673,7 @@
       <c r="F37" s="34">
         <v>0.88643899999999998</v>
       </c>
-      <c r="G37" s="51">
+      <c r="G37" s="40">
         <v>0.50137200000000004</v>
       </c>
       <c r="H37" s="9">
@@ -8058,13 +9696,13 @@
       <c r="D38" s="34">
         <v>200</v>
       </c>
-      <c r="E38" s="51">
+      <c r="E38" s="40">
         <v>18.936599999999999</v>
       </c>
       <c r="F38" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G38" s="51">
+      <c r="G38" s="40">
         <v>2.04088</v>
       </c>
       <c r="H38" s="9">
@@ -8093,7 +9731,7 @@
       <c r="F39" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G39" s="51">
+      <c r="G39" s="40">
         <v>2.04088</v>
       </c>
       <c r="H39" s="9">
@@ -8116,13 +9754,13 @@
       <c r="D40" s="34">
         <v>200</v>
       </c>
-      <c r="E40" s="51">
+      <c r="E40" s="40">
         <v>18.936599999999999</v>
       </c>
       <c r="F40" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G40" s="51">
+      <c r="G40" s="40">
         <v>2.04088</v>
       </c>
       <c r="H40" s="9">
@@ -8145,13 +9783,13 @@
       <c r="D41" s="34">
         <v>200</v>
       </c>
-      <c r="E41" s="51">
+      <c r="E41" s="40">
         <v>18.936599999999999</v>
       </c>
       <c r="F41" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G41" s="51">
+      <c r="G41" s="40">
         <v>2.04087</v>
       </c>
       <c r="H41" s="9">
@@ -8180,7 +9818,7 @@
       <c r="F42" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G42" s="51">
+      <c r="G42" s="40">
         <v>2.04088</v>
       </c>
       <c r="H42" s="9">
@@ -8209,7 +9847,7 @@
       <c r="F43" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G43" s="51">
+      <c r="G43" s="40">
         <v>2.04088</v>
       </c>
       <c r="H43" s="9">
@@ -8232,13 +9870,13 @@
       <c r="D44" s="34">
         <v>200</v>
       </c>
-      <c r="E44" s="51">
+      <c r="E44" s="40">
         <v>18.936599999999999</v>
       </c>
       <c r="F44" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G44" s="51">
+      <c r="G44" s="40">
         <v>2.04088</v>
       </c>
       <c r="H44" s="9">
@@ -8325,7 +9963,7 @@
       <c r="F47" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G47" s="51">
+      <c r="G47" s="40">
         <v>2.04088</v>
       </c>
       <c r="H47" s="9">
@@ -8354,7 +9992,7 @@
       <c r="F48" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G48" s="51">
+      <c r="G48" s="40">
         <v>2.04088</v>
       </c>
       <c r="H48" s="9">
@@ -8383,7 +10021,7 @@
       <c r="F49" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G49" s="51">
+      <c r="G49" s="40">
         <v>2.04088</v>
       </c>
       <c r="H49" s="9">
@@ -8412,7 +10050,7 @@
       <c r="F50" s="5">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G50" s="51">
+      <c r="G50" s="40">
         <v>2.04088</v>
       </c>
       <c r="H50" s="9">
@@ -8464,7 +10102,7 @@
       <c r="D52" s="34">
         <v>200</v>
       </c>
-      <c r="E52" s="51">
+      <c r="E52" s="40">
         <v>18.936599999999999</v>
       </c>
       <c r="F52" s="34">
@@ -8522,13 +10160,13 @@
       <c r="D54" s="34">
         <v>200</v>
       </c>
-      <c r="E54" s="51">
+      <c r="E54" s="40">
         <v>18.939699999999998</v>
       </c>
       <c r="F54" s="34">
         <v>0.43950400000000001</v>
       </c>
-      <c r="G54" s="51">
+      <c r="G54" s="40">
         <v>2.0395400000000001</v>
       </c>
       <c r="H54" s="9">
@@ -8644,7 +10282,7 @@
       <c r="F58" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G58" s="51">
+      <c r="G58" s="40">
         <v>2.04088</v>
       </c>
       <c r="H58" s="9">
@@ -8667,13 +10305,13 @@
       <c r="D59" s="34">
         <v>200</v>
       </c>
-      <c r="E59" s="51">
+      <c r="E59" s="40">
         <v>18.936599999999999</v>
       </c>
       <c r="F59" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G59" s="51">
+      <c r="G59" s="40">
         <v>2.04087</v>
       </c>
       <c r="H59" s="9">
@@ -8731,7 +10369,7 @@
       <c r="F61" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G61" s="51">
+      <c r="G61" s="40">
         <v>2.04088</v>
       </c>
       <c r="H61" s="9">
@@ -8760,7 +10398,7 @@
       <c r="F62" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G62" s="51">
+      <c r="G62" s="40">
         <v>2.04088</v>
       </c>
       <c r="H62" s="9">
@@ -8789,7 +10427,7 @@
       <c r="F63" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G63" s="51">
+      <c r="G63" s="40">
         <v>2.04088</v>
       </c>
       <c r="H63" s="9">
@@ -8876,7 +10514,7 @@
       <c r="F66" s="5">
         <v>0.43965900000000002</v>
       </c>
-      <c r="G66" s="51">
+      <c r="G66" s="40">
         <v>2.0381</v>
       </c>
       <c r="H66" s="9">
@@ -8934,7 +10572,7 @@
       <c r="F68" s="34">
         <v>0.51565799999999995</v>
       </c>
-      <c r="G68" s="51">
+      <c r="G68" s="40">
         <v>1.4816100000000001</v>
       </c>
       <c r="H68" s="9">
@@ -8986,13 +10624,13 @@
       <c r="D70" s="34">
         <v>200</v>
       </c>
-      <c r="E70" s="51">
+      <c r="E70" s="40">
         <v>18.936599999999999</v>
       </c>
       <c r="F70" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G70" s="51">
+      <c r="G70" s="40">
         <v>2.04088</v>
       </c>
       <c r="H70" s="9">
@@ -9050,7 +10688,7 @@
       <c r="F72" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G72" s="51">
+      <c r="G72" s="40">
         <v>2.04088</v>
       </c>
       <c r="H72" s="9">
@@ -9108,7 +10746,7 @@
       <c r="F74" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G74" s="51">
+      <c r="G74" s="40">
         <v>2.04088</v>
       </c>
       <c r="H74" s="9">
@@ -9131,13 +10769,13 @@
       <c r="D75" s="34">
         <v>200</v>
       </c>
-      <c r="E75" s="51">
+      <c r="E75" s="40">
         <v>18.936599999999999</v>
       </c>
       <c r="F75" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G75" s="51">
+      <c r="G75" s="40">
         <v>2.04088</v>
       </c>
       <c r="H75" s="9">
@@ -9160,13 +10798,13 @@
       <c r="D76" s="34">
         <v>200</v>
       </c>
-      <c r="E76" s="51">
+      <c r="E76" s="40">
         <v>19.828800000000001</v>
       </c>
       <c r="F76" s="34">
         <v>0.48173199999999999</v>
       </c>
-      <c r="G76" s="51">
+      <c r="G76" s="40">
         <v>1.69764</v>
       </c>
       <c r="H76" s="9">
@@ -9195,7 +10833,7 @@
       <c r="F77" s="34">
         <v>0.72886700000000004</v>
       </c>
-      <c r="G77" s="51">
+      <c r="G77" s="40">
         <v>0.74158599999999997</v>
       </c>
       <c r="H77" s="9">
@@ -9218,7 +10856,7 @@
       <c r="D78" s="34">
         <v>200</v>
       </c>
-      <c r="E78" s="51">
+      <c r="E78" s="40">
         <v>18.936599999999999</v>
       </c>
       <c r="F78" s="34">
@@ -9282,7 +10920,7 @@
       <c r="F80" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G80" s="51">
+      <c r="G80" s="40">
         <v>2.04088</v>
       </c>
       <c r="H80" s="9">
@@ -9305,13 +10943,13 @@
       <c r="D81" s="34">
         <v>200</v>
       </c>
-      <c r="E81" s="51">
+      <c r="E81" s="40">
         <v>18.936599999999999</v>
       </c>
       <c r="F81" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G81" s="51">
+      <c r="G81" s="40">
         <v>2.04088</v>
       </c>
       <c r="H81" s="9">
@@ -9340,7 +10978,7 @@
       <c r="F82" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G82" s="51">
+      <c r="G82" s="40">
         <v>2.04088</v>
       </c>
       <c r="H82" s="9">
@@ -9398,7 +11036,7 @@
       <c r="F84" s="5">
         <v>0.43969399999999997</v>
       </c>
-      <c r="G84" s="51">
+      <c r="G84" s="40">
         <v>2.0377700000000001</v>
       </c>
       <c r="H84" s="9">
@@ -9450,13 +11088,13 @@
       <c r="D86" s="34">
         <v>200</v>
       </c>
-      <c r="E86" s="51">
+      <c r="E86" s="40">
         <v>18.936599999999999</v>
       </c>
       <c r="F86" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G86" s="51">
+      <c r="G86" s="40">
         <v>2.04088</v>
       </c>
       <c r="H86" s="9">
@@ -9479,13 +11117,13 @@
       <c r="D87" s="34">
         <v>200</v>
       </c>
-      <c r="E87" s="51">
+      <c r="E87" s="40">
         <v>18.936599999999999</v>
       </c>
       <c r="F87" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G87" s="51">
+      <c r="G87" s="40">
         <v>2.04087</v>
       </c>
       <c r="H87" s="9">
@@ -9514,7 +11152,7 @@
       <c r="F88" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G88" s="51">
+      <c r="G88" s="40">
         <v>2.04088</v>
       </c>
       <c r="H88" s="9">
@@ -9566,7 +11204,7 @@
       <c r="D90" s="34">
         <v>200</v>
       </c>
-      <c r="E90" s="51">
+      <c r="E90" s="40">
         <v>18.936599999999999</v>
       </c>
       <c r="F90" s="34">
@@ -9601,7 +11239,7 @@
       <c r="F91" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G91" s="51">
+      <c r="G91" s="40">
         <v>2.04088</v>
       </c>
       <c r="H91" s="9">
@@ -9624,7 +11262,7 @@
       <c r="D92" s="34">
         <v>200</v>
       </c>
-      <c r="E92" s="51">
+      <c r="E92" s="40">
         <v>18.936599999999999</v>
       </c>
       <c r="F92" s="34">
@@ -9659,7 +11297,7 @@
       <c r="F93" s="34">
         <v>0.78287499999999999</v>
       </c>
-      <c r="G93" s="51">
+      <c r="G93" s="40">
         <v>0.64279500000000001</v>
       </c>
       <c r="H93" s="9">
@@ -9717,7 +11355,7 @@
       <c r="F95" s="34">
         <v>0.52365899999999999</v>
       </c>
-      <c r="G95" s="51">
+      <c r="G95" s="40">
         <v>1.43668</v>
       </c>
       <c r="H95" s="9">
@@ -9775,7 +11413,7 @@
       <c r="F97" s="34">
         <v>0.43956000000000001</v>
       </c>
-      <c r="G97" s="51">
+      <c r="G97" s="40">
         <v>2.0390199999999998</v>
       </c>
       <c r="H97" s="9">
@@ -9862,7 +11500,7 @@
       <c r="F100" s="34">
         <v>0.43935999999999997</v>
       </c>
-      <c r="G100" s="51">
+      <c r="G100" s="40">
         <v>2.04088</v>
       </c>
       <c r="H100" s="9">
@@ -9933,5 +11571,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Coursework Reports/5th assignment/xlsx5.xlsx
+++ b/Coursework Reports/5th assignment/xlsx5.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFCEC48-D181-4DB1-BCA4-B7CF63FD8727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC0E53B-C35B-4924-9254-7D2D5B316577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Liczba wywołań funkcji celu</t>
   </si>
@@ -285,18 +285,6 @@
   </si>
   <si>
     <t>flag</t>
-  </si>
-  <si>
-    <t>bad L</t>
-  </si>
-  <si>
-    <t>bad D</t>
-  </si>
-  <si>
-    <t>bad kg</t>
-  </si>
-  <si>
-    <t>bad deflect</t>
   </si>
 </sst>
 </file>
@@ -821,6 +809,13 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -854,13 +849,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -943,7 +931,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1692,7 +1680,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1730,7 +1718,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2045052560"/>
@@ -1809,7 +1797,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1847,7 +1835,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2045053040"/>
@@ -1895,7 +1883,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1971,7 +1959,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2720,7 +2708,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2758,7 +2746,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2045052560"/>
@@ -2837,7 +2825,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2875,7 +2863,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2045053040"/>
@@ -2923,7 +2911,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2999,7 +2987,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3748,7 +3736,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3786,7 +3774,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2045052560"/>
@@ -3865,7 +3853,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3903,7 +3891,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2045053040"/>
@@ -3951,7 +3939,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4032,7 +4020,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4785,7 +4773,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4823,7 +4811,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="768933535"/>
@@ -4904,7 +4892,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4942,7 +4930,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="768937375"/>
@@ -4992,7 +4980,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7674,52 +7662,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="18" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="18" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="33" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="35"/>
-    </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="42"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="42"/>
+    </row>
+    <row r="2" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="21" t="s">
         <v>12</v>
       </c>
@@ -7766,14 +7754,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>0</v>
       </c>
       <c r="B3" s="30">
         <v>-0.13336600000000001</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="33">
         <v>1.75573</v>
       </c>
       <c r="D3" s="30">
@@ -7788,7 +7776,7 @@
       <c r="G3" s="24">
         <v>3.2356099999999997E-10</v>
       </c>
-      <c r="H3" s="44">
+      <c r="H3" s="33">
         <v>160</v>
       </c>
       <c r="I3" s="30">
@@ -7822,14 +7810,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0.01</v>
       </c>
       <c r="B4" s="26">
         <v>-2.7549100000000002</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="34">
         <v>6.9847700000000001</v>
       </c>
       <c r="D4" s="26">
@@ -7844,7 +7832,7 @@
       <c r="G4" s="27">
         <v>3.1890600000000001E-3</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="34">
         <v>254</v>
       </c>
       <c r="I4" s="26">
@@ -7862,7 +7850,7 @@
       <c r="M4" s="32">
         <v>160</v>
       </c>
-      <c r="N4" s="46">
+      <c r="N4" s="35">
         <v>1.96071</v>
       </c>
       <c r="O4" s="27">
@@ -7878,14 +7866,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>0.02</v>
       </c>
       <c r="B5" s="26">
         <v>0.10834100000000001</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="34">
         <v>-9.1882099999999998</v>
       </c>
       <c r="D5" s="26">
@@ -7900,7 +7888,7 @@
       <c r="G5" s="27">
         <v>1.27951E-2</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="34">
         <v>160</v>
       </c>
       <c r="I5" s="26">
@@ -7918,7 +7906,7 @@
       <c r="M5" s="32">
         <v>254</v>
       </c>
-      <c r="N5" s="46">
+      <c r="N5" s="35">
         <v>1.9804600000000001</v>
       </c>
       <c r="O5" s="27">
@@ -7934,14 +7922,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0.03</v>
       </c>
       <c r="B6" s="26">
         <v>7.1782599999999999</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="34">
         <v>6.5453000000000001</v>
       </c>
       <c r="D6" s="26">
@@ -7956,7 +7944,7 @@
       <c r="G6" s="27">
         <v>2.88046E-2</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="34">
         <v>254</v>
       </c>
       <c r="I6" s="26">
@@ -7974,7 +7962,7 @@
       <c r="M6" s="32">
         <v>254</v>
       </c>
-      <c r="N6" s="46">
+      <c r="N6" s="35">
         <v>1.9870300000000001</v>
       </c>
       <c r="O6" s="27">
@@ -7990,14 +7978,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>0.04</v>
       </c>
       <c r="B7" s="26">
         <v>-8.6376500000000007</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="34">
         <v>-6.7772500000000004</v>
       </c>
       <c r="D7" s="26">
@@ -8012,7 +8000,7 @@
       <c r="G7" s="27">
         <v>5.1214099999999999E-2</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="34">
         <v>254</v>
       </c>
       <c r="I7" s="26">
@@ -8030,7 +8018,7 @@
       <c r="M7" s="32">
         <v>254</v>
       </c>
-      <c r="N7" s="46">
+      <c r="N7" s="35">
         <v>1.99055</v>
       </c>
       <c r="O7" s="27">
@@ -8046,14 +8034,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>0.05</v>
       </c>
       <c r="B8" s="26">
         <v>-6.5038</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="34">
         <v>0.72786600000000001</v>
       </c>
       <c r="D8" s="26">
@@ -8068,7 +8056,7 @@
       <c r="G8" s="27">
         <v>8.0063099999999998E-2</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="34">
         <v>160</v>
       </c>
       <c r="I8" s="26">
@@ -8086,7 +8074,7 @@
       <c r="M8" s="32">
         <v>254</v>
       </c>
-      <c r="N8" s="46">
+      <c r="N8" s="35">
         <v>1.99241</v>
       </c>
       <c r="O8" s="27">
@@ -8102,14 +8090,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>0.06</v>
       </c>
       <c r="B9" s="26">
         <v>8.0340000000000007</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="34">
         <v>9.6520899999999994</v>
       </c>
       <c r="D9" s="26">
@@ -8124,7 +8112,7 @@
       <c r="G9" s="27">
         <v>0.115205</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="34">
         <v>254</v>
       </c>
       <c r="I9" s="26">
@@ -8142,7 +8130,7 @@
       <c r="M9" s="32">
         <v>254</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="35">
         <v>1.9936799999999999</v>
       </c>
       <c r="O9" s="27">
@@ -8158,14 +8146,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B10" s="26">
         <v>-7.4230200000000002</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="34">
         <v>-4.7044300000000003</v>
       </c>
       <c r="D10" s="26">
@@ -8180,7 +8168,7 @@
       <c r="G10" s="27">
         <v>0.15686700000000001</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="34">
         <v>160</v>
       </c>
       <c r="I10" s="26">
@@ -8198,7 +8186,7 @@
       <c r="M10" s="32">
         <v>254</v>
       </c>
-      <c r="N10" s="46">
+      <c r="N10" s="35">
         <v>1.99471</v>
       </c>
       <c r="O10" s="27">
@@ -8214,14 +8202,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>0.08</v>
       </c>
       <c r="B11" s="26">
         <v>-1.84362</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="34">
         <v>-9.9719200000000008</v>
       </c>
       <c r="D11" s="26">
@@ -8236,7 +8224,7 @@
       <c r="G11" s="27">
         <v>0.204766</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="34">
         <v>254</v>
       </c>
       <c r="I11" s="26">
@@ -8254,7 +8242,7 @@
       <c r="M11" s="32">
         <v>254</v>
       </c>
-      <c r="N11" s="46">
+      <c r="N11" s="35">
         <v>1.9953000000000001</v>
       </c>
       <c r="O11" s="27">
@@ -8270,14 +8258,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>0.09</v>
       </c>
       <c r="B12" s="26">
         <v>2.5339499999999999</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="34">
         <v>2.2061799999999998</v>
       </c>
       <c r="D12" s="26">
@@ -8292,7 +8280,7 @@
       <c r="G12" s="27">
         <v>0.25924000000000003</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="34">
         <v>160</v>
       </c>
       <c r="I12" s="26">
@@ -8310,7 +8298,7 @@
       <c r="M12" s="32">
         <v>160</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12" s="35">
         <v>1.99587</v>
       </c>
       <c r="O12" s="27">
@@ -8326,14 +8314,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>0.1</v>
       </c>
       <c r="B13" s="26">
         <v>-3.0369000000000002</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="34">
         <v>5.3447100000000001</v>
       </c>
       <c r="D13" s="26">
@@ -8348,7 +8336,7 @@
       <c r="G13" s="27">
         <v>0.31999</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="34">
         <v>254</v>
       </c>
       <c r="I13" s="26">
@@ -8366,7 +8354,7 @@
       <c r="M13" s="32">
         <v>160</v>
       </c>
-      <c r="N13" s="46">
+      <c r="N13" s="35">
         <v>1.99641</v>
       </c>
       <c r="O13" s="27">
@@ -8382,14 +8370,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>0.11</v>
       </c>
       <c r="B14" s="26">
         <v>-9.6795600000000004</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="34">
         <v>-9.1955299999999998</v>
       </c>
       <c r="D14" s="26">
@@ -8404,7 +8392,7 @@
       <c r="G14" s="27">
         <v>0.38720300000000002</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="34">
         <v>254</v>
       </c>
       <c r="I14" s="26">
@@ -8422,7 +8410,7 @@
       <c r="M14" s="32">
         <v>254</v>
       </c>
-      <c r="N14" s="46">
+      <c r="N14" s="35">
         <v>1.9966900000000001</v>
       </c>
       <c r="O14" s="27">
@@ -8438,14 +8426,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>0.12</v>
       </c>
       <c r="B15" s="26">
         <v>-4.1978200000000001</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="34">
         <v>-6.5978000000000003</v>
       </c>
       <c r="D15" s="26">
@@ -8460,7 +8448,7 @@
       <c r="G15" s="27">
         <v>0.46083200000000002</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="34">
         <v>160</v>
       </c>
       <c r="I15" s="26">
@@ -8478,7 +8466,7 @@
       <c r="M15" s="32">
         <v>254</v>
       </c>
-      <c r="N15" s="46">
+      <c r="N15" s="35">
         <v>1.99698</v>
       </c>
       <c r="O15" s="27">
@@ -8494,14 +8482,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>0.13</v>
       </c>
       <c r="B16" s="26">
         <v>-3.0051600000000001</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="34">
         <v>4.5268100000000002</v>
       </c>
       <c r="D16" s="26">
@@ -8516,7 +8504,7 @@
       <c r="G16" s="27">
         <v>0.54090099999999997</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="34">
         <v>160</v>
       </c>
       <c r="I16" s="26">
@@ -8534,7 +8522,7 @@
       <c r="M16" s="32">
         <v>160</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16" s="35">
         <v>1.9974000000000001</v>
       </c>
       <c r="O16" s="27">
@@ -8550,14 +8538,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>0.14000000000000001</v>
       </c>
       <c r="B17" s="26">
         <v>-5.468</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="34">
         <v>-5.8732899999999999</v>
       </c>
       <c r="D17" s="26">
@@ -8572,7 +8560,7 @@
       <c r="G17" s="27">
         <v>0.62724400000000002</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="34">
         <v>160</v>
       </c>
       <c r="I17" s="26">
@@ -8590,7 +8578,7 @@
       <c r="M17" s="32">
         <v>254</v>
       </c>
-      <c r="N17" s="46">
+      <c r="N17" s="35">
         <v>1.99756</v>
       </c>
       <c r="O17" s="27">
@@ -8606,14 +8594,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>0.15</v>
       </c>
       <c r="B18" s="26">
         <v>-5.7237499999999999</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="34">
         <v>3.73272</v>
       </c>
       <c r="D18" s="26">
@@ -8628,7 +8616,7 @@
       <c r="G18" s="27">
         <v>0.72043800000000002</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="34">
         <v>160</v>
       </c>
       <c r="I18" s="26">
@@ -8646,7 +8634,7 @@
       <c r="M18" s="32">
         <v>254</v>
       </c>
-      <c r="N18" s="46">
+      <c r="N18" s="35">
         <v>1.9977499999999999</v>
       </c>
       <c r="O18" s="27">
@@ -8662,14 +8650,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>0.16</v>
       </c>
       <c r="B19" s="26">
         <v>-4.4810299999999996</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="34">
         <v>7.5991100000000006E-2</v>
       </c>
       <c r="D19" s="26">
@@ -8684,7 +8672,7 @@
       <c r="G19" s="27">
         <v>0.818886</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="34">
         <v>160</v>
       </c>
       <c r="I19" s="26">
@@ -8702,7 +8690,7 @@
       <c r="M19" s="32">
         <v>160</v>
       </c>
-      <c r="N19" s="46">
+      <c r="N19" s="35">
         <v>1.99807</v>
       </c>
       <c r="O19" s="27">
@@ -8718,14 +8706,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>0.17</v>
       </c>
       <c r="B20" s="26">
         <v>-4.4859200000000001</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="34">
         <v>5.3001500000000004</v>
       </c>
       <c r="D20" s="26">
@@ -8740,7 +8728,7 @@
       <c r="G20" s="27">
         <v>0.92501900000000004</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="34">
         <v>254</v>
       </c>
       <c r="I20" s="26">
@@ -8758,7 +8746,7 @@
       <c r="M20" s="32">
         <v>160</v>
       </c>
-      <c r="N20" s="46">
+      <c r="N20" s="35">
         <v>1.9980800000000001</v>
       </c>
       <c r="O20" s="27">
@@ -8774,14 +8762,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>0.18</v>
       </c>
       <c r="B21" s="26">
         <v>7.36137</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="34">
         <v>-2.2257099999999999</v>
       </c>
       <c r="D21" s="26">
@@ -8796,7 +8784,7 @@
       <c r="G21" s="27">
         <v>1.03677</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="34">
         <v>254</v>
       </c>
       <c r="I21" s="26">
@@ -8814,7 +8802,7 @@
       <c r="M21" s="32">
         <v>254</v>
       </c>
-      <c r="N21" s="46">
+      <c r="N21" s="35">
         <v>1.9982599999999999</v>
       </c>
       <c r="O21" s="27">
@@ -8830,14 +8818,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>0.19</v>
       </c>
       <c r="B22" s="26">
         <v>-5.8049299999999997</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="34">
         <v>-0.40315000000000001</v>
       </c>
       <c r="D22" s="26">
@@ -8852,7 +8840,7 @@
       <c r="G22" s="27">
         <v>1.1554199999999999</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="34">
         <v>160</v>
       </c>
       <c r="I22" s="26">
@@ -8870,7 +8858,7 @@
       <c r="M22" s="32">
         <v>254</v>
       </c>
-      <c r="N22" s="46">
+      <c r="N22" s="35">
         <v>1.99831</v>
       </c>
       <c r="O22" s="27">
@@ -8886,14 +8874,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>0.2</v>
       </c>
       <c r="B23" s="26">
         <v>-3.5404499999999999</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="34">
         <v>5.4844799999999996</v>
       </c>
       <c r="D23" s="26">
@@ -8908,7 +8896,7 @@
       <c r="G23" s="27">
         <v>1.28003</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="34">
         <v>160</v>
       </c>
       <c r="I23" s="26">
@@ -8926,7 +8914,7 @@
       <c r="M23" s="32">
         <v>254</v>
       </c>
-      <c r="N23" s="46">
+      <c r="N23" s="35">
         <v>1.9983900000000001</v>
       </c>
       <c r="O23" s="27">
@@ -8942,14 +8930,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>0.21</v>
       </c>
       <c r="B24" s="26">
         <v>-6.8840599999999998</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="34">
         <v>-4.5316900000000002</v>
       </c>
       <c r="D24" s="26">
@@ -8964,7 +8952,7 @@
       <c r="G24" s="27">
         <v>1.4112199999999999</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="34">
         <v>254</v>
       </c>
       <c r="I24" s="26">
@@ -8982,7 +8970,7 @@
       <c r="M24" s="32">
         <v>254</v>
       </c>
-      <c r="N24" s="46">
+      <c r="N24" s="35">
         <v>1.9984500000000001</v>
       </c>
       <c r="O24" s="27">
@@ -8998,14 +8986,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>0.22</v>
       </c>
       <c r="B25" s="26">
         <v>-5.4258899999999999</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="34">
         <v>3.0564300000000002</v>
       </c>
       <c r="D25" s="26">
@@ -9020,7 +9008,7 @@
       <c r="G25" s="27">
         <v>1.54816</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="34">
         <v>160</v>
       </c>
       <c r="I25" s="26">
@@ -9038,7 +9026,7 @@
       <c r="M25" s="32">
         <v>254</v>
       </c>
-      <c r="N25" s="46">
+      <c r="N25" s="35">
         <v>1.99858</v>
       </c>
       <c r="O25" s="27">
@@ -9054,14 +9042,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>0.23</v>
       </c>
       <c r="B26" s="26">
         <v>-2.6529699999999998</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="34">
         <v>-6.1522300000000003</v>
       </c>
       <c r="D26" s="26">
@@ -9076,7 +9064,7 @@
       <c r="G26" s="27">
         <v>1.6930499999999999</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="34">
         <v>160</v>
       </c>
       <c r="I26" s="26">
@@ -9094,7 +9082,7 @@
       <c r="M26" s="32">
         <v>254</v>
       </c>
-      <c r="N26" s="46">
+      <c r="N26" s="35">
         <v>1.99878</v>
       </c>
       <c r="O26" s="27">
@@ -9110,14 +9098,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>0.24</v>
       </c>
       <c r="B27" s="26">
         <v>0.47334199999999998</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="34">
         <v>-0.53193800000000002</v>
       </c>
       <c r="D27" s="26">
@@ -9132,7 +9120,7 @@
       <c r="G27" s="27">
         <v>1.8428800000000001</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="34">
         <v>160</v>
       </c>
       <c r="I27" s="26">
@@ -9150,7 +9138,7 @@
       <c r="M27" s="32">
         <v>160</v>
       </c>
-      <c r="N27" s="46">
+      <c r="N27" s="35">
         <v>1.9985999999999999</v>
       </c>
       <c r="O27" s="27">
@@ -9166,14 +9154,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>0.25</v>
       </c>
       <c r="B28" s="26">
         <v>-5.8958700000000004</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="34">
         <v>0.63570099999999996</v>
       </c>
       <c r="D28" s="26">
@@ -9188,7 +9176,7 @@
       <c r="G28" s="27">
         <v>1.99993</v>
       </c>
-      <c r="H28" s="45">
+      <c r="H28" s="34">
         <v>160</v>
       </c>
       <c r="I28" s="26">
@@ -9206,7 +9194,7 @@
       <c r="M28" s="32">
         <v>254</v>
       </c>
-      <c r="N28" s="46">
+      <c r="N28" s="35">
         <v>1.9987999999999999</v>
       </c>
       <c r="O28" s="27">
@@ -9222,14 +9210,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>0.26</v>
       </c>
       <c r="B29" s="26">
         <v>3.8145099999999998</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="34">
         <v>-6.3127500000000003</v>
       </c>
       <c r="D29" s="26">
@@ -9244,7 +9232,7 @@
       <c r="G29" s="27">
         <v>2.1633900000000001</v>
       </c>
-      <c r="H29" s="45">
+      <c r="H29" s="34">
         <v>160</v>
       </c>
       <c r="I29" s="26">
@@ -9262,7 +9250,7 @@
       <c r="M29" s="32">
         <v>254</v>
       </c>
-      <c r="N29" s="46">
+      <c r="N29" s="35">
         <v>1.9988600000000001</v>
       </c>
       <c r="O29" s="27">
@@ -9278,14 +9266,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>0.27</v>
       </c>
       <c r="B30" s="26">
         <v>-7.3332899999999999</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="34">
         <v>-0.54963799999999996</v>
       </c>
       <c r="D30" s="26">
@@ -9300,7 +9288,7 @@
       <c r="G30" s="27">
         <v>2.3324400000000001</v>
       </c>
-      <c r="H30" s="45">
+      <c r="H30" s="34">
         <v>160</v>
       </c>
       <c r="I30" s="26">
@@ -9318,7 +9306,7 @@
       <c r="M30" s="32">
         <v>254</v>
       </c>
-      <c r="N30" s="46">
+      <c r="N30" s="35">
         <v>1.99892</v>
       </c>
       <c r="O30" s="27">
@@ -9334,14 +9322,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>0.28000000000000003</v>
       </c>
       <c r="B31" s="26">
         <v>9.3737600000000008</v>
       </c>
-      <c r="C31" s="45">
+      <c r="C31" s="34">
         <v>-5.5210999999999997</v>
       </c>
       <c r="D31" s="26">
@@ -9356,7 +9344,7 @@
       <c r="G31" s="27">
         <v>2.5085899999999999</v>
       </c>
-      <c r="H31" s="45">
+      <c r="H31" s="34">
         <v>254</v>
       </c>
       <c r="I31" s="26">
@@ -9374,7 +9362,7 @@
       <c r="M31" s="32">
         <v>254</v>
       </c>
-      <c r="N31" s="46">
+      <c r="N31" s="35">
         <v>1.9990399999999999</v>
       </c>
       <c r="O31" s="27">
@@ -9390,14 +9378,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>0.28999999999999998</v>
       </c>
       <c r="B32" s="26">
         <v>7.4541500000000003</v>
       </c>
-      <c r="C32" s="45">
+      <c r="C32" s="34">
         <v>-5.1048299999999998</v>
       </c>
       <c r="D32" s="26">
@@ -9412,7 +9400,7 @@
       <c r="G32" s="27">
         <v>2.6911299999999998</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="34">
         <v>254</v>
       </c>
       <c r="I32" s="26">
@@ -9430,7 +9418,7 @@
       <c r="M32" s="32">
         <v>254</v>
       </c>
-      <c r="N32" s="46">
+      <c r="N32" s="35">
         <v>1.9990600000000001</v>
       </c>
       <c r="O32" s="27">
@@ -9446,14 +9434,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>0.3</v>
       </c>
       <c r="B33" s="26">
         <v>9.7564600000000006</v>
       </c>
-      <c r="C33" s="45">
+      <c r="C33" s="34">
         <v>-5.2183599999999997</v>
       </c>
       <c r="D33" s="26">
@@ -9468,7 +9456,7 @@
       <c r="G33" s="27">
         <v>2.88002</v>
       </c>
-      <c r="H33" s="45">
+      <c r="H33" s="34">
         <v>254</v>
       </c>
       <c r="I33" s="26">
@@ -9486,7 +9474,7 @@
       <c r="M33" s="32">
         <v>254</v>
       </c>
-      <c r="N33" s="46">
+      <c r="N33" s="35">
         <v>1.99898</v>
       </c>
       <c r="O33" s="27">
@@ -9502,14 +9490,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>0.31</v>
       </c>
       <c r="B34" s="26">
         <v>-2.6078100000000002</v>
       </c>
-      <c r="C34" s="45">
+      <c r="C34" s="34">
         <v>6.95608</v>
       </c>
       <c r="D34" s="26">
@@ -9524,7 +9512,7 @@
       <c r="G34" s="27">
         <v>3.07464</v>
       </c>
-      <c r="H34" s="45">
+      <c r="H34" s="34">
         <v>160</v>
       </c>
       <c r="I34" s="26">
@@ -9542,7 +9530,7 @@
       <c r="M34" s="32">
         <v>160</v>
       </c>
-      <c r="N34" s="46">
+      <c r="N34" s="35">
         <v>1.9991699999999999</v>
       </c>
       <c r="O34" s="27">
@@ -9558,14 +9546,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>0.32</v>
       </c>
       <c r="B35" s="26">
         <v>4.7019900000000003</v>
       </c>
-      <c r="C35" s="45">
+      <c r="C35" s="34">
         <v>6.2816200000000002</v>
       </c>
       <c r="D35" s="26">
@@ -9580,7 +9568,7 @@
       <c r="G35" s="27">
         <v>3.2768199999999998</v>
       </c>
-      <c r="H35" s="45">
+      <c r="H35" s="34">
         <v>254</v>
       </c>
       <c r="I35" s="26">
@@ -9598,7 +9586,7 @@
       <c r="M35" s="32">
         <v>160</v>
       </c>
-      <c r="N35" s="46">
+      <c r="N35" s="35">
         <v>1.9991099999999999</v>
       </c>
       <c r="O35" s="27">
@@ -9614,14 +9602,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>0.33</v>
       </c>
       <c r="B36" s="26">
         <v>4.6995500000000003</v>
       </c>
-      <c r="C36" s="45">
+      <c r="C36" s="34">
         <v>7.1556699999999998</v>
       </c>
       <c r="D36" s="26">
@@ -9636,7 +9624,7 @@
       <c r="G36" s="27">
         <v>3.48482</v>
       </c>
-      <c r="H36" s="45">
+      <c r="H36" s="34">
         <v>254</v>
       </c>
       <c r="I36" s="26">
@@ -9654,7 +9642,7 @@
       <c r="M36" s="32">
         <v>160</v>
       </c>
-      <c r="N36" s="46">
+      <c r="N36" s="35">
         <v>1.99905</v>
       </c>
       <c r="O36" s="27">
@@ -9670,14 +9658,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>0.34</v>
       </c>
       <c r="B37" s="26">
         <v>-4.8753299999999999</v>
       </c>
-      <c r="C37" s="45">
+      <c r="C37" s="34">
         <v>9.8046799999999994</v>
       </c>
       <c r="D37" s="26">
@@ -9692,7 +9680,7 @@
       <c r="G37" s="27">
         <v>3.6991000000000001</v>
       </c>
-      <c r="H37" s="45">
+      <c r="H37" s="34">
         <v>254</v>
       </c>
       <c r="I37" s="26">
@@ -9710,7 +9698,7 @@
       <c r="M37" s="32">
         <v>254</v>
       </c>
-      <c r="N37" s="46">
+      <c r="N37" s="35">
         <v>1.9993099999999999</v>
       </c>
       <c r="O37" s="27">
@@ -9726,14 +9714,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>0.35000000000000003</v>
       </c>
       <c r="B38" s="26">
         <v>6.2035</v>
       </c>
-      <c r="C38" s="45">
+      <c r="C38" s="34">
         <v>-2.9117700000000002</v>
       </c>
       <c r="D38" s="26">
@@ -9748,7 +9736,7 @@
       <c r="G38" s="27">
         <v>3.9194800000000001</v>
       </c>
-      <c r="H38" s="45">
+      <c r="H38" s="34">
         <v>254</v>
       </c>
       <c r="I38" s="26">
@@ -9766,7 +9754,7 @@
       <c r="M38" s="32">
         <v>160</v>
       </c>
-      <c r="N38" s="46">
+      <c r="N38" s="35">
         <v>1.9992799999999999</v>
       </c>
       <c r="O38" s="27">
@@ -9782,14 +9770,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>0.36</v>
       </c>
       <c r="B39" s="26">
         <v>9.99634</v>
       </c>
-      <c r="C39" s="45">
+      <c r="C39" s="34">
         <v>7.1556699999999998</v>
       </c>
       <c r="D39" s="26">
@@ -9804,7 +9792,7 @@
       <c r="G39" s="27">
         <v>4.1469699999999996</v>
       </c>
-      <c r="H39" s="45">
+      <c r="H39" s="34">
         <v>254</v>
       </c>
       <c r="I39" s="26">
@@ -9822,7 +9810,7 @@
       <c r="M39" s="32">
         <v>254</v>
       </c>
-      <c r="N39" s="46">
+      <c r="N39" s="35">
         <v>1.99926</v>
       </c>
       <c r="O39" s="27">
@@ -9838,14 +9826,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>0.37</v>
       </c>
       <c r="B40" s="26">
         <v>0.32807399999999998</v>
       </c>
-      <c r="C40" s="45">
+      <c r="C40" s="34">
         <v>-2.89926E-2</v>
       </c>
       <c r="D40" s="26">
@@ -9860,7 +9848,7 @@
       <c r="G40" s="27">
         <v>4.3807099999999997</v>
       </c>
-      <c r="H40" s="45">
+      <c r="H40" s="34">
         <v>160</v>
       </c>
       <c r="I40" s="26">
@@ -9878,7 +9866,7 @@
       <c r="M40" s="32">
         <v>160</v>
       </c>
-      <c r="N40" s="46">
+      <c r="N40" s="35">
         <v>1.9995099999999999</v>
       </c>
       <c r="O40" s="27">
@@ -9894,14 +9882,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>0.38</v>
       </c>
       <c r="B41" s="26">
         <v>-5.7896700000000001</v>
       </c>
-      <c r="C41" s="45">
+      <c r="C41" s="34">
         <v>-9.9743600000000008</v>
       </c>
       <c r="D41" s="26">
@@ -9916,7 +9904,7 @@
       <c r="G41" s="27">
         <v>4.6206399999999999</v>
       </c>
-      <c r="H41" s="45">
+      <c r="H41" s="34">
         <v>254</v>
       </c>
       <c r="I41" s="26">
@@ -9934,7 +9922,7 @@
       <c r="M41" s="32">
         <v>254</v>
       </c>
-      <c r="N41" s="46">
+      <c r="N41" s="35">
         <v>1.9992399999999999</v>
       </c>
       <c r="O41" s="27">
@@ -9950,14 +9938,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>0.39</v>
       </c>
       <c r="B42" s="26">
         <v>2.86721</v>
       </c>
-      <c r="C42" s="45">
+      <c r="C42" s="34">
         <v>5.8159099999999997</v>
       </c>
       <c r="D42" s="26">
@@ -9972,7 +9960,7 @@
       <c r="G42" s="27">
         <v>4.86754</v>
       </c>
-      <c r="H42" s="45">
+      <c r="H42" s="34">
         <v>160</v>
       </c>
       <c r="I42" s="26">
@@ -9990,7 +9978,7 @@
       <c r="M42" s="32">
         <v>160</v>
       </c>
-      <c r="N42" s="46">
+      <c r="N42" s="35">
         <v>1.9993399999999999</v>
       </c>
       <c r="O42" s="27">
@@ -10006,14 +9994,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>0.4</v>
       </c>
       <c r="B43" s="26">
         <v>-4.4480700000000004</v>
       </c>
-      <c r="C43" s="45">
+      <c r="C43" s="34">
         <v>-8.4002199999999991</v>
       </c>
       <c r="D43" s="26">
@@ -10028,7 +10016,7 @@
       <c r="G43" s="27">
         <v>5.1201699999999999</v>
       </c>
-      <c r="H43" s="45">
+      <c r="H43" s="34">
         <v>254</v>
       </c>
       <c r="I43" s="26">
@@ -10046,7 +10034,7 @@
       <c r="M43" s="32">
         <v>254</v>
       </c>
-      <c r="N43" s="46">
+      <c r="N43" s="35">
         <v>1.9994700000000001</v>
       </c>
       <c r="O43" s="27">
@@ -10062,14 +10050,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>0.41000000000000003</v>
       </c>
       <c r="B44" s="26">
         <v>-5.3300599999999996</v>
       </c>
-      <c r="C44" s="45">
+      <c r="C44" s="34">
         <v>0.87008300000000005</v>
       </c>
       <c r="D44" s="26">
@@ -10084,7 +10072,7 @@
       <c r="G44" s="27">
         <v>5.3791700000000002</v>
       </c>
-      <c r="H44" s="45">
+      <c r="H44" s="34">
         <v>160</v>
       </c>
       <c r="I44" s="26">
@@ -10102,7 +10090,7 @@
       <c r="M44" s="32">
         <v>254</v>
       </c>
-      <c r="N44" s="46">
+      <c r="N44" s="35">
         <v>1.99943</v>
       </c>
       <c r="O44" s="27">
@@ -10118,14 +10106,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>0.42</v>
       </c>
       <c r="B45" s="26">
         <v>-1.1160600000000001</v>
       </c>
-      <c r="C45" s="45">
+      <c r="C45" s="34">
         <v>-3.5239699999999998</v>
       </c>
       <c r="D45" s="26">
@@ -10140,7 +10128,7 @@
       <c r="G45" s="27">
         <v>5.6440099999999997</v>
       </c>
-      <c r="H45" s="45">
+      <c r="H45" s="34">
         <v>160</v>
       </c>
       <c r="I45" s="26">
@@ -10158,7 +10146,7 @@
       <c r="M45" s="32">
         <v>254</v>
       </c>
-      <c r="N45" s="46">
+      <c r="N45" s="35">
         <v>1.99952</v>
       </c>
       <c r="O45" s="27">
@@ -10174,14 +10162,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>0.43</v>
       </c>
       <c r="B46" s="26">
         <v>-5.6273099999999996</v>
       </c>
-      <c r="C46" s="45">
+      <c r="C46" s="34">
         <v>1.9321299999999999</v>
       </c>
       <c r="D46" s="26">
@@ -10196,7 +10184,7 @@
       <c r="G46" s="27">
         <v>5.9168099999999999</v>
       </c>
-      <c r="H46" s="45">
+      <c r="H46" s="34">
         <v>160</v>
       </c>
       <c r="I46" s="26">
@@ -10214,7 +10202,7 @@
       <c r="M46" s="32">
         <v>254</v>
       </c>
-      <c r="N46" s="46">
+      <c r="N46" s="35">
         <v>1.9994799999999999</v>
       </c>
       <c r="O46" s="27">
@@ -10230,14 +10218,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>0.44</v>
       </c>
       <c r="B47" s="26">
         <v>5.6932299999999998</v>
       </c>
-      <c r="C47" s="45">
+      <c r="C47" s="34">
         <v>-5.4619</v>
       </c>
       <c r="D47" s="26">
@@ -10252,7 +10240,7 @@
       <c r="G47" s="27">
         <v>6.1953300000000002</v>
       </c>
-      <c r="H47" s="45">
+      <c r="H47" s="34">
         <v>254</v>
       </c>
       <c r="I47" s="26">
@@ -10270,7 +10258,7 @@
       <c r="M47" s="32">
         <v>254</v>
       </c>
-      <c r="N47" s="46">
+      <c r="N47" s="35">
         <v>1.99939</v>
       </c>
       <c r="O47" s="27">
@@ -10286,14 +10274,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>0.45</v>
       </c>
       <c r="B48" s="26">
         <v>-0.71321800000000002</v>
       </c>
-      <c r="C48" s="45">
+      <c r="C48" s="34">
         <v>6.1802999999999999</v>
       </c>
       <c r="D48" s="26">
@@ -10308,7 +10296,7 @@
       <c r="G48" s="27">
         <v>6.4795800000000003</v>
       </c>
-      <c r="H48" s="45">
+      <c r="H48" s="34">
         <v>160</v>
       </c>
       <c r="I48" s="26">
@@ -10326,7 +10314,7 @@
       <c r="M48" s="32">
         <v>160</v>
       </c>
-      <c r="N48" s="46">
+      <c r="N48" s="35">
         <v>1.9993000000000001</v>
       </c>
       <c r="O48" s="27">
@@ -10342,14 +10330,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>0.46</v>
       </c>
       <c r="B49" s="26">
         <v>7.1111199999999997</v>
       </c>
-      <c r="C49" s="45">
+      <c r="C49" s="34">
         <v>-5.6047200000000004</v>
       </c>
       <c r="D49" s="26">
@@ -10364,7 +10352,7 @@
       <c r="G49" s="27">
         <v>6.7713099999999997</v>
       </c>
-      <c r="H49" s="45">
+      <c r="H49" s="34">
         <v>254</v>
       </c>
       <c r="I49" s="26">
@@ -10382,7 +10370,7 @@
       <c r="M49" s="32">
         <v>254</v>
       </c>
-      <c r="N49" s="46">
+      <c r="N49" s="35">
         <v>1.9994400000000001</v>
       </c>
       <c r="O49" s="27">
@@ -10398,14 +10386,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>0.47000000000000003</v>
       </c>
       <c r="B50" s="26">
         <v>7.5780500000000002</v>
       </c>
-      <c r="C50" s="45">
+      <c r="C50" s="34">
         <v>-2.86782</v>
       </c>
       <c r="D50" s="26">
@@ -10420,7 +10408,7 @@
       <c r="G50" s="27">
         <v>7.0699699999999996</v>
       </c>
-      <c r="H50" s="45">
+      <c r="H50" s="34">
         <v>254</v>
       </c>
       <c r="I50" s="26">
@@ -10438,7 +10426,7 @@
       <c r="M50" s="32">
         <v>254</v>
       </c>
-      <c r="N50" s="46">
+      <c r="N50" s="35">
         <v>1.9993700000000001</v>
       </c>
       <c r="O50" s="27">
@@ -10454,14 +10442,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>0.48</v>
       </c>
       <c r="B51" s="26">
         <v>8.5338899999999995</v>
       </c>
-      <c r="C51" s="45">
+      <c r="C51" s="34">
         <v>2.0169700000000002</v>
       </c>
       <c r="D51" s="26">
@@ -10476,7 +10464,7 @@
       <c r="G51" s="27">
         <v>7.3730099999999998</v>
       </c>
-      <c r="H51" s="45">
+      <c r="H51" s="34">
         <v>254</v>
       </c>
       <c r="I51" s="26">
@@ -10494,7 +10482,7 @@
       <c r="M51" s="32">
         <v>160</v>
       </c>
-      <c r="N51" s="46">
+      <c r="N51" s="35">
         <v>1.99969</v>
       </c>
       <c r="O51" s="27">
@@ -10510,14 +10498,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>0.49</v>
       </c>
       <c r="B52" s="26">
         <v>4.86435</v>
       </c>
-      <c r="C52" s="45">
+      <c r="C52" s="34">
         <v>-2.6389399999999998</v>
       </c>
       <c r="D52" s="26">
@@ -10532,7 +10520,7 @@
       <c r="G52" s="27">
         <v>7.6840900000000003</v>
       </c>
-      <c r="H52" s="45">
+      <c r="H52" s="34">
         <v>160</v>
       </c>
       <c r="I52" s="26">
@@ -10550,7 +10538,7 @@
       <c r="M52" s="32">
         <v>160</v>
       </c>
-      <c r="N52" s="46">
+      <c r="N52" s="35">
         <v>1.99969</v>
       </c>
       <c r="O52" s="27">
@@ -10566,14 +10554,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>0.5</v>
       </c>
       <c r="B53" s="26">
         <v>-6.0289299999999999</v>
       </c>
-      <c r="C53" s="45">
+      <c r="C53" s="34">
         <v>0.18829899999999999</v>
       </c>
       <c r="D53" s="26">
@@ -10588,7 +10576,7 @@
       <c r="G53" s="27">
         <v>7.9998100000000001</v>
       </c>
-      <c r="H53" s="45">
+      <c r="H53" s="34">
         <v>160</v>
       </c>
       <c r="I53" s="26">
@@ -10606,7 +10594,7 @@
       <c r="M53" s="32">
         <v>254</v>
       </c>
-      <c r="N53" s="46">
+      <c r="N53" s="35">
         <v>1.9995799999999999</v>
       </c>
       <c r="O53" s="27">
@@ -10622,14 +10610,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>0.51</v>
       </c>
       <c r="B54" s="26">
         <v>8.3452900000000003</v>
       </c>
-      <c r="C54" s="45">
+      <c r="C54" s="34">
         <v>8.5949299999999997</v>
       </c>
       <c r="D54" s="26">
@@ -10644,7 +10632,7 @@
       <c r="G54" s="27">
         <v>8.3232700000000008</v>
       </c>
-      <c r="H54" s="45">
+      <c r="H54" s="34">
         <v>254</v>
       </c>
       <c r="I54" s="26">
@@ -10662,7 +10650,7 @@
       <c r="M54" s="32">
         <v>254</v>
       </c>
-      <c r="N54" s="46">
+      <c r="N54" s="35">
         <v>1.9995799999999999</v>
       </c>
       <c r="O54" s="27">
@@ -10678,14 +10666,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>0.52</v>
       </c>
       <c r="B55" s="26">
         <v>8.2457999999999991</v>
       </c>
-      <c r="C55" s="45">
+      <c r="C55" s="34">
         <v>-5.5882399999999999</v>
       </c>
       <c r="D55" s="26">
@@ -10700,7 +10688,7 @@
       <c r="G55" s="27">
         <v>8.6520499999999991</v>
       </c>
-      <c r="H55" s="45">
+      <c r="H55" s="34">
         <v>254</v>
       </c>
       <c r="I55" s="26">
@@ -10718,7 +10706,7 @@
       <c r="M55" s="32">
         <v>254</v>
       </c>
-      <c r="N55" s="46">
+      <c r="N55" s="35">
         <v>1.99976</v>
       </c>
       <c r="O55" s="27">
@@ -10734,14 +10722,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>0.53</v>
       </c>
       <c r="B56" s="26">
         <v>-8.3977799999999991</v>
       </c>
-      <c r="C56" s="45">
+      <c r="C56" s="34">
         <v>9.8278800000000004</v>
       </c>
       <c r="D56" s="26">
@@ -10756,7 +10744,7 @@
       <c r="G56" s="27">
         <v>8.9887899999999998</v>
       </c>
-      <c r="H56" s="45">
+      <c r="H56" s="34">
         <v>254</v>
       </c>
       <c r="I56" s="26">
@@ -10774,7 +10762,7 @@
       <c r="M56" s="32">
         <v>254</v>
       </c>
-      <c r="N56" s="46">
+      <c r="N56" s="35">
         <v>1.9997</v>
       </c>
       <c r="O56" s="27">
@@ -10790,14 +10778,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>0.54</v>
       </c>
       <c r="B57" s="26">
         <v>5.16953</v>
       </c>
-      <c r="C57" s="45">
+      <c r="C57" s="34">
         <v>0.87801799999999997</v>
       </c>
       <c r="D57" s="26">
@@ -10812,7 +10800,7 @@
       <c r="G57" s="27">
         <v>9.3299599999999998</v>
       </c>
-      <c r="H57" s="45">
+      <c r="H57" s="34">
         <v>160</v>
       </c>
       <c r="I57" s="26">
@@ -10830,7 +10818,7 @@
       <c r="M57" s="32">
         <v>160</v>
       </c>
-      <c r="N57" s="46">
+      <c r="N57" s="35">
         <v>1.99959</v>
       </c>
       <c r="O57" s="27">
@@ -10846,14 +10834,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>0.55000000000000004</v>
       </c>
       <c r="B58" s="26">
         <v>3.1840000000000002</v>
       </c>
-      <c r="C58" s="45">
+      <c r="C58" s="34">
         <v>-5.9447000000000001</v>
       </c>
       <c r="D58" s="26">
@@ -10868,7 +10856,7 @@
       <c r="G58" s="27">
         <v>9.6788100000000004</v>
       </c>
-      <c r="H58" s="45">
+      <c r="H58" s="34">
         <v>160</v>
       </c>
       <c r="I58" s="26">
@@ -10886,7 +10874,7 @@
       <c r="M58" s="32">
         <v>160</v>
       </c>
-      <c r="N58" s="46">
+      <c r="N58" s="35">
         <v>1.9995400000000001</v>
       </c>
       <c r="O58" s="27">
@@ -10902,14 +10890,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>0.56000000000000005</v>
       </c>
       <c r="B59" s="26">
         <v>-0.177313</v>
       </c>
-      <c r="C59" s="45">
+      <c r="C59" s="34">
         <v>2.1317200000000001</v>
       </c>
       <c r="D59" s="26">
@@ -10924,7 +10912,7 @@
       <c r="G59" s="27">
         <v>10.036300000000001</v>
       </c>
-      <c r="H59" s="45">
+      <c r="H59" s="34">
         <v>160</v>
       </c>
       <c r="I59" s="26">
@@ -10942,7 +10930,7 @@
       <c r="M59" s="32">
         <v>160</v>
       </c>
-      <c r="N59" s="46">
+      <c r="N59" s="35">
         <v>1.99966</v>
       </c>
       <c r="O59" s="27">
@@ -10958,14 +10946,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>0.57000000000000006</v>
       </c>
       <c r="B60" s="26">
         <v>2.10608</v>
       </c>
-      <c r="C60" s="45">
+      <c r="C60" s="34">
         <v>-5.7194700000000003</v>
       </c>
       <c r="D60" s="26">
@@ -10980,7 +10968,7 @@
       <c r="G60" s="27">
         <v>10.3957</v>
       </c>
-      <c r="H60" s="45">
+      <c r="H60" s="34">
         <v>160</v>
       </c>
       <c r="I60" s="26">
@@ -10998,7 +10986,7 @@
       <c r="M60" s="32">
         <v>160</v>
       </c>
-      <c r="N60" s="46">
+      <c r="N60" s="35">
         <v>1.9997199999999999</v>
       </c>
       <c r="O60" s="27">
@@ -11014,14 +11002,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>0.57999999999999996</v>
       </c>
       <c r="B61" s="26">
         <v>-6.9444900000000001</v>
       </c>
-      <c r="C61" s="45">
+      <c r="C61" s="34">
         <v>6.05884</v>
       </c>
       <c r="D61" s="26">
@@ -11036,7 +11024,7 @@
       <c r="G61" s="27">
         <v>10.765599999999999</v>
       </c>
-      <c r="H61" s="45">
+      <c r="H61" s="34">
         <v>254</v>
       </c>
       <c r="I61" s="26">
@@ -11054,7 +11042,7 @@
       <c r="M61" s="32">
         <v>254</v>
       </c>
-      <c r="N61" s="46">
+      <c r="N61" s="35">
         <v>1.9997199999999999</v>
       </c>
       <c r="O61" s="27">
@@ -11070,14 +11058,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>0.59</v>
       </c>
       <c r="B62" s="26">
         <v>3.3921299999999999</v>
       </c>
-      <c r="C62" s="45">
+      <c r="C62" s="34">
         <v>-0.611896</v>
       </c>
       <c r="D62" s="26">
@@ -11092,7 +11080,7 @@
       <c r="G62" s="27">
         <v>11.1393</v>
       </c>
-      <c r="H62" s="45">
+      <c r="H62" s="34">
         <v>160</v>
       </c>
       <c r="I62" s="26">
@@ -11110,7 +11098,7 @@
       <c r="M62" s="32">
         <v>160</v>
       </c>
-      <c r="N62" s="46">
+      <c r="N62" s="35">
         <v>1.9995400000000001</v>
       </c>
       <c r="O62" s="27">
@@ -11126,14 +11114,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>0.6</v>
       </c>
       <c r="B63" s="26">
         <v>6.34816</v>
       </c>
-      <c r="C63" s="45">
+      <c r="C63" s="34">
         <v>-6.1815199999999999</v>
       </c>
       <c r="D63" s="26">
@@ -11148,7 +11136,7 @@
       <c r="G63" s="27">
         <v>11.5191</v>
       </c>
-      <c r="H63" s="45">
+      <c r="H63" s="34">
         <v>254</v>
       </c>
       <c r="I63" s="26">
@@ -11166,7 +11154,7 @@
       <c r="M63" s="32">
         <v>254</v>
       </c>
-      <c r="N63" s="46">
+      <c r="N63" s="35">
         <v>1.99977</v>
       </c>
       <c r="O63" s="27">
@@ -11182,14 +11170,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>0.61</v>
       </c>
       <c r="B64" s="26">
         <v>-3.2242799999999998</v>
       </c>
-      <c r="C64" s="45">
+      <c r="C64" s="34">
         <v>-9.4640900000000006</v>
       </c>
       <c r="D64" s="26">
@@ -11204,7 +11192,7 @@
       <c r="G64" s="27">
         <v>11.907500000000001</v>
       </c>
-      <c r="H64" s="45">
+      <c r="H64" s="34">
         <v>254</v>
       </c>
       <c r="I64" s="26">
@@ -11222,7 +11210,7 @@
       <c r="M64" s="32">
         <v>254</v>
       </c>
-      <c r="N64" s="46">
+      <c r="N64" s="35">
         <v>1.9996</v>
       </c>
       <c r="O64" s="27">
@@ -11238,14 +11226,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>0.62</v>
       </c>
       <c r="B65" s="26">
         <v>-4.8631200000000003</v>
       </c>
-      <c r="C65" s="45">
+      <c r="C65" s="34">
         <v>-7.65313</v>
       </c>
       <c r="D65" s="26">
@@ -11260,7 +11248,7 @@
       <c r="G65" s="27">
         <v>12.300599999999999</v>
       </c>
-      <c r="H65" s="45">
+      <c r="H65" s="34">
         <v>254</v>
       </c>
       <c r="I65" s="26">
@@ -11278,7 +11266,7 @@
       <c r="M65" s="32">
         <v>254</v>
       </c>
-      <c r="N65" s="46">
+      <c r="N65" s="35">
         <v>1.9998800000000001</v>
       </c>
       <c r="O65" s="27">
@@ -11294,14 +11282,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>0.63</v>
       </c>
       <c r="B66" s="26">
         <v>-8.3056099999999997</v>
       </c>
-      <c r="C66" s="45">
+      <c r="C66" s="34">
         <v>-1.31932</v>
       </c>
       <c r="D66" s="26">
@@ -11316,7 +11304,7 @@
       <c r="G66" s="27">
         <v>12.701499999999999</v>
       </c>
-      <c r="H66" s="45">
+      <c r="H66" s="34">
         <v>254</v>
       </c>
       <c r="I66" s="26">
@@ -11334,7 +11322,7 @@
       <c r="M66" s="32">
         <v>254</v>
       </c>
-      <c r="N66" s="46">
+      <c r="N66" s="35">
         <v>1.99979</v>
       </c>
       <c r="O66" s="27">
@@ -11350,14 +11338,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>0.64</v>
       </c>
       <c r="B67" s="26">
         <v>-1.24241</v>
       </c>
-      <c r="C67" s="45">
+      <c r="C67" s="34">
         <v>-2.9471699999999998</v>
       </c>
       <c r="D67" s="26">
@@ -11372,7 +11360,7 @@
       <c r="G67" s="27">
         <v>13.1074</v>
       </c>
-      <c r="H67" s="45">
+      <c r="H67" s="34">
         <v>160</v>
       </c>
       <c r="I67" s="26">
@@ -11390,7 +11378,7 @@
       <c r="M67" s="32">
         <v>160</v>
       </c>
-      <c r="N67" s="46">
+      <c r="N67" s="35">
         <v>1.9998800000000001</v>
       </c>
       <c r="O67" s="27">
@@ -11406,14 +11394,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>0.65</v>
       </c>
       <c r="B68" s="26">
         <v>-8.3031699999999997</v>
       </c>
-      <c r="C68" s="45">
+      <c r="C68" s="34">
         <v>-6.1491699999999998</v>
       </c>
       <c r="D68" s="26">
@@ -11428,7 +11416,7 @@
       <c r="G68" s="27">
         <v>13.52</v>
       </c>
-      <c r="H68" s="45">
+      <c r="H68" s="34">
         <v>254</v>
       </c>
       <c r="I68" s="26">
@@ -11446,7 +11434,7 @@
       <c r="M68" s="32">
         <v>254</v>
       </c>
-      <c r="N68" s="46">
+      <c r="N68" s="35">
         <v>1.99976</v>
       </c>
       <c r="O68" s="27">
@@ -11462,14 +11450,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>0.66</v>
       </c>
       <c r="B69" s="26">
         <v>-4.90402</v>
       </c>
-      <c r="C69" s="45">
+      <c r="C69" s="34">
         <v>0.33783999999999997</v>
       </c>
       <c r="D69" s="26">
@@ -11484,7 +11472,7 @@
       <c r="G69" s="27">
         <v>13.938700000000001</v>
       </c>
-      <c r="H69" s="45">
+      <c r="H69" s="34">
         <v>160</v>
       </c>
       <c r="I69" s="26">
@@ -11502,7 +11490,7 @@
       <c r="M69" s="32">
         <v>160</v>
       </c>
-      <c r="N69" s="46">
+      <c r="N69" s="35">
         <v>1.9996400000000001</v>
       </c>
       <c r="O69" s="27">
@@ -11518,14 +11506,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>0.67</v>
       </c>
       <c r="B70" s="26">
         <v>-8.6138499999999993</v>
       </c>
-      <c r="C70" s="45">
+      <c r="C70" s="34">
         <v>6.8163099999999996</v>
       </c>
       <c r="D70" s="26">
@@ -11540,7 +11528,7 @@
       <c r="G70" s="27">
         <v>14.363799999999999</v>
       </c>
-      <c r="H70" s="45">
+      <c r="H70" s="34">
         <v>254</v>
       </c>
       <c r="I70" s="26">
@@ -11558,7 +11546,7 @@
       <c r="M70" s="32">
         <v>254</v>
       </c>
-      <c r="N70" s="46">
+      <c r="N70" s="35">
         <v>1.9997400000000001</v>
       </c>
       <c r="O70" s="27">
@@ -11574,14 +11562,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>0.68</v>
       </c>
       <c r="B71" s="26">
         <v>-1.89184</v>
       </c>
-      <c r="C71" s="45">
+      <c r="C71" s="34">
         <v>-8.4435599999999997</v>
       </c>
       <c r="D71" s="26">
@@ -11596,7 +11584,7 @@
       <c r="G71" s="27">
         <v>14.796799999999999</v>
       </c>
-      <c r="H71" s="45">
+      <c r="H71" s="34">
         <v>254</v>
       </c>
       <c r="I71" s="26">
@@ -11614,7 +11602,7 @@
       <c r="M71" s="32">
         <v>254</v>
       </c>
-      <c r="N71" s="46">
+      <c r="N71" s="35">
         <v>1.9999199999999999</v>
       </c>
       <c r="O71" s="27">
@@ -11630,14 +11618,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>0.69000000000000006</v>
       </c>
       <c r="B72" s="26">
         <v>-0.96713199999999999</v>
       </c>
-      <c r="C72" s="45">
+      <c r="C72" s="34">
         <v>-6.2474400000000001</v>
       </c>
       <c r="D72" s="26">
@@ -11652,7 +11640,7 @@
       <c r="G72" s="27">
         <v>15.2347</v>
       </c>
-      <c r="H72" s="45">
+      <c r="H72" s="34">
         <v>160</v>
       </c>
       <c r="I72" s="26">
@@ -11670,7 +11658,7 @@
       <c r="M72" s="32">
         <v>254</v>
       </c>
-      <c r="N72" s="46">
+      <c r="N72" s="35">
         <v>1.9999400000000001</v>
       </c>
       <c r="O72" s="27">
@@ -11686,14 +11674,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>0.70000000000000007</v>
       </c>
       <c r="B73" s="26">
         <v>6.3042100000000003</v>
       </c>
-      <c r="C73" s="45">
+      <c r="C73" s="34">
         <v>4.0556000000000001</v>
       </c>
       <c r="D73" s="26">
@@ -11708,7 +11696,7 @@
       <c r="G73" s="27">
         <v>15.679399999999999</v>
       </c>
-      <c r="H73" s="45">
+      <c r="H73" s="34">
         <v>160</v>
       </c>
       <c r="I73" s="26">
@@ -11726,7 +11714,7 @@
       <c r="M73" s="32">
         <v>160</v>
       </c>
-      <c r="N73" s="46">
+      <c r="N73" s="35">
         <v>1.9997199999999999</v>
       </c>
       <c r="O73" s="27">
@@ -11742,14 +11730,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>0.71</v>
       </c>
       <c r="B74" s="26">
         <v>-2.0285700000000002</v>
       </c>
-      <c r="C74" s="45">
+      <c r="C74" s="34">
         <v>4.5487799999999998</v>
       </c>
       <c r="D74" s="26">
@@ -11764,7 +11752,7 @@
       <c r="G74" s="27">
         <v>16.131900000000002</v>
       </c>
-      <c r="H74" s="45">
+      <c r="H74" s="34">
         <v>160</v>
       </c>
       <c r="I74" s="26">
@@ -11782,7 +11770,7 @@
       <c r="M74" s="32">
         <v>160</v>
       </c>
-      <c r="N74" s="46">
+      <c r="N74" s="35">
         <v>1.9997499999999999</v>
       </c>
       <c r="O74" s="27">
@@ -11798,14 +11786,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>0.72</v>
       </c>
       <c r="B75" s="26">
         <v>0.34150199999999997</v>
       </c>
-      <c r="C75" s="45">
+      <c r="C75" s="34">
         <v>-5.1036099999999998</v>
       </c>
       <c r="D75" s="26">
@@ -11820,7 +11808,7 @@
       <c r="G75" s="27">
         <v>16.5883</v>
       </c>
-      <c r="H75" s="45">
+      <c r="H75" s="34">
         <v>160</v>
       </c>
       <c r="I75" s="26">
@@ -11838,7 +11826,7 @@
       <c r="M75" s="32">
         <v>160</v>
       </c>
-      <c r="N75" s="46">
+      <c r="N75" s="35">
         <v>1.99969</v>
       </c>
       <c r="O75" s="27">
@@ -11854,14 +11842,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>0.73</v>
       </c>
       <c r="B76" s="26">
         <v>9.9145500000000002</v>
       </c>
-      <c r="C76" s="45">
+      <c r="C76" s="34">
         <v>5.3654599999999997</v>
       </c>
       <c r="D76" s="26">
@@ -11876,7 +11864,7 @@
       <c r="G76" s="27">
         <v>17.0533</v>
       </c>
-      <c r="H76" s="45">
+      <c r="H76" s="34">
         <v>254</v>
       </c>
       <c r="I76" s="26">
@@ -11894,7 +11882,7 @@
       <c r="M76" s="32">
         <v>254</v>
       </c>
-      <c r="N76" s="46">
+      <c r="N76" s="35">
         <v>1.99986</v>
       </c>
       <c r="O76" s="27">
@@ -11910,14 +11898,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>0.74</v>
       </c>
       <c r="B77" s="26">
         <v>-2.1610200000000002</v>
       </c>
-      <c r="C77" s="45">
+      <c r="C77" s="34">
         <v>-7.0915900000000001</v>
       </c>
       <c r="D77" s="26">
@@ -11932,7 +11920,7 @@
       <c r="G77" s="27">
         <v>17.523</v>
       </c>
-      <c r="H77" s="45">
+      <c r="H77" s="34">
         <v>254</v>
       </c>
       <c r="I77" s="26">
@@ -11950,7 +11938,7 @@
       <c r="M77" s="32">
         <v>254</v>
       </c>
-      <c r="N77" s="46">
+      <c r="N77" s="35">
         <v>1.9999199999999999</v>
       </c>
       <c r="O77" s="27">
@@ -11966,14 +11954,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>0.75</v>
       </c>
       <c r="B78" s="26">
         <v>-6.6966799999999997</v>
       </c>
-      <c r="C78" s="45">
+      <c r="C78" s="34">
         <v>-3.9194900000000001</v>
       </c>
       <c r="D78" s="26">
@@ -11988,7 +11976,7 @@
       <c r="G78" s="27">
         <v>17.999500000000001</v>
       </c>
-      <c r="H78" s="45">
+      <c r="H78" s="34">
         <v>254</v>
       </c>
       <c r="I78" s="26">
@@ -12006,7 +11994,7 @@
       <c r="M78" s="32">
         <v>254</v>
       </c>
-      <c r="N78" s="46">
+      <c r="N78" s="35">
         <v>1.9998</v>
       </c>
       <c r="O78" s="27">
@@ -12022,14 +12010,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>0.76</v>
       </c>
       <c r="B79" s="26">
         <v>3.5496099999999999</v>
       </c>
-      <c r="C79" s="45">
+      <c r="C79" s="34">
         <v>0.68452999999999997</v>
       </c>
       <c r="D79" s="26">
@@ -12044,7 +12032,7 @@
       <c r="G79" s="27">
         <v>18.482600000000001</v>
       </c>
-      <c r="H79" s="45">
+      <c r="H79" s="34">
         <v>160</v>
       </c>
       <c r="I79" s="26">
@@ -12062,7 +12050,7 @@
       <c r="M79" s="32">
         <v>160</v>
       </c>
-      <c r="N79" s="46">
+      <c r="N79" s="35">
         <v>1.99983</v>
       </c>
       <c r="O79" s="27">
@@ -12078,14 +12066,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>0.77</v>
       </c>
       <c r="B80" s="26">
         <v>-0.171819</v>
       </c>
-      <c r="C80" s="45">
+      <c r="C80" s="34">
         <v>-6.7589300000000003</v>
       </c>
       <c r="D80" s="26">
@@ -12100,7 +12088,7 @@
       <c r="G80" s="27">
         <v>18.972300000000001</v>
       </c>
-      <c r="H80" s="45">
+      <c r="H80" s="34">
         <v>254</v>
       </c>
       <c r="I80" s="26">
@@ -12118,7 +12106,7 @@
       <c r="M80" s="32">
         <v>254</v>
       </c>
-      <c r="N80" s="46">
+      <c r="N80" s="35">
         <v>1.9998100000000001</v>
       </c>
       <c r="O80" s="27">
@@ -12134,14 +12122,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>0.78</v>
       </c>
       <c r="B81" s="26">
         <v>2.99966</v>
       </c>
-      <c r="C81" s="45">
+      <c r="C81" s="34">
         <v>6.1418499999999998</v>
       </c>
       <c r="D81" s="26">
@@ -12156,7 +12144,7 @@
       <c r="G81" s="27">
         <v>19.470099999999999</v>
       </c>
-      <c r="H81" s="45">
+      <c r="H81" s="34">
         <v>160</v>
       </c>
       <c r="I81" s="26">
@@ -12174,7 +12162,7 @@
       <c r="M81" s="32">
         <v>160</v>
       </c>
-      <c r="N81" s="46">
+      <c r="N81" s="35">
         <v>1.99986</v>
       </c>
       <c r="O81" s="27">
@@ -12190,14 +12178,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <v>0.79</v>
       </c>
       <c r="B82" s="26">
         <v>2.2275499999999999</v>
       </c>
-      <c r="C82" s="45">
+      <c r="C82" s="34">
         <v>-0.854823</v>
       </c>
       <c r="D82" s="26">
@@ -12212,7 +12200,7 @@
       <c r="G82" s="27">
         <v>19.9727</v>
       </c>
-      <c r="H82" s="45">
+      <c r="H82" s="34">
         <v>160</v>
       </c>
       <c r="I82" s="26">
@@ -12230,7 +12218,7 @@
       <c r="M82" s="32">
         <v>160</v>
       </c>
-      <c r="N82" s="46">
+      <c r="N82" s="35">
         <v>1.9998</v>
       </c>
       <c r="O82" s="27">
@@ -12246,14 +12234,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>0.8</v>
       </c>
       <c r="B83" s="26">
         <v>-2.25867</v>
       </c>
-      <c r="C83" s="45">
+      <c r="C83" s="34">
         <v>9.2858699999999992</v>
       </c>
       <c r="D83" s="26">
@@ -12268,7 +12256,7 @@
       <c r="G83" s="27">
         <v>20.479800000000001</v>
       </c>
-      <c r="H83" s="45">
+      <c r="H83" s="34">
         <v>254</v>
       </c>
       <c r="I83" s="26">
@@ -12286,7 +12274,7 @@
       <c r="M83" s="32">
         <v>254</v>
       </c>
-      <c r="N83" s="46">
+      <c r="N83" s="35">
         <v>1.99986</v>
       </c>
       <c r="O83" s="27">
@@ -12302,14 +12290,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
         <v>0.81</v>
       </c>
       <c r="B84" s="26">
         <v>-3.4885700000000002</v>
       </c>
-      <c r="C84" s="45">
+      <c r="C84" s="34">
         <v>7.6860900000000001</v>
       </c>
       <c r="D84" s="26">
@@ -12324,7 +12312,7 @@
       <c r="G84" s="27">
         <v>20.995100000000001</v>
       </c>
-      <c r="H84" s="45">
+      <c r="H84" s="34">
         <v>254</v>
       </c>
       <c r="I84" s="26">
@@ -12342,7 +12330,7 @@
       <c r="M84" s="32">
         <v>254</v>
       </c>
-      <c r="N84" s="46">
+      <c r="N84" s="35">
         <v>1.9997499999999999</v>
       </c>
       <c r="O84" s="27">
@@ -12358,14 +12346,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>0.82000000000000006</v>
       </c>
       <c r="B85" s="26">
         <v>-9.6789500000000004</v>
       </c>
-      <c r="C85" s="45">
+      <c r="C85" s="34">
         <v>-0.21210399999999999</v>
       </c>
       <c r="D85" s="26">
@@ -12380,7 +12368,7 @@
       <c r="G85" s="27">
         <v>21.516999999999999</v>
       </c>
-      <c r="H85" s="45">
+      <c r="H85" s="34">
         <v>254</v>
       </c>
       <c r="I85" s="26">
@@ -12398,7 +12386,7 @@
       <c r="M85" s="32">
         <v>254</v>
       </c>
-      <c r="N85" s="46">
+      <c r="N85" s="35">
         <v>1.9999100000000001</v>
       </c>
       <c r="O85" s="27">
@@ -12414,14 +12402,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <v>0.83000000000000007</v>
       </c>
       <c r="B86" s="26">
         <v>-8.2812000000000001</v>
       </c>
-      <c r="C86" s="45">
+      <c r="C86" s="34">
         <v>7.5780500000000002</v>
       </c>
       <c r="D86" s="26">
@@ -12436,7 +12424,7 @@
       <c r="G86" s="27">
         <v>22.0457</v>
       </c>
-      <c r="H86" s="45">
+      <c r="H86" s="34">
         <v>254</v>
       </c>
       <c r="I86" s="26">
@@ -12454,7 +12442,7 @@
       <c r="M86" s="32">
         <v>254</v>
       </c>
-      <c r="N86" s="46">
+      <c r="N86" s="35">
         <v>1.9998800000000001</v>
       </c>
       <c r="O86" s="27">
@@ -12470,14 +12458,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>0.84</v>
       </c>
       <c r="B87" s="26">
         <v>-2.8922400000000001</v>
       </c>
-      <c r="C87" s="45">
+      <c r="C87" s="34">
         <v>-8.9837299999999995</v>
       </c>
       <c r="D87" s="26">
@@ -12492,7 +12480,7 @@
       <c r="G87" s="27">
         <v>22.5794</v>
       </c>
-      <c r="H87" s="45">
+      <c r="H87" s="34">
         <v>254</v>
       </c>
       <c r="I87" s="26">
@@ -12510,7 +12498,7 @@
       <c r="M87" s="32">
         <v>254</v>
       </c>
-      <c r="N87" s="46">
+      <c r="N87" s="35">
         <v>1.99993</v>
       </c>
       <c r="O87" s="27">
@@ -12526,14 +12514,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>0.85</v>
       </c>
       <c r="B88" s="26">
         <v>-9.6600199999999994</v>
       </c>
-      <c r="C88" s="45">
+      <c r="C88" s="34">
         <v>-6.4122399999999997</v>
       </c>
       <c r="D88" s="26">
@@ -12548,7 +12536,7 @@
       <c r="G88" s="27">
         <v>23.120200000000001</v>
       </c>
-      <c r="H88" s="45">
+      <c r="H88" s="34">
         <v>254</v>
       </c>
       <c r="I88" s="26">
@@ -12566,7 +12554,7 @@
       <c r="M88" s="32">
         <v>254</v>
       </c>
-      <c r="N88" s="46">
+      <c r="N88" s="35">
         <v>2.0000100000000001</v>
       </c>
       <c r="O88" s="27">
@@ -12582,14 +12570,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>0.86</v>
       </c>
       <c r="B89" s="26">
         <v>-2.9081100000000002</v>
       </c>
-      <c r="C89" s="45">
+      <c r="C89" s="34">
         <v>6.1253700000000002</v>
       </c>
       <c r="D89" s="26">
@@ -12604,7 +12592,7 @@
       <c r="G89" s="27">
         <v>23.667200000000001</v>
       </c>
-      <c r="H89" s="45">
+      <c r="H89" s="34">
         <v>254</v>
       </c>
       <c r="I89" s="26">
@@ -12622,7 +12610,7 @@
       <c r="M89" s="32">
         <v>160</v>
       </c>
-      <c r="N89" s="46">
+      <c r="N89" s="35">
         <v>1.99997</v>
       </c>
       <c r="O89" s="27">
@@ -12638,14 +12626,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>0.87</v>
       </c>
       <c r="B90" s="26">
         <v>-7.4736799999999999</v>
       </c>
-      <c r="C90" s="45">
+      <c r="C90" s="34">
         <v>6.4012599999999997</v>
       </c>
       <c r="D90" s="26">
@@ -12660,7 +12648,7 @@
       <c r="G90" s="27">
         <v>24.221</v>
       </c>
-      <c r="H90" s="45">
+      <c r="H90" s="34">
         <v>254</v>
       </c>
       <c r="I90" s="26">
@@ -12678,7 +12666,7 @@
       <c r="M90" s="32">
         <v>254</v>
       </c>
-      <c r="N90" s="46">
+      <c r="N90" s="35">
         <v>1.9999499999999999</v>
       </c>
       <c r="O90" s="27">
@@ -12694,14 +12682,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>0.88</v>
       </c>
       <c r="B91" s="26">
         <v>-5.2116499999999997</v>
       </c>
-      <c r="C91" s="45">
+      <c r="C91" s="34">
         <v>1.8515600000000001</v>
       </c>
       <c r="D91" s="26">
@@ -12716,7 +12704,7 @@
       <c r="G91" s="27">
         <v>24.781600000000001</v>
       </c>
-      <c r="H91" s="45">
+      <c r="H91" s="34">
         <v>160</v>
       </c>
       <c r="I91" s="26">
@@ -12734,7 +12722,7 @@
       <c r="M91" s="32">
         <v>254</v>
       </c>
-      <c r="N91" s="46">
+      <c r="N91" s="35">
         <v>1.9999499999999999</v>
       </c>
       <c r="O91" s="27">
@@ -12750,14 +12738,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>0.89</v>
       </c>
       <c r="B92" s="26">
         <v>7.21976</v>
       </c>
-      <c r="C92" s="45">
+      <c r="C92" s="34">
         <v>-8.2543399999999991</v>
       </c>
       <c r="D92" s="26">
@@ -12772,7 +12760,7 @@
       <c r="G92" s="27">
         <v>25.346599999999999</v>
       </c>
-      <c r="H92" s="45">
+      <c r="H92" s="34">
         <v>254</v>
       </c>
       <c r="I92" s="26">
@@ -12790,7 +12778,7 @@
       <c r="M92" s="32">
         <v>254</v>
       </c>
-      <c r="N92" s="46">
+      <c r="N92" s="35">
         <v>2.0001699999999998</v>
       </c>
       <c r="O92" s="27">
@@ -12806,14 +12794,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>0.9</v>
       </c>
       <c r="B93" s="26">
         <v>5.3678999999999997</v>
       </c>
-      <c r="C93" s="45">
+      <c r="C93" s="34">
         <v>5.6254799999999996</v>
       </c>
       <c r="D93" s="26">
@@ -12828,7 +12816,7 @@
       <c r="G93" s="27">
         <v>25.919899999999998</v>
       </c>
-      <c r="H93" s="45">
+      <c r="H93" s="34">
         <v>160</v>
       </c>
       <c r="I93" s="26">
@@ -12846,7 +12834,7 @@
       <c r="M93" s="32">
         <v>160</v>
       </c>
-      <c r="N93" s="46">
+      <c r="N93" s="35">
         <v>1.9999199999999999</v>
       </c>
       <c r="O93" s="27">
@@ -12862,14 +12850,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>0.91</v>
       </c>
       <c r="B94" s="26">
         <v>3.3115600000000001</v>
       </c>
-      <c r="C94" s="45">
+      <c r="C94" s="34">
         <v>-0.60152000000000005</v>
       </c>
       <c r="D94" s="26">
@@ -12884,7 +12872,7 @@
       <c r="G94" s="27">
         <v>26.500699999999998</v>
       </c>
-      <c r="H94" s="45">
+      <c r="H94" s="34">
         <v>160</v>
       </c>
       <c r="I94" s="26">
@@ -12902,7 +12890,7 @@
       <c r="M94" s="32">
         <v>160</v>
       </c>
-      <c r="N94" s="46">
+      <c r="N94" s="35">
         <v>1.9999499999999999</v>
       </c>
       <c r="O94" s="27">
@@ -12918,14 +12906,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>0.92</v>
       </c>
       <c r="B95" s="26">
         <v>0.13458700000000001</v>
       </c>
-      <c r="C95" s="45">
+      <c r="C95" s="34">
         <v>-8.3751899999999999</v>
       </c>
       <c r="D95" s="26">
@@ -12940,7 +12928,7 @@
       <c r="G95" s="27">
         <v>27.085100000000001</v>
       </c>
-      <c r="H95" s="45">
+      <c r="H95" s="34">
         <v>254</v>
       </c>
       <c r="I95" s="26">
@@ -12958,7 +12946,7 @@
       <c r="M95" s="32">
         <v>254</v>
       </c>
-      <c r="N95" s="46">
+      <c r="N95" s="35">
         <v>2</v>
       </c>
       <c r="O95" s="27">
@@ -12974,14 +12962,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
         <v>0.93</v>
       </c>
       <c r="B96" s="26">
         <v>3.9762599999999999</v>
       </c>
-      <c r="C96" s="45">
+      <c r="C96" s="34">
         <v>-7.3021599999999998</v>
       </c>
       <c r="D96" s="26">
@@ -12996,7 +12984,7 @@
       <c r="G96" s="27">
         <v>27.6752</v>
       </c>
-      <c r="H96" s="45">
+      <c r="H96" s="34">
         <v>254</v>
       </c>
       <c r="I96" s="26">
@@ -13014,7 +13002,7 @@
       <c r="M96" s="32">
         <v>254</v>
       </c>
-      <c r="N96" s="46">
+      <c r="N96" s="35">
         <v>1.99986</v>
       </c>
       <c r="O96" s="27">
@@ -13030,14 +13018,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>0.94000000000000006</v>
       </c>
       <c r="B97" s="26">
         <v>0.48799100000000001</v>
       </c>
-      <c r="C97" s="45">
+      <c r="C97" s="34">
         <v>-8.5912699999999997</v>
       </c>
       <c r="D97" s="26">
@@ -13052,7 +13040,7 @@
       <c r="G97" s="27">
         <v>28.274799999999999</v>
       </c>
-      <c r="H97" s="45">
+      <c r="H97" s="34">
         <v>254</v>
       </c>
       <c r="I97" s="26">
@@ -13070,7 +13058,7 @@
       <c r="M97" s="32">
         <v>254</v>
       </c>
-      <c r="N97" s="46">
+      <c r="N97" s="35">
         <v>2.0000399999999998</v>
       </c>
       <c r="O97" s="27">
@@ -13086,14 +13074,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <v>0.95000000000000007</v>
       </c>
       <c r="B98" s="26">
         <v>-2.71401</v>
       </c>
-      <c r="C98" s="45">
+      <c r="C98" s="34">
         <v>9.1943099999999998</v>
       </c>
       <c r="D98" s="26">
@@ -13108,7 +13096,7 @@
       <c r="G98" s="27">
         <v>28.8813</v>
       </c>
-      <c r="H98" s="45">
+      <c r="H98" s="34">
         <v>254</v>
       </c>
       <c r="I98" s="26">
@@ -13126,7 +13114,7 @@
       <c r="M98" s="32">
         <v>254</v>
       </c>
-      <c r="N98" s="46">
+      <c r="N98" s="35">
         <v>2.00007</v>
       </c>
       <c r="O98" s="27">
@@ -13142,14 +13130,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>0.96</v>
       </c>
       <c r="B99" s="26">
         <v>-1.52196</v>
       </c>
-      <c r="C99" s="45">
+      <c r="C99" s="34">
         <v>4.7343400000000004</v>
       </c>
       <c r="D99" s="26">
@@ -13164,7 +13152,7 @@
       <c r="G99" s="27">
         <v>29.490400000000001</v>
       </c>
-      <c r="H99" s="45">
+      <c r="H99" s="34">
         <v>160</v>
       </c>
       <c r="I99" s="26">
@@ -13182,7 +13170,7 @@
       <c r="M99" s="32">
         <v>160</v>
       </c>
-      <c r="N99" s="46">
+      <c r="N99" s="35">
         <v>2.0000800000000001</v>
       </c>
       <c r="O99" s="27">
@@ -13198,14 +13186,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <v>0.97</v>
       </c>
       <c r="B100" s="26">
         <v>6.2462200000000001</v>
       </c>
-      <c r="C100" s="45">
+      <c r="C100" s="34">
         <v>3.0491000000000001</v>
       </c>
       <c r="D100" s="26">
@@ -13220,7 +13208,7 @@
       <c r="G100" s="27">
         <v>30.109000000000002</v>
       </c>
-      <c r="H100" s="45">
+      <c r="H100" s="34">
         <v>160</v>
       </c>
       <c r="I100" s="26">
@@ -13238,7 +13226,7 @@
       <c r="M100" s="32">
         <v>160</v>
       </c>
-      <c r="N100" s="46">
+      <c r="N100" s="35">
         <v>2.00013</v>
       </c>
       <c r="O100" s="27">
@@ -13254,14 +13242,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>0.98</v>
       </c>
       <c r="B101" s="26">
         <v>-7.9076500000000003</v>
       </c>
-      <c r="C101" s="45">
+      <c r="C101" s="34">
         <v>6.20167</v>
       </c>
       <c r="D101" s="26">
@@ -13276,7 +13264,7 @@
       <c r="G101" s="27">
         <v>30.733599999999999</v>
       </c>
-      <c r="H101" s="45">
+      <c r="H101" s="34">
         <v>254</v>
       </c>
       <c r="I101" s="26">
@@ -13294,7 +13282,7 @@
       <c r="M101" s="32">
         <v>254</v>
       </c>
-      <c r="N101" s="46">
+      <c r="N101" s="35">
         <v>1.99996</v>
       </c>
       <c r="O101" s="27">
@@ -13310,14 +13298,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <v>0.99</v>
       </c>
       <c r="B102" s="26">
         <v>-8.6407100000000003</v>
       </c>
-      <c r="C102" s="45">
+      <c r="C102" s="34">
         <v>9.8303200000000004</v>
       </c>
       <c r="D102" s="26">
@@ -13332,7 +13320,7 @@
       <c r="G102" s="27">
         <v>31.365200000000002</v>
       </c>
-      <c r="H102" s="45">
+      <c r="H102" s="34">
         <v>254</v>
       </c>
       <c r="I102" s="26">
@@ -13350,7 +13338,7 @@
       <c r="M102" s="32">
         <v>254</v>
       </c>
-      <c r="N102" s="46">
+      <c r="N102" s="35">
         <v>1.9999499999999999</v>
       </c>
       <c r="O102" s="27">
@@ -13366,17 +13354,17 @@
         <v>254</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="8">
         <v>1</v>
       </c>
-      <c r="B103" s="47">
+      <c r="B103" s="36">
         <v>-6.6057300000000003</v>
       </c>
-      <c r="C103" s="48">
+      <c r="C103" s="37">
         <v>-6.65822</v>
       </c>
-      <c r="D103" s="47">
+      <c r="D103" s="36">
         <v>2.0000300000000002</v>
       </c>
       <c r="E103" s="28">
@@ -13388,10 +13376,10 @@
       <c r="G103" s="28">
         <v>32</v>
       </c>
-      <c r="H103" s="48">
-        <v>254</v>
-      </c>
-      <c r="I103" s="47">
+      <c r="H103" s="37">
+        <v>254</v>
+      </c>
+      <c r="I103" s="36">
         <v>2.0000300000000002</v>
       </c>
       <c r="J103" s="28">
@@ -13403,10 +13391,10 @@
       <c r="L103" s="28">
         <v>3.2</v>
       </c>
-      <c r="M103" s="49">
-        <v>254</v>
-      </c>
-      <c r="N103" s="50">
+      <c r="M103" s="38">
+        <v>254</v>
+      </c>
+      <c r="N103" s="39">
         <v>2.0000300000000002</v>
       </c>
       <c r="O103" s="28">
@@ -13418,7 +13406,7 @@
       <c r="Q103" s="28">
         <v>0.32</v>
       </c>
-      <c r="R103" s="49">
+      <c r="R103" s="38">
         <v>254</v>
       </c>
     </row>
@@ -13439,19 +13427,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="8" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -13479,20 +13467,8 @@
       <c r="I1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -13520,24 +13496,8 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <f>COUNTIF(D:D,"&lt;200") + COUNTIF(D:D,"&gt;1000")</f>
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <f>COUNTIF(E:E,"&lt;10") + COUNTIF(E:E,"&gt;50")</f>
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <f>COUNTIF(F:F,"&lt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <f>COUNTIF(G:G,"&lt;0") + COUNTIF(G:G,"&gt;5")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>0.01</v>
       </c>
@@ -13566,7 +13526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0.02</v>
       </c>
@@ -13595,7 +13555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>0.03</v>
       </c>
@@ -13624,7 +13584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0.04</v>
       </c>
@@ -13653,7 +13613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>0.05</v>
       </c>
@@ -13682,7 +13642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>0.06</v>
       </c>
@@ -13711,7 +13671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -13740,7 +13700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>0.08</v>
       </c>
@@ -13769,7 +13729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>0.09</v>
       </c>
@@ -13798,7 +13758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>0.1</v>
       </c>
@@ -13827,7 +13787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>0.11</v>
       </c>
@@ -13856,7 +13816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>0.12</v>
       </c>
@@ -13885,7 +13845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>0.13</v>
       </c>
@@ -13914,7 +13874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>0.14000000000000001</v>
       </c>
@@ -13943,7 +13903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>0.15</v>
       </c>
@@ -13972,7 +13932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>0.16</v>
       </c>
@@ -14001,7 +13961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>0.17</v>
       </c>
@@ -14030,7 +13990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>0.18</v>
       </c>
@@ -14059,7 +14019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>0.19</v>
       </c>
@@ -14088,7 +14048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>0.2</v>
       </c>
@@ -14117,7 +14077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>0.21</v>
       </c>
@@ -14146,7 +14106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>0.22</v>
       </c>
@@ -14175,7 +14135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>0.23</v>
       </c>
@@ -14204,7 +14164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>0.24</v>
       </c>
@@ -14233,7 +14193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>0.25</v>
       </c>
@@ -14262,7 +14222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>0.26</v>
       </c>
@@ -14291,7 +14251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>0.27</v>
       </c>
@@ -14320,7 +14280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>0.28000000000000003</v>
       </c>
@@ -14349,7 +14309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>0.28999999999999998</v>
       </c>
@@ -14378,7 +14338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>0.3</v>
       </c>
@@ -14407,7 +14367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>0.31</v>
       </c>
@@ -14436,7 +14396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>0.32</v>
       </c>
@@ -14465,7 +14425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>0.33</v>
       </c>
@@ -14494,7 +14454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>0.34</v>
       </c>
@@ -14523,7 +14483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>0.35</v>
       </c>
@@ -14552,7 +14512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>0.36</v>
       </c>
@@ -14581,7 +14541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>0.37</v>
       </c>
@@ -14610,7 +14570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>0.38</v>
       </c>
@@ -14639,7 +14599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>0.39</v>
       </c>
@@ -14668,7 +14628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>0.4</v>
       </c>
@@ -14697,7 +14657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>0.41</v>
       </c>
@@ -14726,7 +14686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>0.42</v>
       </c>
@@ -14755,7 +14715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>0.43</v>
       </c>
@@ -14784,7 +14744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>0.44</v>
       </c>
@@ -14813,7 +14773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>0.45</v>
       </c>
@@ -14842,7 +14802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>0.46</v>
       </c>
@@ -14871,7 +14831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>0.47</v>
       </c>
@@ -14900,7 +14860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>0.48</v>
       </c>
@@ -14929,7 +14889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>0.49</v>
       </c>
@@ -14958,7 +14918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>0.5</v>
       </c>
@@ -14987,7 +14947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>0.51</v>
       </c>
@@ -15016,7 +14976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>0.52</v>
       </c>
@@ -15045,7 +15005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>0.53</v>
       </c>
@@ -15074,7 +15034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>0.54</v>
       </c>
@@ -15103,7 +15063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>0.55000000000000004</v>
       </c>
@@ -15132,7 +15092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>0.56000000000000005</v>
       </c>
@@ -15161,7 +15121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>0.56999999999999995</v>
       </c>
@@ -15190,7 +15150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>0.57999999999999996</v>
       </c>
@@ -15219,7 +15179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>0.59</v>
       </c>
@@ -15248,7 +15208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>0.6</v>
       </c>
@@ -15277,7 +15237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>0.61</v>
       </c>
@@ -15306,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>0.62</v>
       </c>
@@ -15335,7 +15295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>0.63</v>
       </c>
@@ -15364,7 +15324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>0.64</v>
       </c>
@@ -15393,7 +15353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>0.65</v>
       </c>
@@ -15422,7 +15382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>0.66</v>
       </c>
@@ -15451,7 +15411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>0.67</v>
       </c>
@@ -15480,7 +15440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>0.68</v>
       </c>
@@ -15509,7 +15469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>0.69</v>
       </c>
@@ -15538,7 +15498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>0.7</v>
       </c>
@@ -15567,7 +15527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>0.71</v>
       </c>
@@ -15596,7 +15556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>0.72</v>
       </c>
@@ -15625,7 +15585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>0.73</v>
       </c>
@@ -15654,7 +15614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>0.74</v>
       </c>
@@ -15683,7 +15643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>0.75</v>
       </c>
@@ -15712,7 +15672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>0.76</v>
       </c>
@@ -15741,7 +15701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>0.77</v>
       </c>
@@ -15770,7 +15730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>0.78</v>
       </c>
@@ -15799,7 +15759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>0.79</v>
       </c>
@@ -15828,7 +15788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <v>0.8</v>
       </c>
@@ -15857,7 +15817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>0.81</v>
       </c>
@@ -15886,7 +15846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
         <v>0.82</v>
       </c>
@@ -15915,7 +15875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>0.83</v>
       </c>
@@ -15944,7 +15904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <v>0.84</v>
       </c>
@@ -15973,7 +15933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>0.85</v>
       </c>
@@ -16002,7 +15962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>0.86</v>
       </c>
@@ -16031,7 +15991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>0.87</v>
       </c>
@@ -16060,7 +16020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>0.88</v>
       </c>
@@ -16089,7 +16049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>0.89</v>
       </c>
@@ -16118,7 +16078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>0.9</v>
       </c>
@@ -16147,7 +16107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>0.91</v>
       </c>
@@ -16176,7 +16136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>0.92</v>
       </c>
@@ -16205,7 +16165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>0.93</v>
       </c>
@@ -16234,7 +16194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
         <v>0.94</v>
       </c>
@@ -16263,7 +16223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>0.95</v>
       </c>
@@ -16292,7 +16252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <v>0.96</v>
       </c>
@@ -16321,7 +16281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>0.97</v>
       </c>
@@ -16350,7 +16310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <v>0.98</v>
       </c>
@@ -16379,7 +16339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>0.99</v>
       </c>
@@ -16408,7 +16368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="8">
         <v>1</v>
       </c>

--- a/Coursework Reports/5th assignment/xlsx5.xlsx
+++ b/Coursework Reports/5th assignment/xlsx5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC0E53B-C35B-4924-9254-7D2D5B316577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DAD383-4D00-40BA-A4ED-F8693A7EB864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Liczba wywołań funkcji celu</t>
   </si>
@@ -282,9 +282,6 @@
   </si>
   <si>
     <t>a=100</t>
-  </si>
-  <si>
-    <t>flag</t>
   </si>
 </sst>
 </file>
@@ -13430,7 +13427,7 @@
   <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:M2"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13464,9 +13461,7 @@
       <c r="H1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="29" t="s">
-        <v>17</v>
-      </c>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
@@ -13493,9 +13488,6 @@
       <c r="H2" s="12">
         <v>326</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
@@ -13522,9 +13514,6 @@
       <c r="H3" s="9">
         <v>472</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
@@ -13551,9 +13540,6 @@
       <c r="H4" s="9">
         <v>280</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
@@ -13580,9 +13566,6 @@
       <c r="H5" s="9">
         <v>280</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
@@ -13609,9 +13592,6 @@
       <c r="H6" s="9">
         <v>280</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
@@ -13638,9 +13618,6 @@
       <c r="H7" s="9">
         <v>280</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
@@ -13667,9 +13644,6 @@
       <c r="H8" s="9">
         <v>446</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
@@ -13696,9 +13670,6 @@
       <c r="H9" s="9">
         <v>280</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
@@ -13725,9 +13696,6 @@
       <c r="H10" s="9">
         <v>446</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -13754,9 +13722,6 @@
       <c r="H11" s="9">
         <v>280</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
@@ -13783,9 +13748,6 @@
       <c r="H12" s="9">
         <v>280</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -13812,9 +13774,6 @@
       <c r="H13" s="9">
         <v>280</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
@@ -13841,9 +13800,6 @@
       <c r="H14" s="9">
         <v>280</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
@@ -13870,9 +13826,6 @@
       <c r="H15" s="9">
         <v>472</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
@@ -13899,11 +13852,8 @@
       <c r="H16" s="9">
         <v>280</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>0.15</v>
       </c>
@@ -13928,11 +13878,8 @@
       <c r="H17" s="9">
         <v>280</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>0.16</v>
       </c>
@@ -13957,11 +13904,8 @@
       <c r="H18" s="9">
         <v>280</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>0.17</v>
       </c>
@@ -13986,11 +13930,8 @@
       <c r="H19" s="9">
         <v>280</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>0.18</v>
       </c>
@@ -14015,11 +13956,8 @@
       <c r="H20" s="9">
         <v>280</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>0.19</v>
       </c>
@@ -14044,11 +13982,8 @@
       <c r="H21" s="9">
         <v>280</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>0.2</v>
       </c>
@@ -14073,11 +14008,8 @@
       <c r="H22" s="9">
         <v>280</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>0.21</v>
       </c>
@@ -14102,11 +14034,8 @@
       <c r="H23" s="9">
         <v>280</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>0.22</v>
       </c>
@@ -14131,11 +14060,8 @@
       <c r="H24" s="9">
         <v>280</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>0.23</v>
       </c>
@@ -14160,11 +14086,8 @@
       <c r="H25" s="9">
         <v>280</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>0.24</v>
       </c>
@@ -14189,11 +14112,8 @@
       <c r="H26" s="9">
         <v>280</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>0.25</v>
       </c>
@@ -14218,11 +14138,8 @@
       <c r="H27" s="9">
         <v>446</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>0.26</v>
       </c>
@@ -14247,11 +14164,8 @@
       <c r="H28" s="9">
         <v>280</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>0.27</v>
       </c>
@@ -14276,11 +14190,8 @@
       <c r="H29" s="9">
         <v>280</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>0.28000000000000003</v>
       </c>
@@ -14305,11 +14216,8 @@
       <c r="H30" s="9">
         <v>280</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>0.28999999999999998</v>
       </c>
@@ -14334,11 +14242,8 @@
       <c r="H31" s="9">
         <v>280</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>0.3</v>
       </c>
@@ -14363,11 +14268,8 @@
       <c r="H32" s="9">
         <v>280</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>0.31</v>
       </c>
@@ -14392,11 +14294,8 @@
       <c r="H33" s="9">
         <v>472</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>0.32</v>
       </c>
@@ -14421,11 +14320,8 @@
       <c r="H34" s="9">
         <v>446</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>0.33</v>
       </c>
@@ -14450,11 +14346,8 @@
       <c r="H35" s="9">
         <v>472</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>0.34</v>
       </c>
@@ -14479,11 +14372,8 @@
       <c r="H36" s="9">
         <v>496</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>0.35</v>
       </c>
@@ -14508,11 +14398,8 @@
       <c r="H37" s="9">
         <v>472</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>0.36</v>
       </c>
@@ -14537,11 +14424,8 @@
       <c r="H38" s="9">
         <v>326</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>0.37</v>
       </c>
@@ -14566,11 +14450,8 @@
       <c r="H39" s="9">
         <v>280</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>0.38</v>
       </c>
@@ -14595,11 +14476,8 @@
       <c r="H40" s="9">
         <v>281</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>0.39</v>
       </c>
@@ -14624,11 +14502,8 @@
       <c r="H41" s="9">
         <v>280</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>0.4</v>
       </c>
@@ -14653,11 +14528,8 @@
       <c r="H42" s="9">
         <v>280</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>0.41</v>
       </c>
@@ -14682,11 +14554,8 @@
       <c r="H43" s="9">
         <v>326</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>0.42</v>
       </c>
@@ -14711,11 +14580,8 @@
       <c r="H44" s="9">
         <v>280</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>0.43</v>
       </c>
@@ -14740,11 +14606,8 @@
       <c r="H45" s="9">
         <v>496</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>0.44</v>
       </c>
@@ -14769,11 +14632,8 @@
       <c r="H46" s="9">
         <v>280</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>0.45</v>
       </c>
@@ -14798,11 +14658,8 @@
       <c r="H47" s="9">
         <v>280</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>0.46</v>
       </c>
@@ -14827,11 +14684,8 @@
       <c r="H48" s="9">
         <v>280</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>0.47</v>
       </c>
@@ -14856,11 +14710,8 @@
       <c r="H49" s="9">
         <v>280</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>0.48</v>
       </c>
@@ -14885,11 +14736,8 @@
       <c r="H50" s="9">
         <v>280</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>0.49</v>
       </c>
@@ -14914,11 +14762,8 @@
       <c r="H51" s="9">
         <v>280</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>0.5</v>
       </c>
@@ -14943,11 +14788,8 @@
       <c r="H52" s="9">
         <v>280</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>0.51</v>
       </c>
@@ -14972,11 +14814,8 @@
       <c r="H53" s="9">
         <v>280</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>0.52</v>
       </c>
@@ -15001,11 +14840,8 @@
       <c r="H54" s="9">
         <v>496</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>0.53</v>
       </c>
@@ -15030,11 +14866,8 @@
       <c r="H55" s="9">
         <v>280</v>
       </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>0.54</v>
       </c>
@@ -15059,11 +14892,8 @@
       <c r="H56" s="9">
         <v>446</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>0.55000000000000004</v>
       </c>
@@ -15088,11 +14918,8 @@
       <c r="H57" s="9">
         <v>280</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>0.56000000000000005</v>
       </c>
@@ -15117,11 +14944,8 @@
       <c r="H58" s="9">
         <v>280</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>0.56999999999999995</v>
       </c>
@@ -15146,11 +14970,8 @@
       <c r="H59" s="9">
         <v>280</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>0.57999999999999996</v>
       </c>
@@ -15175,11 +14996,8 @@
       <c r="H60" s="9">
         <v>280</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>0.59</v>
       </c>
@@ -15204,11 +15022,8 @@
       <c r="H61" s="9">
         <v>280</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>0.6</v>
       </c>
@@ -15233,11 +15048,8 @@
       <c r="H62" s="9">
         <v>280</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>0.61</v>
       </c>
@@ -15262,11 +15074,8 @@
       <c r="H63" s="9">
         <v>280</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>0.62</v>
       </c>
@@ -15291,11 +15100,8 @@
       <c r="H64" s="9">
         <v>280</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>0.63</v>
       </c>
@@ -15320,11 +15126,8 @@
       <c r="H65" s="9">
         <v>472</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>0.64</v>
       </c>
@@ -15349,11 +15152,8 @@
       <c r="H66" s="9">
         <v>496</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>0.65</v>
       </c>
@@ -15378,11 +15178,8 @@
       <c r="H67" s="9">
         <v>662</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>0.66</v>
       </c>
@@ -15407,11 +15204,8 @@
       <c r="H68" s="9">
         <v>496</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>0.67</v>
       </c>
@@ -15436,11 +15230,8 @@
       <c r="H69" s="9">
         <v>326</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>0.68</v>
       </c>
@@ -15465,11 +15256,8 @@
       <c r="H70" s="9">
         <v>280</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>0.69</v>
       </c>
@@ -15494,11 +15282,8 @@
       <c r="H71" s="9">
         <v>2373</v>
       </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>0.7</v>
       </c>
@@ -15523,11 +15308,8 @@
       <c r="H72" s="9">
         <v>280</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>0.71</v>
       </c>
@@ -15552,11 +15334,8 @@
       <c r="H73" s="9">
         <v>280</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>0.72</v>
       </c>
@@ -15581,11 +15360,8 @@
       <c r="H74" s="9">
         <v>280</v>
       </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>0.73</v>
       </c>
@@ -15610,11 +15386,8 @@
       <c r="H75" s="9">
         <v>280</v>
       </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>0.74</v>
       </c>
@@ -15639,11 +15412,8 @@
       <c r="H76" s="9">
         <v>496</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>0.75</v>
       </c>
@@ -15668,11 +15438,8 @@
       <c r="H77" s="9">
         <v>472</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>0.76</v>
       </c>
@@ -15697,11 +15464,8 @@
       <c r="H78" s="9">
         <v>280</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>0.77</v>
       </c>
@@ -15726,11 +15490,8 @@
       <c r="H79" s="9">
         <v>280</v>
       </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>0.78</v>
       </c>
@@ -15755,11 +15516,8 @@
       <c r="H80" s="9">
         <v>280</v>
       </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>0.79</v>
       </c>
@@ -15784,11 +15542,8 @@
       <c r="H81" s="9">
         <v>446</v>
       </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <v>0.8</v>
       </c>
@@ -15813,11 +15568,8 @@
       <c r="H82" s="9">
         <v>280</v>
       </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>0.81</v>
       </c>
@@ -15842,11 +15594,8 @@
       <c r="H83" s="9">
         <v>472</v>
       </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
         <v>0.82</v>
       </c>
@@ -15871,11 +15620,8 @@
       <c r="H84" s="9">
         <v>496</v>
       </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>0.83</v>
       </c>
@@ -15900,11 +15646,8 @@
       <c r="H85" s="9">
         <v>280</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <v>0.84</v>
       </c>
@@ -15929,11 +15672,8 @@
       <c r="H86" s="9">
         <v>280</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>0.85</v>
       </c>
@@ -15958,11 +15698,8 @@
       <c r="H87" s="9">
         <v>280</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>0.86</v>
       </c>
@@ -15987,11 +15724,8 @@
       <c r="H88" s="9">
         <v>280</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>0.87</v>
       </c>
@@ -16016,11 +15750,8 @@
       <c r="H89" s="9">
         <v>326</v>
       </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>0.88</v>
       </c>
@@ -16045,11 +15776,8 @@
       <c r="H90" s="9">
         <v>280</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>0.89</v>
       </c>
@@ -16074,11 +15802,8 @@
       <c r="H91" s="9">
         <v>280</v>
       </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>0.9</v>
       </c>
@@ -16103,11 +15828,8 @@
       <c r="H92" s="9">
         <v>446</v>
       </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>0.91</v>
       </c>
@@ -16132,11 +15854,8 @@
       <c r="H93" s="9">
         <v>496</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>0.92</v>
       </c>
@@ -16161,11 +15880,8 @@
       <c r="H94" s="9">
         <v>639</v>
       </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>0.93</v>
       </c>
@@ -16190,11 +15906,8 @@
       <c r="H95" s="9">
         <v>496</v>
       </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
         <v>0.94</v>
       </c>
@@ -16219,11 +15932,8 @@
       <c r="H96" s="9">
         <v>280</v>
       </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>0.95</v>
       </c>
@@ -16248,11 +15958,8 @@
       <c r="H97" s="9">
         <v>496</v>
       </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <v>0.96</v>
       </c>
@@ -16277,11 +15984,8 @@
       <c r="H98" s="9">
         <v>280</v>
       </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>0.97</v>
       </c>
@@ -16306,11 +16010,8 @@
       <c r="H99" s="9">
         <v>280</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <v>0.98</v>
       </c>
@@ -16335,11 +16036,8 @@
       <c r="H100" s="9">
         <v>280</v>
       </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>0.99</v>
       </c>
@@ -16364,11 +16062,8 @@
       <c r="H101" s="9">
         <v>496</v>
       </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="8">
         <v>1</v>
       </c>
@@ -16392,9 +16087,6 @@
       </c>
       <c r="H102" s="10">
         <v>496</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
